--- a/data-raw/snu_x_im_distribution_configuration/23Tto24TMap.xlsx
+++ b/data-raw/snu_x_im_distribution_configuration/23Tto24TMap.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sam/Documents/GitHub/data-pack-commons/data-raw/snu_x_im_distribution_configuration/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/faustolopezbao/Documents/GitHub/data-pack-commons/data-raw/snu_x_im_distribution_configuration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{69DB97FA-C5D8-F24F-8C0B-353A7F2049E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{96558AAA-0809-844B-BF97-4E765785DE11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35280" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36480" yWindow="940" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Map" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="1274" uniqueCount="279">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="1274" uniqueCount="278">
   <si>
     <t>CXCA_SCRN</t>
   </si>
@@ -849,9 +849,6 @@
   </si>
   <si>
     <t>OVC_SERV.DREAMS.T</t>
-  </si>
-  <si>
-    <t>DE_GROUP-bEEWV7SqvjQ</t>
   </si>
   <si>
     <t>wqHjTjIvhlw</t>
@@ -1404,19 +1401,18 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1787,10 +1783,10 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScaleNormal="140" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A44" sqref="A44"/>
-      <selection pane="topRight" activeCell="B26" sqref="B26"/>
+      <selection pane="topRight" activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2033,7 +2029,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="2" t="s">
         <v>151</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -2069,7 +2065,7 @@
       <c r="L6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="M6" s="2" t="s">
         <v>2</v>
       </c>
       <c r="N6" s="1" t="s">
@@ -2165,7 +2161,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="2" t="s">
         <v>154</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -2201,7 +2197,7 @@
       <c r="L9" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="M9" s="4" t="s">
+      <c r="M9" s="2" t="s">
         <v>2</v>
       </c>
       <c r="N9" s="1" t="s">
@@ -2377,7 +2373,7 @@
       <c r="L13" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="M13" s="4" t="s">
+      <c r="M13" s="2" t="s">
         <v>2</v>
       </c>
       <c r="N13" s="1" t="s">
@@ -2473,7 +2469,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="2" t="s">
         <v>161</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -2509,7 +2505,7 @@
       <c r="L16" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="M16" s="4" t="s">
+      <c r="M16" s="2" t="s">
         <v>2</v>
       </c>
       <c r="N16" s="1" t="s">
@@ -2693,7 +2689,7 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="2" t="s">
         <v>166</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -2729,7 +2725,7 @@
       <c r="L21" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="M21" s="4" t="s">
+      <c r="M21" s="2" t="s">
         <v>2</v>
       </c>
       <c r="N21" s="1" t="s">
@@ -2861,7 +2857,7 @@
       <c r="L24" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="M24" s="4" t="s">
+      <c r="M24" s="2" t="s">
         <v>2</v>
       </c>
       <c r="N24" s="1" t="s">
@@ -2957,7 +2953,7 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="2" t="s">
         <v>172</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -2993,7 +2989,7 @@
       <c r="L27" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="M27" s="4" t="s">
+      <c r="M27" s="2" t="s">
         <v>2</v>
       </c>
       <c r="N27" s="1" t="s">
@@ -3177,7 +3173,7 @@
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="2" t="s">
         <v>177</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -3213,7 +3209,7 @@
       <c r="L32" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="M32" s="4" t="s">
+      <c r="M32" s="2" t="s">
         <v>2</v>
       </c>
       <c r="N32" s="1" t="s">
@@ -3309,7 +3305,7 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="2" t="s">
         <v>180</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -3345,7 +3341,7 @@
       <c r="L35" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="M35" s="4" t="s">
+      <c r="M35" s="2" t="s">
         <v>2</v>
       </c>
       <c r="N35" s="1" t="s">
@@ -3477,7 +3473,7 @@
       <c r="L38" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="M38" s="4" t="s">
+      <c r="M38" s="2" t="s">
         <v>2</v>
       </c>
       <c r="N38" s="1" t="s">
@@ -3573,7 +3569,7 @@
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="2" t="s">
         <v>186</v>
       </c>
       <c r="B41" s="1" t="s">
@@ -3653,7 +3649,7 @@
       <c r="L42" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="M42" s="4" t="s">
+      <c r="M42" s="2" t="s">
         <v>2</v>
       </c>
       <c r="N42" s="1" t="s">
@@ -3811,17 +3807,17 @@
       <c r="F46" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="G46" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="H46" s="5" t="s">
+      <c r="G46" s="4" t="s">
         <v>277</v>
       </c>
+      <c r="H46" s="4" t="s">
+        <v>276</v>
+      </c>
       <c r="I46" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="J46" s="6" t="s">
-        <v>276</v>
+      <c r="J46" s="5" t="s">
+        <v>275</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>55</v>
@@ -3855,17 +3851,17 @@
       <c r="F47" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="G47" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="H47" s="5" t="s">
+      <c r="G47" s="4" t="s">
         <v>277</v>
       </c>
+      <c r="H47" s="4" t="s">
+        <v>276</v>
+      </c>
       <c r="I47" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="J47" s="6" t="s">
-        <v>276</v>
+      <c r="J47" s="5" t="s">
+        <v>275</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>55</v>
@@ -3881,46 +3877,46 @@
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A48" s="7" t="s">
+      <c r="A48" s="6" t="s">
         <v>258</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C48" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D48" s="7" t="s">
+      <c r="D48" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E48" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F48" s="7" t="s">
+      <c r="E48" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F48" s="6" t="s">
         <v>81</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="I48" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="J48" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="I48" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="J48" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="K48" s="7" t="s">
+      <c r="K48" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="L48" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="M48" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="N48" s="7" t="s">
+      <c r="L48" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="M48" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N48" s="6" t="s">
         <v>59</v>
       </c>
     </row>
@@ -4313,7 +4309,7 @@
       <c r="L57" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="M57" s="4" t="s">
+      <c r="M57" s="2" t="s">
         <v>2</v>
       </c>
       <c r="N57" s="1" t="s">
@@ -4981,7 +4977,7 @@
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A73" s="4" t="s">
+      <c r="A73" s="2" t="s">
         <v>213</v>
       </c>
       <c r="B73" s="1" t="s">
@@ -5017,7 +5013,7 @@
       <c r="L73" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="M73" s="4" t="s">
+      <c r="M73" s="2" t="s">
         <v>2</v>
       </c>
       <c r="N73" s="1" t="s">
@@ -5641,7 +5637,7 @@
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A88" s="4" t="s">
+      <c r="A88" s="2" t="s">
         <v>228</v>
       </c>
       <c r="B88" s="1" t="s">
@@ -5677,7 +5673,7 @@
       <c r="L88" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="M88" s="4" t="s">
+      <c r="M88" s="2" t="s">
         <v>2</v>
       </c>
       <c r="N88" s="1" t="s">
@@ -5735,7 +5731,7 @@
       <c r="B90" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="C90" s="9" t="s">
+      <c r="C90" s="8" t="s">
         <v>0</v>
       </c>
       <c r="D90" s="1" t="s">
@@ -5756,63 +5752,63 @@
       <c r="I90" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="J90" s="9" t="s">
+      <c r="J90" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="K90" s="10" t="s">
+      <c r="K90" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="L90" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="M90" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="N90" s="9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="11" t="s">
+      <c r="L90" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="M90" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="N90" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="B91" s="12" t="s">
-        <v>271</v>
-      </c>
-      <c r="C91" s="13" t="s">
+      <c r="B91" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C91" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D91" s="12" t="s">
+      <c r="D91" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="E91" s="12" t="s">
+      <c r="E91" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="G91" s="11" t="s">
+      <c r="G91" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="H91" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="I91" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="J91" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="H91" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="I91" s="12" t="s">
-        <v>263</v>
-      </c>
-      <c r="J91" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="K91" s="13" t="s">
+      <c r="K91" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="L91" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="M91" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="N91" s="13" t="s">
+      <c r="L91" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="M91" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="N91" s="12" t="s">
         <v>59</v>
       </c>
     </row>

--- a/data-raw/snu_x_im_distribution_configuration/23Tto24TMap.xlsx
+++ b/data-raw/snu_x_im_distribution_configuration/23Tto24TMap.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/faustolopezbao/Documents/GitHub/data-pack-commons/data-raw/snu_x_im_distribution_configuration/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordanbales/Documents/Repos/data-pack-commons/data-raw/snu_x_im_distribution_configuration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{96558AAA-0809-844B-BF97-4E765785DE11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{858FEB55-DFF6-FC40-A3E3-5C584C808E06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36480" yWindow="940" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Map" sheetId="1" r:id="rId1"/>
@@ -824,9 +824,6 @@
     <t>OVC_SERV.Grad.T</t>
   </si>
   <si>
-    <t>DE_GROUP-QjkuCJf6lCs</t>
-  </si>
-  <si>
     <t>2021Oct</t>
   </si>
   <si>
@@ -870,6 +867,9 @@
   </si>
   <si>
     <t>Age/Sex/ProgramStatus;Age/Sex/ProgramStatusCaregiver</t>
+  </si>
+  <si>
+    <t>DE_GROUP-OuKFZzVk6gr</t>
   </si>
 </sst>
 </file>
@@ -1401,18 +1401,19 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1783,10 +1784,10 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A44" sqref="A44"/>
-      <selection pane="topRight" activeCell="D82" sqref="D82"/>
+      <selection pane="topRight" activeCell="B12" sqref="B12:B91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1857,7 +1858,7 @@
         <v>147</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -1878,7 +1879,7 @@
         <v>122</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>2</v>
@@ -1901,7 +1902,7 @@
         <v>148</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>3</v>
@@ -1922,7 +1923,7 @@
         <v>122</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>2</v>
@@ -1945,7 +1946,7 @@
         <v>149</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>127</v>
@@ -1966,10 +1967,10 @@
         <v>109</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>55</v>
@@ -1989,7 +1990,7 @@
         <v>150</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>127</v>
@@ -2010,10 +2011,10 @@
         <v>109</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>55</v>
@@ -2029,11 +2030,11 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="4" t="s">
         <v>151</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
@@ -2054,7 +2055,7 @@
         <v>248</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>64</v>
@@ -2065,7 +2066,7 @@
       <c r="L6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="M6" s="4" t="s">
         <v>2</v>
       </c>
       <c r="N6" s="1" t="s">
@@ -2077,7 +2078,7 @@
         <v>152</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>127</v>
@@ -2098,10 +2099,10 @@
         <v>108</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>55</v>
@@ -2121,7 +2122,7 @@
         <v>153</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>127</v>
@@ -2142,10 +2143,10 @@
         <v>108</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>55</v>
@@ -2161,11 +2162,11 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="4" t="s">
         <v>154</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>5</v>
@@ -2186,7 +2187,7 @@
         <v>249</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>64</v>
@@ -2197,7 +2198,7 @@
       <c r="L9" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="4" t="s">
         <v>2</v>
       </c>
       <c r="N9" s="1" t="s">
@@ -2209,7 +2210,7 @@
         <v>155</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>6</v>
@@ -2230,7 +2231,7 @@
         <v>104</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>54</v>
@@ -2253,7 +2254,7 @@
         <v>156</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>7</v>
@@ -2274,7 +2275,7 @@
         <v>107</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>56</v>
@@ -2297,7 +2298,7 @@
         <v>157</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>7</v>
@@ -2318,7 +2319,7 @@
         <v>107</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>56</v>
@@ -2341,7 +2342,7 @@
         <v>158</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>5</v>
@@ -2362,7 +2363,7 @@
         <v>250</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>64</v>
@@ -2373,7 +2374,7 @@
       <c r="L13" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="M13" s="2" t="s">
+      <c r="M13" s="4" t="s">
         <v>2</v>
       </c>
       <c r="N13" s="1" t="s">
@@ -2385,7 +2386,7 @@
         <v>159</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>7</v>
@@ -2406,7 +2407,7 @@
         <v>110</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>56</v>
@@ -2429,7 +2430,7 @@
         <v>160</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>7</v>
@@ -2450,7 +2451,7 @@
         <v>110</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>56</v>
@@ -2469,11 +2470,11 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="4" t="s">
         <v>161</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>5</v>
@@ -2494,7 +2495,7 @@
         <v>251</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>64</v>
@@ -2505,7 +2506,7 @@
       <c r="L16" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="4" t="s">
         <v>2</v>
       </c>
       <c r="N16" s="1" t="s">
@@ -2517,7 +2518,7 @@
         <v>162</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>7</v>
@@ -2538,7 +2539,7 @@
         <v>114</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>57</v>
@@ -2561,7 +2562,7 @@
         <v>163</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>7</v>
@@ -2582,7 +2583,7 @@
         <v>114</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>57</v>
@@ -2605,7 +2606,7 @@
         <v>164</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>7</v>
@@ -2626,7 +2627,7 @@
         <v>123</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>56</v>
@@ -2649,7 +2650,7 @@
         <v>165</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>7</v>
@@ -2670,7 +2671,7 @@
         <v>123</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>56</v>
@@ -2689,11 +2690,11 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="4" t="s">
         <v>166</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>5</v>
@@ -2714,7 +2715,7 @@
         <v>252</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>64</v>
@@ -2725,7 +2726,7 @@
       <c r="L21" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="M21" s="2" t="s">
+      <c r="M21" s="4" t="s">
         <v>2</v>
       </c>
       <c r="N21" s="1" t="s">
@@ -2737,7 +2738,7 @@
         <v>167</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>7</v>
@@ -2758,7 +2759,7 @@
         <v>116</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>56</v>
@@ -2781,7 +2782,7 @@
         <v>168</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>7</v>
@@ -2802,7 +2803,7 @@
         <v>116</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>56</v>
@@ -2825,7 +2826,7 @@
         <v>169</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>5</v>
@@ -2846,7 +2847,7 @@
         <v>253</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>64</v>
@@ -2857,7 +2858,7 @@
       <c r="L24" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="M24" s="2" t="s">
+      <c r="M24" s="4" t="s">
         <v>2</v>
       </c>
       <c r="N24" s="1" t="s">
@@ -2869,7 +2870,7 @@
         <v>170</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>7</v>
@@ -2890,7 +2891,7 @@
         <v>117</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>56</v>
@@ -2913,7 +2914,7 @@
         <v>171</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>7</v>
@@ -2934,7 +2935,7 @@
         <v>117</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>56</v>
@@ -2953,11 +2954,11 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="4" t="s">
         <v>172</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>5</v>
@@ -2978,7 +2979,7 @@
         <v>254</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>64</v>
@@ -2989,7 +2990,7 @@
       <c r="L27" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="M27" s="2" t="s">
+      <c r="M27" s="4" t="s">
         <v>2</v>
       </c>
       <c r="N27" s="1" t="s">
@@ -3001,7 +3002,7 @@
         <v>173</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>7</v>
@@ -3022,7 +3023,7 @@
         <v>118</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>57</v>
@@ -3045,7 +3046,7 @@
         <v>174</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>7</v>
@@ -3066,7 +3067,7 @@
         <v>118</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>57</v>
@@ -3089,7 +3090,7 @@
         <v>175</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>7</v>
@@ -3110,10 +3111,10 @@
         <v>145</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K30" s="3" t="s">
         <v>63</v>
@@ -3133,7 +3134,7 @@
         <v>176</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>7</v>
@@ -3154,10 +3155,10 @@
         <v>145</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K31" s="3" t="s">
         <v>63</v>
@@ -3173,11 +3174,11 @@
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="4" t="s">
         <v>177</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>5</v>
@@ -3198,7 +3199,7 @@
         <v>255</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>64</v>
@@ -3209,7 +3210,7 @@
       <c r="L32" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="M32" s="2" t="s">
+      <c r="M32" s="4" t="s">
         <v>2</v>
       </c>
       <c r="N32" s="1" t="s">
@@ -3221,7 +3222,7 @@
         <v>178</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>7</v>
@@ -3242,7 +3243,7 @@
         <v>120</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>56</v>
@@ -3265,7 +3266,7 @@
         <v>179</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>7</v>
@@ -3286,7 +3287,7 @@
         <v>120</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>56</v>
@@ -3305,11 +3306,11 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="4" t="s">
         <v>180</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>5</v>
@@ -3330,7 +3331,7 @@
         <v>256</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>64</v>
@@ -3341,7 +3342,7 @@
       <c r="L35" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="M35" s="2" t="s">
+      <c r="M35" s="4" t="s">
         <v>2</v>
       </c>
       <c r="N35" s="1" t="s">
@@ -3353,7 +3354,7 @@
         <v>181</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>7</v>
@@ -3374,7 +3375,7 @@
         <v>121</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>56</v>
@@ -3397,7 +3398,7 @@
         <v>182</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>7</v>
@@ -3418,7 +3419,7 @@
         <v>121</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>56</v>
@@ -3441,7 +3442,7 @@
         <v>183</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>5</v>
@@ -3462,7 +3463,7 @@
         <v>257</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>64</v>
@@ -3473,7 +3474,7 @@
       <c r="L38" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="M38" s="2" t="s">
+      <c r="M38" s="4" t="s">
         <v>2</v>
       </c>
       <c r="N38" s="1" t="s">
@@ -3485,7 +3486,7 @@
         <v>184</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>7</v>
@@ -3506,7 +3507,7 @@
         <v>113</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J39" s="3" t="s">
         <v>2</v>
@@ -3529,7 +3530,7 @@
         <v>185</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>7</v>
@@ -3550,7 +3551,7 @@
         <v>113</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J40" s="3" t="s">
         <v>2</v>
@@ -3569,11 +3570,11 @@
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="4" t="s">
         <v>186</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>6</v>
@@ -3594,7 +3595,7 @@
         <v>111</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>2</v>
@@ -3617,7 +3618,7 @@
         <v>187</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>5</v>
@@ -3638,7 +3639,7 @@
         <v>112</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>2</v>
@@ -3649,7 +3650,7 @@
       <c r="L42" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="M42" s="2" t="s">
+      <c r="M42" s="4" t="s">
         <v>2</v>
       </c>
       <c r="N42" s="1" t="s">
@@ -3661,7 +3662,7 @@
         <v>188</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>9</v>
@@ -3682,7 +3683,7 @@
         <v>119</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J43" s="1" t="s">
         <v>2</v>
@@ -3705,7 +3706,7 @@
         <v>189</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>11</v>
@@ -3726,7 +3727,7 @@
         <v>111</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>2</v>
@@ -3749,7 +3750,7 @@
         <v>190</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>13</v>
@@ -3770,7 +3771,7 @@
         <v>115</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J45" s="1" t="s">
         <v>2</v>
@@ -3793,7 +3794,7 @@
         <v>191</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>14</v>
@@ -3807,17 +3808,17 @@
       <c r="F46" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="G46" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="H46" s="4" t="s">
+      <c r="G46" s="5" t="s">
         <v>276</v>
       </c>
+      <c r="H46" s="5" t="s">
+        <v>275</v>
+      </c>
       <c r="I46" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="J46" s="5" t="s">
-        <v>275</v>
+        <v>262</v>
+      </c>
+      <c r="J46" s="6" t="s">
+        <v>274</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>55</v>
@@ -3837,7 +3838,7 @@
         <v>261</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>14</v>
@@ -3851,17 +3852,17 @@
       <c r="F47" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="G47" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="H47" s="4" t="s">
+      <c r="G47" s="5" t="s">
         <v>276</v>
       </c>
+      <c r="H47" s="5" t="s">
+        <v>275</v>
+      </c>
       <c r="I47" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="J47" s="5" t="s">
-        <v>275</v>
+        <v>262</v>
+      </c>
+      <c r="J47" s="6" t="s">
+        <v>274</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>55</v>
@@ -3877,46 +3878,46 @@
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A48" s="6" t="s">
+      <c r="A48" s="7" t="s">
         <v>258</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="C48" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="C48" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D48" s="6" t="s">
+      <c r="D48" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="E48" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F48" s="6" t="s">
+      <c r="E48" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F48" s="7" t="s">
         <v>81</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="I48" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="J48" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="I48" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="J48" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="K48" s="6" t="s">
+      <c r="K48" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="L48" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="M48" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="N48" s="6" t="s">
+      <c r="L48" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="M48" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="N48" s="7" t="s">
         <v>59</v>
       </c>
     </row>
@@ -3925,7 +3926,7 @@
         <v>192</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>15</v>
@@ -3946,10 +3947,10 @@
         <v>132</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>63</v>
@@ -3969,7 +3970,7 @@
         <v>193</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>15</v>
@@ -3990,10 +3991,10 @@
         <v>132</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K50" s="3" t="s">
         <v>63</v>
@@ -4013,7 +4014,7 @@
         <v>194</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>16</v>
@@ -4034,7 +4035,7 @@
         <v>103</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J51" s="1" t="s">
         <v>61</v>
@@ -4057,7 +4058,7 @@
         <v>195</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>16</v>
@@ -4078,7 +4079,7 @@
         <v>103</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J52" s="1" t="s">
         <v>62</v>
@@ -4101,7 +4102,7 @@
         <v>196</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>18</v>
@@ -4122,10 +4123,10 @@
         <v>104</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K53" s="3" t="s">
         <v>63</v>
@@ -4145,7 +4146,7 @@
         <v>197</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>18</v>
@@ -4166,10 +4167,10 @@
         <v>106</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>63</v>
@@ -4189,7 +4190,7 @@
         <v>198</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>18</v>
@@ -4210,10 +4211,10 @@
         <v>106</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K55" s="3" t="s">
         <v>63</v>
@@ -4233,7 +4234,7 @@
         <v>199</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>18</v>
@@ -4254,10 +4255,10 @@
         <v>106</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K56" s="3" t="s">
         <v>63</v>
@@ -4277,7 +4278,7 @@
         <v>260</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>5</v>
@@ -4298,7 +4299,7 @@
         <v>233</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J57" s="1" t="s">
         <v>64</v>
@@ -4309,7 +4310,7 @@
       <c r="L57" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="M57" s="2" t="s">
+      <c r="M57" s="4" t="s">
         <v>2</v>
       </c>
       <c r="N57" s="1" t="s">
@@ -4321,7 +4322,7 @@
         <v>200</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>21</v>
@@ -4342,7 +4343,7 @@
         <v>104</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J58" s="1" t="s">
         <v>54</v>
@@ -4362,10 +4363,10 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>22</v>
@@ -4386,7 +4387,7 @@
         <v>104</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J59" s="1" t="s">
         <v>64</v>
@@ -4406,10 +4407,10 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>22</v>
@@ -4430,7 +4431,7 @@
         <v>111</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>2</v>
@@ -4453,7 +4454,7 @@
         <v>201</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>23</v>
@@ -4474,7 +4475,7 @@
         <v>104</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J61" s="1" t="s">
         <v>64</v>
@@ -4497,7 +4498,7 @@
         <v>202</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>23</v>
@@ -4518,7 +4519,7 @@
         <v>111</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>2</v>
@@ -4541,7 +4542,7 @@
         <v>203</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>24</v>
@@ -4562,10 +4563,10 @@
         <v>132</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K63" s="3" t="s">
         <v>55</v>
@@ -4585,7 +4586,7 @@
         <v>204</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>24</v>
@@ -4606,10 +4607,10 @@
         <v>132</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K64" s="3" t="s">
         <v>55</v>
@@ -4629,7 +4630,7 @@
         <v>205</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>25</v>
@@ -4650,7 +4651,7 @@
         <v>132</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J65" s="1" t="s">
         <v>126</v>
@@ -4673,7 +4674,7 @@
         <v>206</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>25</v>
@@ -4694,7 +4695,7 @@
         <v>132</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J66" s="1" t="s">
         <v>126</v>
@@ -4717,7 +4718,7 @@
         <v>207</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>25</v>
@@ -4738,7 +4739,7 @@
         <v>132</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J67" s="1" t="s">
         <v>126</v>
@@ -4761,7 +4762,7 @@
         <v>208</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>25</v>
@@ -4782,7 +4783,7 @@
         <v>132</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J68" s="1" t="s">
         <v>126</v>
@@ -4805,7 +4806,7 @@
         <v>209</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>26</v>
@@ -4826,10 +4827,10 @@
         <v>104</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K69" s="3" t="s">
         <v>55</v>
@@ -4849,7 +4850,7 @@
         <v>210</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>26</v>
@@ -4870,10 +4871,10 @@
         <v>106</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K70" s="3" t="s">
         <v>55</v>
@@ -4893,7 +4894,7 @@
         <v>211</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>26</v>
@@ -4914,10 +4915,10 @@
         <v>106</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K71" s="3" t="s">
         <v>55</v>
@@ -4937,7 +4938,7 @@
         <v>212</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>26</v>
@@ -4958,10 +4959,10 @@
         <v>106</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>55</v>
@@ -4977,11 +4978,11 @@
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A73" s="2" t="s">
+      <c r="A73" s="4" t="s">
         <v>213</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>5</v>
@@ -5002,7 +5003,7 @@
         <v>235</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J73" s="1" t="s">
         <v>64</v>
@@ -5013,7 +5014,7 @@
       <c r="L73" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="M73" s="2" t="s">
+      <c r="M73" s="4" t="s">
         <v>2</v>
       </c>
       <c r="N73" s="1" t="s">
@@ -5025,7 +5026,7 @@
         <v>214</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>27</v>
@@ -5046,10 +5047,10 @@
         <v>105</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K74" s="3" t="s">
         <v>55</v>
@@ -5069,7 +5070,7 @@
         <v>215</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>28</v>
@@ -5090,10 +5091,10 @@
         <v>105</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K75" s="3" t="s">
         <v>55</v>
@@ -5113,7 +5114,7 @@
         <v>216</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>28</v>
@@ -5134,7 +5135,7 @@
         <v>112</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>2</v>
@@ -5157,7 +5158,7 @@
         <v>217</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>27</v>
@@ -5178,7 +5179,7 @@
         <v>112</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J77" s="3" t="s">
         <v>2</v>
@@ -5201,7 +5202,7 @@
         <v>218</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>30</v>
@@ -5222,7 +5223,7 @@
         <v>112</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J78" s="3" t="s">
         <v>2</v>
@@ -5245,7 +5246,7 @@
         <v>219</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>30</v>
@@ -5266,7 +5267,7 @@
         <v>112</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J79" s="3" t="s">
         <v>2</v>
@@ -5289,7 +5290,7 @@
         <v>220</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>30</v>
@@ -5310,10 +5311,10 @@
         <v>134</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K80" s="3" t="s">
         <v>55</v>
@@ -5333,7 +5334,7 @@
         <v>221</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>30</v>
@@ -5354,10 +5355,10 @@
         <v>134</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>55</v>
@@ -5377,7 +5378,7 @@
         <v>222</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>32</v>
@@ -5398,7 +5399,7 @@
         <v>138</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J82" s="1" t="s">
         <v>126</v>
@@ -5421,7 +5422,7 @@
         <v>223</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>32</v>
@@ -5442,7 +5443,7 @@
         <v>138</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J83" s="1" t="s">
         <v>126</v>
@@ -5465,7 +5466,7 @@
         <v>224</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>32</v>
@@ -5486,7 +5487,7 @@
         <v>138</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J84" s="1" t="s">
         <v>126</v>
@@ -5509,7 +5510,7 @@
         <v>225</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>32</v>
@@ -5530,7 +5531,7 @@
         <v>138</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J85" s="1" t="s">
         <v>126</v>
@@ -5553,7 +5554,7 @@
         <v>226</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>34</v>
@@ -5574,10 +5575,10 @@
         <v>105</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K86" s="3" t="s">
         <v>75</v>
@@ -5597,7 +5598,7 @@
         <v>227</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>34</v>
@@ -5618,10 +5619,10 @@
         <v>105</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K87" s="3" t="s">
         <v>75</v>
@@ -5637,11 +5638,11 @@
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A88" s="2" t="s">
+      <c r="A88" s="4" t="s">
         <v>228</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>5</v>
@@ -5662,7 +5663,7 @@
         <v>237</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J88" s="1" t="s">
         <v>64</v>
@@ -5673,7 +5674,7 @@
       <c r="L88" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="M88" s="2" t="s">
+      <c r="M88" s="4" t="s">
         <v>2</v>
       </c>
       <c r="N88" s="1" t="s">
@@ -5685,7 +5686,7 @@
         <v>229</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>34</v>
@@ -5706,10 +5707,10 @@
         <v>105</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>75</v>
@@ -5729,9 +5730,9 @@
         <v>230</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="C90" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="C90" s="9" t="s">
         <v>0</v>
       </c>
       <c r="D90" s="1" t="s">
@@ -5750,65 +5751,65 @@
         <v>105</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="J90" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="J90" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="K90" s="9" t="s">
+      <c r="K90" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="L90" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="M90" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="N90" s="8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="10" t="s">
-        <v>270</v>
+      <c r="L90" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="M90" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="N90" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="11" t="s">
+        <v>269</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="C91" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="C91" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D91" s="11" t="s">
+      <c r="D91" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="E91" s="11" t="s">
+      <c r="E91" s="12" t="s">
         <v>36</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="G91" s="10" t="s">
+      <c r="G91" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="H91" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="I91" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="J91" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="H91" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="I91" s="11" t="s">
-        <v>263</v>
-      </c>
-      <c r="J91" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="K91" s="12" t="s">
+      <c r="K91" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="L91" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="M91" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="N91" s="12" t="s">
+      <c r="L91" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="M91" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="N91" s="13" t="s">
         <v>59</v>
       </c>
     </row>

--- a/data-raw/snu_x_im_distribution_configuration/23Tto24TMap.xlsx
+++ b/data-raw/snu_x_im_distribution_configuration/23Tto24TMap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordanbales/Documents/Repos/data-pack-commons/data-raw/snu_x_im_distribution_configuration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{858FEB55-DFF6-FC40-A3E3-5C584C808E06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{2E10F037-3E07-5348-9701-0B7EA94D4F2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16000" yWindow="500" windowWidth="32000" windowHeight="26160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Map" sheetId="1" r:id="rId1"/>
@@ -824,9 +824,6 @@
     <t>OVC_SERV.Grad.T</t>
   </si>
   <si>
-    <t>2021Oct</t>
-  </si>
-  <si>
     <t>PrEP_CT.T</t>
   </si>
   <si>
@@ -870,6 +867,9 @@
   </si>
   <si>
     <t>DE_GROUP-OuKFZzVk6gr</t>
+  </si>
+  <si>
+    <t>2022Oct</t>
   </si>
 </sst>
 </file>
@@ -1784,10 +1784,10 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection activeCell="A44" sqref="A44"/>
-      <selection pane="topRight" activeCell="B12" sqref="B12:B91"/>
+      <selection pane="topRight" activeCell="I3" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1858,7 +1858,7 @@
         <v>147</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -1879,7 +1879,7 @@
         <v>122</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>2</v>
@@ -1902,7 +1902,7 @@
         <v>148</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>3</v>
@@ -1923,7 +1923,7 @@
         <v>122</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>2</v>
@@ -1946,7 +1946,7 @@
         <v>149</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>127</v>
@@ -1967,10 +1967,10 @@
         <v>109</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>55</v>
@@ -1990,7 +1990,7 @@
         <v>150</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>127</v>
@@ -2011,10 +2011,10 @@
         <v>109</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>55</v>
@@ -2034,7 +2034,7 @@
         <v>151</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
@@ -2055,7 +2055,7 @@
         <v>248</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>64</v>
@@ -2078,7 +2078,7 @@
         <v>152</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>127</v>
@@ -2099,10 +2099,10 @@
         <v>108</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>55</v>
@@ -2122,7 +2122,7 @@
         <v>153</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>127</v>
@@ -2143,10 +2143,10 @@
         <v>108</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>55</v>
@@ -2166,7 +2166,7 @@
         <v>154</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>5</v>
@@ -2187,7 +2187,7 @@
         <v>249</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>64</v>
@@ -2210,7 +2210,7 @@
         <v>155</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>6</v>
@@ -2231,7 +2231,7 @@
         <v>104</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>54</v>
@@ -2254,7 +2254,7 @@
         <v>156</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>7</v>
@@ -2275,7 +2275,7 @@
         <v>107</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>56</v>
@@ -2298,7 +2298,7 @@
         <v>157</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>7</v>
@@ -2319,7 +2319,7 @@
         <v>107</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>56</v>
@@ -2342,7 +2342,7 @@
         <v>158</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>5</v>
@@ -2363,7 +2363,7 @@
         <v>250</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>64</v>
@@ -2386,7 +2386,7 @@
         <v>159</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>7</v>
@@ -2407,7 +2407,7 @@
         <v>110</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>56</v>
@@ -2430,7 +2430,7 @@
         <v>160</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>7</v>
@@ -2451,7 +2451,7 @@
         <v>110</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>56</v>
@@ -2474,7 +2474,7 @@
         <v>161</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>5</v>
@@ -2495,7 +2495,7 @@
         <v>251</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>64</v>
@@ -2518,7 +2518,7 @@
         <v>162</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>7</v>
@@ -2539,7 +2539,7 @@
         <v>114</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>57</v>
@@ -2562,7 +2562,7 @@
         <v>163</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>7</v>
@@ -2583,7 +2583,7 @@
         <v>114</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>57</v>
@@ -2606,7 +2606,7 @@
         <v>164</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>7</v>
@@ -2627,7 +2627,7 @@
         <v>123</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>56</v>
@@ -2650,7 +2650,7 @@
         <v>165</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>7</v>
@@ -2671,7 +2671,7 @@
         <v>123</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>56</v>
@@ -2694,7 +2694,7 @@
         <v>166</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>5</v>
@@ -2715,7 +2715,7 @@
         <v>252</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>64</v>
@@ -2738,7 +2738,7 @@
         <v>167</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>7</v>
@@ -2759,7 +2759,7 @@
         <v>116</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>56</v>
@@ -2782,7 +2782,7 @@
         <v>168</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>7</v>
@@ -2803,7 +2803,7 @@
         <v>116</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>56</v>
@@ -2826,7 +2826,7 @@
         <v>169</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>5</v>
@@ -2847,7 +2847,7 @@
         <v>253</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>64</v>
@@ -2870,7 +2870,7 @@
         <v>170</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>7</v>
@@ -2891,7 +2891,7 @@
         <v>117</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>56</v>
@@ -2914,7 +2914,7 @@
         <v>171</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>7</v>
@@ -2935,7 +2935,7 @@
         <v>117</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>56</v>
@@ -2958,7 +2958,7 @@
         <v>172</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>5</v>
@@ -2979,7 +2979,7 @@
         <v>254</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>64</v>
@@ -3002,7 +3002,7 @@
         <v>173</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>7</v>
@@ -3023,7 +3023,7 @@
         <v>118</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>57</v>
@@ -3046,7 +3046,7 @@
         <v>174</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>7</v>
@@ -3067,7 +3067,7 @@
         <v>118</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>57</v>
@@ -3090,7 +3090,7 @@
         <v>175</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>7</v>
@@ -3111,10 +3111,10 @@
         <v>145</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K30" s="3" t="s">
         <v>63</v>
@@ -3134,7 +3134,7 @@
         <v>176</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>7</v>
@@ -3155,10 +3155,10 @@
         <v>145</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K31" s="3" t="s">
         <v>63</v>
@@ -3178,7 +3178,7 @@
         <v>177</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>5</v>
@@ -3199,7 +3199,7 @@
         <v>255</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>64</v>
@@ -3222,7 +3222,7 @@
         <v>178</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>7</v>
@@ -3243,7 +3243,7 @@
         <v>120</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>56</v>
@@ -3266,7 +3266,7 @@
         <v>179</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>7</v>
@@ -3287,7 +3287,7 @@
         <v>120</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>56</v>
@@ -3310,7 +3310,7 @@
         <v>180</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>5</v>
@@ -3331,7 +3331,7 @@
         <v>256</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>64</v>
@@ -3354,7 +3354,7 @@
         <v>181</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>7</v>
@@ -3375,7 +3375,7 @@
         <v>121</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>56</v>
@@ -3398,7 +3398,7 @@
         <v>182</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>7</v>
@@ -3419,7 +3419,7 @@
         <v>121</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>56</v>
@@ -3442,7 +3442,7 @@
         <v>183</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>5</v>
@@ -3463,7 +3463,7 @@
         <v>257</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>64</v>
@@ -3486,7 +3486,7 @@
         <v>184</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>7</v>
@@ -3507,7 +3507,7 @@
         <v>113</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="J39" s="3" t="s">
         <v>2</v>
@@ -3530,7 +3530,7 @@
         <v>185</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>7</v>
@@ -3551,7 +3551,7 @@
         <v>113</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="J40" s="3" t="s">
         <v>2</v>
@@ -3574,7 +3574,7 @@
         <v>186</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>6</v>
@@ -3595,7 +3595,7 @@
         <v>111</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>2</v>
@@ -3618,7 +3618,7 @@
         <v>187</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>5</v>
@@ -3639,7 +3639,7 @@
         <v>112</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>2</v>
@@ -3662,7 +3662,7 @@
         <v>188</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>9</v>
@@ -3683,7 +3683,7 @@
         <v>119</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="J43" s="1" t="s">
         <v>2</v>
@@ -3706,7 +3706,7 @@
         <v>189</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>11</v>
@@ -3727,7 +3727,7 @@
         <v>111</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>2</v>
@@ -3750,7 +3750,7 @@
         <v>190</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>13</v>
@@ -3771,7 +3771,7 @@
         <v>115</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="J45" s="1" t="s">
         <v>2</v>
@@ -3794,7 +3794,7 @@
         <v>191</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>14</v>
@@ -3809,16 +3809,16 @@
         <v>81</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="J46" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>55</v>
@@ -3838,7 +3838,7 @@
         <v>261</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>14</v>
@@ -3853,16 +3853,16 @@
         <v>81</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="J47" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>55</v>
@@ -3882,7 +3882,7 @@
         <v>258</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>14</v>
@@ -3897,13 +3897,13 @@
         <v>81</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I48" s="7" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="J48" s="8" t="s">
         <v>259</v>
@@ -3926,7 +3926,7 @@
         <v>192</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>15</v>
@@ -3947,10 +3947,10 @@
         <v>132</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>63</v>
@@ -3970,7 +3970,7 @@
         <v>193</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>15</v>
@@ -3991,10 +3991,10 @@
         <v>132</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K50" s="3" t="s">
         <v>63</v>
@@ -4014,7 +4014,7 @@
         <v>194</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>16</v>
@@ -4035,7 +4035,7 @@
         <v>103</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="J51" s="1" t="s">
         <v>61</v>
@@ -4058,7 +4058,7 @@
         <v>195</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>16</v>
@@ -4079,7 +4079,7 @@
         <v>103</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="J52" s="1" t="s">
         <v>62</v>
@@ -4102,7 +4102,7 @@
         <v>196</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>18</v>
@@ -4123,10 +4123,10 @@
         <v>104</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K53" s="3" t="s">
         <v>63</v>
@@ -4146,7 +4146,7 @@
         <v>197</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>18</v>
@@ -4167,10 +4167,10 @@
         <v>106</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>63</v>
@@ -4190,7 +4190,7 @@
         <v>198</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>18</v>
@@ -4211,10 +4211,10 @@
         <v>106</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K55" s="3" t="s">
         <v>63</v>
@@ -4234,7 +4234,7 @@
         <v>199</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>18</v>
@@ -4255,10 +4255,10 @@
         <v>106</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K56" s="3" t="s">
         <v>63</v>
@@ -4278,7 +4278,7 @@
         <v>260</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>5</v>
@@ -4299,7 +4299,7 @@
         <v>233</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="J57" s="1" t="s">
         <v>64</v>
@@ -4322,7 +4322,7 @@
         <v>200</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>21</v>
@@ -4343,7 +4343,7 @@
         <v>104</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="J58" s="1" t="s">
         <v>54</v>
@@ -4363,10 +4363,10 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>22</v>
@@ -4387,7 +4387,7 @@
         <v>104</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="J59" s="1" t="s">
         <v>64</v>
@@ -4407,10 +4407,10 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>22</v>
@@ -4431,7 +4431,7 @@
         <v>111</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>2</v>
@@ -4454,7 +4454,7 @@
         <v>201</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>23</v>
@@ -4475,7 +4475,7 @@
         <v>104</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="J61" s="1" t="s">
         <v>64</v>
@@ -4498,7 +4498,7 @@
         <v>202</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>23</v>
@@ -4519,7 +4519,7 @@
         <v>111</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>2</v>
@@ -4542,7 +4542,7 @@
         <v>203</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>24</v>
@@ -4563,10 +4563,10 @@
         <v>132</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K63" s="3" t="s">
         <v>55</v>
@@ -4586,7 +4586,7 @@
         <v>204</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>24</v>
@@ -4607,10 +4607,10 @@
         <v>132</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K64" s="3" t="s">
         <v>55</v>
@@ -4630,7 +4630,7 @@
         <v>205</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>25</v>
@@ -4651,7 +4651,7 @@
         <v>132</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="J65" s="1" t="s">
         <v>126</v>
@@ -4674,7 +4674,7 @@
         <v>206</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>25</v>
@@ -4695,7 +4695,7 @@
         <v>132</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="J66" s="1" t="s">
         <v>126</v>
@@ -4718,7 +4718,7 @@
         <v>207</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>25</v>
@@ -4739,7 +4739,7 @@
         <v>132</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="J67" s="1" t="s">
         <v>126</v>
@@ -4762,7 +4762,7 @@
         <v>208</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>25</v>
@@ -4783,7 +4783,7 @@
         <v>132</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="J68" s="1" t="s">
         <v>126</v>
@@ -4806,7 +4806,7 @@
         <v>209</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>26</v>
@@ -4827,10 +4827,10 @@
         <v>104</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K69" s="3" t="s">
         <v>55</v>
@@ -4850,7 +4850,7 @@
         <v>210</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>26</v>
@@ -4871,10 +4871,10 @@
         <v>106</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K70" s="3" t="s">
         <v>55</v>
@@ -4894,7 +4894,7 @@
         <v>211</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>26</v>
@@ -4915,10 +4915,10 @@
         <v>106</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K71" s="3" t="s">
         <v>55</v>
@@ -4938,7 +4938,7 @@
         <v>212</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>26</v>
@@ -4959,10 +4959,10 @@
         <v>106</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>55</v>
@@ -4982,7 +4982,7 @@
         <v>213</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>5</v>
@@ -5003,7 +5003,7 @@
         <v>235</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="J73" s="1" t="s">
         <v>64</v>
@@ -5026,7 +5026,7 @@
         <v>214</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>27</v>
@@ -5047,10 +5047,10 @@
         <v>105</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K74" s="3" t="s">
         <v>55</v>
@@ -5070,7 +5070,7 @@
         <v>215</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>28</v>
@@ -5091,10 +5091,10 @@
         <v>105</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K75" s="3" t="s">
         <v>55</v>
@@ -5114,7 +5114,7 @@
         <v>216</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>28</v>
@@ -5135,7 +5135,7 @@
         <v>112</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>2</v>
@@ -5158,7 +5158,7 @@
         <v>217</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>27</v>
@@ -5179,7 +5179,7 @@
         <v>112</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="J77" s="3" t="s">
         <v>2</v>
@@ -5202,7 +5202,7 @@
         <v>218</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>30</v>
@@ -5223,7 +5223,7 @@
         <v>112</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="J78" s="3" t="s">
         <v>2</v>
@@ -5246,7 +5246,7 @@
         <v>219</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>30</v>
@@ -5267,7 +5267,7 @@
         <v>112</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="J79" s="3" t="s">
         <v>2</v>
@@ -5290,7 +5290,7 @@
         <v>220</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>30</v>
@@ -5311,10 +5311,10 @@
         <v>134</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K80" s="3" t="s">
         <v>55</v>
@@ -5334,7 +5334,7 @@
         <v>221</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>30</v>
@@ -5355,10 +5355,10 @@
         <v>134</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>55</v>
@@ -5378,7 +5378,7 @@
         <v>222</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>32</v>
@@ -5399,7 +5399,7 @@
         <v>138</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="J82" s="1" t="s">
         <v>126</v>
@@ -5422,7 +5422,7 @@
         <v>223</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>32</v>
@@ -5443,7 +5443,7 @@
         <v>138</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="J83" s="1" t="s">
         <v>126</v>
@@ -5466,7 +5466,7 @@
         <v>224</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>32</v>
@@ -5487,7 +5487,7 @@
         <v>138</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="J84" s="1" t="s">
         <v>126</v>
@@ -5510,7 +5510,7 @@
         <v>225</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>32</v>
@@ -5531,7 +5531,7 @@
         <v>138</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="J85" s="1" t="s">
         <v>126</v>
@@ -5554,7 +5554,7 @@
         <v>226</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>34</v>
@@ -5575,10 +5575,10 @@
         <v>105</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K86" s="3" t="s">
         <v>75</v>
@@ -5598,7 +5598,7 @@
         <v>227</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>34</v>
@@ -5619,10 +5619,10 @@
         <v>105</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K87" s="3" t="s">
         <v>75</v>
@@ -5642,7 +5642,7 @@
         <v>228</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>5</v>
@@ -5663,7 +5663,7 @@
         <v>237</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="J88" s="1" t="s">
         <v>64</v>
@@ -5686,7 +5686,7 @@
         <v>229</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>34</v>
@@ -5707,10 +5707,10 @@
         <v>105</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>75</v>
@@ -5730,7 +5730,7 @@
         <v>230</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C90" s="9" t="s">
         <v>0</v>
@@ -5751,7 +5751,7 @@
         <v>105</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="J90" s="9" t="s">
         <v>64</v>
@@ -5771,10 +5771,10 @@
     </row>
     <row r="91" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C91" s="13" t="s">
         <v>14</v>
@@ -5789,16 +5789,16 @@
         <v>81</v>
       </c>
       <c r="G91" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="H91" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="I91" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="J91" s="6" t="s">
         <v>273</v>
-      </c>
-      <c r="H91" s="11" t="s">
-        <v>272</v>
-      </c>
-      <c r="I91" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="J91" s="6" t="s">
-        <v>274</v>
       </c>
       <c r="K91" s="13" t="s">
         <v>63</v>

--- a/data-raw/snu_x_im_distribution_configuration/23Tto24TMap.xlsx
+++ b/data-raw/snu_x_im_distribution_configuration/23Tto24TMap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordanbales/Documents/Repos/data-pack-commons/data-raw/snu_x_im_distribution_configuration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{2E10F037-3E07-5348-9701-0B7EA94D4F2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{342D3109-669D-8F4D-9468-2894D95148F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16000" yWindow="500" windowWidth="32000" windowHeight="26160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="1274" uniqueCount="278">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="1274" uniqueCount="270">
   <si>
     <t>CXCA_SCRN</t>
   </si>
@@ -200,18 +200,9 @@
     <t>kp_set</t>
   </si>
   <si>
-    <t>10-50+</t>
-  </si>
-  <si>
     <t>F/M</t>
   </si>
   <si>
-    <t>1-50+</t>
-  </si>
-  <si>
-    <t>1-4</t>
-  </si>
-  <si>
     <t>allocate</t>
   </si>
   <si>
@@ -230,9 +221,6 @@
     <t>F</t>
   </si>
   <si>
-    <t>15-50+</t>
-  </si>
-  <si>
     <t>vt_pe</t>
   </si>
   <si>
@@ -815,9 +803,6 @@
     <t>OVC_SERV.Prev.T</t>
   </si>
   <si>
-    <t>5-14</t>
-  </si>
-  <si>
     <t>HTS_RECENT.PMTCT_STAT.T</t>
   </si>
   <si>
@@ -830,18 +815,6 @@
     <t>PrEP_CT.KP.T</t>
   </si>
   <si>
-    <t>1-65+</t>
-  </si>
-  <si>
-    <t>10-65+</t>
-  </si>
-  <si>
-    <t>&lt;1-65+</t>
-  </si>
-  <si>
-    <t>15-65+</t>
-  </si>
-  <si>
     <t>OVC_SERV.DREAMS.T</t>
   </si>
   <si>
@@ -870,13 +843,16 @@
   </si>
   <si>
     <t>2022Oct</t>
+  </si>
+  <si>
+    <t>fy24_age_bands</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1026,11 +1002,6 @@
     <font>
       <sz val="11"/>
       <name val="Lucida Grande"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1401,18 +1372,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1"/>
@@ -1784,10 +1751,10 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A44" sqref="A44"/>
-      <selection pane="topRight" activeCell="I3" sqref="I1:I1048576"/>
+      <selection pane="topRight" activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1801,7 +1768,7 @@
     <col min="7" max="7" width="36.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="27.5" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6.5" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.83203125" style="2" bestFit="1" customWidth="1"/>
@@ -1811,33 +1778,33 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>50</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="J1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="J1" t="s">
         <v>51</v>
       </c>
       <c r="K1" s="1" t="s">
@@ -1847,41 +1814,41 @@
         <v>53</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="J2" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="J2" t="s">
         <v>2</v>
       </c>
       <c r="K2" s="1" t="s">
@@ -1891,41 +1858,41 @@
         <v>2</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="J3" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="J3" t="s">
         <v>2</v>
       </c>
       <c r="K3" s="1" t="s">
@@ -1935,133 +1902,133 @@
         <v>2</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>45</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>264</v>
+        <v>268</v>
+      </c>
+      <c r="J4" t="s">
+        <v>269</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>45</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>264</v>
+        <v>268</v>
+      </c>
+      <c r="J5" t="s">
+        <v>269</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L5" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>64</v>
+        <v>268</v>
+      </c>
+      <c r="J6" t="s">
+        <v>269</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L6" s="3" t="s">
         <v>2</v>
@@ -2070,130 +2037,130 @@
         <v>2</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>264</v>
+        <v>268</v>
+      </c>
+      <c r="J7" t="s">
+        <v>269</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L7" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>264</v>
+        <v>268</v>
+      </c>
+      <c r="J8" t="s">
+        <v>269</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>64</v>
+        <v>268</v>
+      </c>
+      <c r="J9" t="s">
+        <v>269</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>2</v>
@@ -2202,43 +2169,43 @@
         <v>2</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="J10" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="J10" t="s">
+        <v>269</v>
+      </c>
+      <c r="K10" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="L10" s="3" t="s">
         <v>2</v>
       </c>
@@ -2246,130 +2213,130 @@
         <v>2</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>41</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>56</v>
+        <v>268</v>
+      </c>
+      <c r="J11" t="s">
+        <v>269</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L11" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>41</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>56</v>
+        <v>268</v>
+      </c>
+      <c r="J12" t="s">
+        <v>269</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>64</v>
+        <v>268</v>
+      </c>
+      <c r="J13" t="s">
+        <v>269</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L13" s="3" t="s">
         <v>2</v>
@@ -2378,130 +2345,130 @@
         <v>2</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>47</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>56</v>
+        <v>268</v>
+      </c>
+      <c r="J14" t="s">
+        <v>269</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>47</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>56</v>
+        <v>268</v>
+      </c>
+      <c r="J15" t="s">
+        <v>269</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>64</v>
+        <v>268</v>
+      </c>
+      <c r="J16" t="s">
+        <v>269</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L16" s="3" t="s">
         <v>2</v>
@@ -2510,218 +2477,218 @@
         <v>2</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>46</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>57</v>
+        <v>268</v>
+      </c>
+      <c r="J17" t="s">
+        <v>269</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L17" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>46</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>57</v>
+        <v>268</v>
+      </c>
+      <c r="J18" t="s">
+        <v>269</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L18" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>37</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>56</v>
+        <v>268</v>
+      </c>
+      <c r="J19" t="s">
+        <v>269</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L19" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>37</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>56</v>
+        <v>268</v>
+      </c>
+      <c r="J20" t="s">
+        <v>269</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>64</v>
+        <v>268</v>
+      </c>
+      <c r="J21" t="s">
+        <v>269</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>2</v>
@@ -2730,130 +2697,130 @@
         <v>2</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>44</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>56</v>
+        <v>268</v>
+      </c>
+      <c r="J22" t="s">
+        <v>269</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>44</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>56</v>
+        <v>268</v>
+      </c>
+      <c r="J23" t="s">
+        <v>269</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L23" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>64</v>
+        <v>268</v>
+      </c>
+      <c r="J24" t="s">
+        <v>269</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>2</v>
@@ -2862,130 +2829,130 @@
         <v>2</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>38</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>56</v>
+        <v>268</v>
+      </c>
+      <c r="J25" t="s">
+        <v>269</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L25" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>38</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>56</v>
+        <v>268</v>
+      </c>
+      <c r="J26" t="s">
+        <v>269</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L26" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>64</v>
+        <v>268</v>
+      </c>
+      <c r="J27" t="s">
+        <v>269</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L27" s="3" t="s">
         <v>2</v>
@@ -2994,218 +2961,218 @@
         <v>2</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>43</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>57</v>
+        <v>268</v>
+      </c>
+      <c r="J28" t="s">
+        <v>269</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L28" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>43</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>57</v>
+        <v>268</v>
+      </c>
+      <c r="J29" t="s">
+        <v>269</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>265</v>
+        <v>268</v>
+      </c>
+      <c r="J30" t="s">
+        <v>269</v>
       </c>
       <c r="K30" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M30" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="L30" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="N30" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>265</v>
+        <v>268</v>
+      </c>
+      <c r="J31" t="s">
+        <v>269</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="L31" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>64</v>
+        <v>268</v>
+      </c>
+      <c r="J32" t="s">
+        <v>269</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>2</v>
@@ -3214,130 +3181,130 @@
         <v>2</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>42</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>56</v>
+        <v>268</v>
+      </c>
+      <c r="J33" t="s">
+        <v>269</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L33" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>42</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>56</v>
+        <v>268</v>
+      </c>
+      <c r="J34" t="s">
+        <v>269</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L34" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>64</v>
+        <v>268</v>
+      </c>
+      <c r="J35" t="s">
+        <v>269</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L35" s="3" t="s">
         <v>2</v>
@@ -3346,130 +3313,130 @@
         <v>2</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>48</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>56</v>
+        <v>268</v>
+      </c>
+      <c r="J36" t="s">
+        <v>269</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L36" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>48</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>56</v>
+        <v>268</v>
+      </c>
+      <c r="J37" t="s">
+        <v>269</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L37" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>64</v>
+        <v>268</v>
+      </c>
+      <c r="J38" t="s">
+        <v>269</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L38" s="3" t="s">
         <v>2</v>
@@ -3478,218 +3445,218 @@
         <v>2</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="J39" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="J39" t="s">
         <v>2</v>
       </c>
       <c r="K39" s="3" t="s">
         <v>2</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="J40" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="J40" t="s">
         <v>2</v>
       </c>
       <c r="K40" s="3" t="s">
         <v>2</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="J41" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="J41" t="s">
         <v>2</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>2</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="M41" s="1" t="s">
         <v>2</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>29</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="J42" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="J42" t="s">
         <v>2</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>2</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="M42" s="4" t="s">
         <v>2</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="J43" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="J43" t="s">
         <v>2</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L43" s="3" t="s">
         <v>2</v>
@@ -3698,82 +3665,82 @@
         <v>2</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="J44" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="J44" t="s">
         <v>2</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>2</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="M44" s="1" t="s">
         <v>2</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>39</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="J45" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="J45" t="s">
         <v>2</v>
       </c>
       <c r="K45" s="3" t="s">
@@ -3786,259 +3753,259 @@
         <v>2</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="J46" s="6" t="s">
-        <v>273</v>
+        <v>268</v>
+      </c>
+      <c r="J46" t="s">
+        <v>264</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L46" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="J47" s="6" t="s">
-        <v>273</v>
+        <v>268</v>
+      </c>
+      <c r="J47" t="s">
+        <v>264</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A48" s="7" t="s">
-        <v>258</v>
+      <c r="A48" s="6" t="s">
+        <v>254</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C48" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="C48" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D48" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="E48" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F48" s="7" t="s">
-        <v>81</v>
+      <c r="D48" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="I48" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="J48" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="K48" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L48" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="M48" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="N48" s="7" t="s">
-        <v>59</v>
+        <v>260</v>
+      </c>
+      <c r="I48" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="J48" t="s">
+        <v>269</v>
+      </c>
+      <c r="K48" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="L48" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="M48" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N48" s="6" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>265</v>
+        <v>268</v>
+      </c>
+      <c r="J49" t="s">
+        <v>269</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>265</v>
+        <v>268</v>
+      </c>
+      <c r="J50" t="s">
+        <v>269</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="L50" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>61</v>
+        <v>268</v>
+      </c>
+      <c r="J51" t="s">
+        <v>58</v>
       </c>
       <c r="K51" s="3" t="s">
         <v>2</v>
@@ -4050,39 +4017,39 @@
         <v>2</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="J52" s="1" t="s">
-        <v>62</v>
+        <v>268</v>
+      </c>
+      <c r="J52" t="s">
+        <v>59</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>2</v>
@@ -4094,42 +4061,42 @@
         <v>2</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>19</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="J53" s="1" t="s">
-        <v>265</v>
+        <v>268</v>
+      </c>
+      <c r="J53" t="s">
+        <v>269</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="L53" s="3" t="s">
         <v>2</v>
@@ -4138,174 +4105,174 @@
         <v>2</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>20</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="J54" s="1" t="s">
-        <v>265</v>
+        <v>268</v>
+      </c>
+      <c r="J54" t="s">
+        <v>269</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="L54" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>20</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="J55" s="1" t="s">
-        <v>265</v>
+        <v>268</v>
+      </c>
+      <c r="J55" t="s">
+        <v>269</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="L55" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>20</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="J56" s="1" t="s">
-        <v>265</v>
+        <v>268</v>
+      </c>
+      <c r="J56" t="s">
+        <v>269</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="L56" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="J57" s="1" t="s">
-        <v>64</v>
+        <v>268</v>
+      </c>
+      <c r="J57" t="s">
+        <v>269</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="L57" s="3" t="s">
         <v>2</v>
@@ -4314,43 +4281,43 @@
         <v>2</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>19</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="J58" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="J58" t="s">
+        <v>269</v>
+      </c>
+      <c r="K58" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>2</v>
       </c>
@@ -4358,42 +4325,42 @@
         <v>2</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>19</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="J59" s="1" t="s">
-        <v>64</v>
+        <v>268</v>
+      </c>
+      <c r="J59" t="s">
+        <v>269</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L59" s="3" t="s">
         <v>2</v>
@@ -4402,86 +4369,86 @@
         <v>2</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="J60" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="J60" t="s">
         <v>2</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>2</v>
       </c>
       <c r="L60" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="M60" s="1" t="s">
         <v>2</v>
       </c>
       <c r="N60" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>19</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="J61" s="1" t="s">
-        <v>64</v>
+        <v>268</v>
+      </c>
+      <c r="J61" t="s">
+        <v>269</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L61" s="3" t="s">
         <v>2</v>
@@ -4490,350 +4457,350 @@
         <v>2</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="J62" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="J62" t="s">
         <v>2</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>2</v>
       </c>
       <c r="L62" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="M62" s="1" t="s">
         <v>2</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="J63" s="1" t="s">
-        <v>266</v>
+        <v>268</v>
+      </c>
+      <c r="J63" t="s">
+        <v>269</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L63" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="J64" s="1" t="s">
-        <v>266</v>
+        <v>268</v>
+      </c>
+      <c r="J64" t="s">
+        <v>269</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L64" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="J65" s="1" t="s">
-        <v>126</v>
+        <v>268</v>
+      </c>
+      <c r="J65" t="s">
+        <v>122</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L65" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="N65" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="J66" s="1" t="s">
-        <v>126</v>
+        <v>268</v>
+      </c>
+      <c r="J66" t="s">
+        <v>122</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L66" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="J67" s="1" t="s">
-        <v>126</v>
+        <v>268</v>
+      </c>
+      <c r="J67" t="s">
+        <v>122</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L67" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="N67" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="J68" s="1" t="s">
-        <v>126</v>
+        <v>268</v>
+      </c>
+      <c r="J68" t="s">
+        <v>122</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L68" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="N68" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>19</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="J69" s="1" t="s">
-        <v>266</v>
+        <v>268</v>
+      </c>
+      <c r="J69" t="s">
+        <v>269</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L69" s="3" t="s">
         <v>2</v>
@@ -4842,174 +4809,174 @@
         <v>2</v>
       </c>
       <c r="N69" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>20</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="J70" s="1" t="s">
-        <v>266</v>
+        <v>268</v>
+      </c>
+      <c r="J70" t="s">
+        <v>269</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L70" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M70" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="N70" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>20</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="J71" s="1" t="s">
-        <v>266</v>
+        <v>268</v>
+      </c>
+      <c r="J71" t="s">
+        <v>269</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L71" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M71" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="N71" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>20</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="J72" s="1" t="s">
-        <v>266</v>
+        <v>268</v>
+      </c>
+      <c r="J72" t="s">
+        <v>269</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L72" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M72" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="N72" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D73" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="H73" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="E73" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G73" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="H73" s="2" t="s">
-        <v>235</v>
-      </c>
       <c r="I73" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="J73" s="1" t="s">
-        <v>64</v>
+        <v>268</v>
+      </c>
+      <c r="J73" t="s">
+        <v>269</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L73" s="3" t="s">
         <v>2</v>
@@ -5018,42 +4985,42 @@
         <v>2</v>
       </c>
       <c r="N73" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="J74" s="1" t="s">
-        <v>266</v>
+        <v>268</v>
+      </c>
+      <c r="J74" t="s">
+        <v>269</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L74" s="3" t="s">
         <v>2</v>
@@ -5062,42 +5029,42 @@
         <v>2</v>
       </c>
       <c r="N74" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="J75" s="1" t="s">
-        <v>266</v>
+        <v>268</v>
+      </c>
+      <c r="J75" t="s">
+        <v>269</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L75" s="3" t="s">
         <v>2</v>
@@ -5106,570 +5073,570 @@
         <v>2</v>
       </c>
       <c r="N75" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>29</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="J76" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="J76" t="s">
         <v>2</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>2</v>
       </c>
       <c r="L76" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="M76" s="1" t="s">
         <v>2</v>
       </c>
       <c r="N76" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>29</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="J77" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="J77" t="s">
         <v>2</v>
       </c>
       <c r="K77" s="3" t="s">
         <v>2</v>
       </c>
       <c r="L77" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="M77" s="1" t="s">
         <v>2</v>
       </c>
       <c r="N77" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G78" s="1" t="s">
         <v>29</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="J78" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="J78" t="s">
         <v>2</v>
       </c>
       <c r="K78" s="3" t="s">
         <v>2</v>
       </c>
       <c r="L78" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="M78" s="1" t="s">
         <v>2</v>
       </c>
       <c r="N78" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>29</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="J79" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="J79" t="s">
         <v>2</v>
       </c>
       <c r="K79" s="3" t="s">
         <v>2</v>
       </c>
       <c r="L79" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="M79" s="1" t="s">
         <v>2</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G80" s="1" t="s">
         <v>31</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="J80" s="1" t="s">
-        <v>266</v>
+        <v>268</v>
+      </c>
+      <c r="J80" t="s">
+        <v>269</v>
       </c>
       <c r="K80" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L80" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M80" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="N80" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G81" s="1" t="s">
         <v>31</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="J81" s="1" t="s">
-        <v>266</v>
+        <v>268</v>
+      </c>
+      <c r="J81" t="s">
+        <v>269</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L81" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M81" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="N81" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="J82" s="1" t="s">
-        <v>126</v>
+        <v>268</v>
+      </c>
+      <c r="J82" t="s">
+        <v>122</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L82" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="N82" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G83" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="J83" s="1" t="s">
-        <v>126</v>
+        <v>268</v>
+      </c>
+      <c r="J83" t="s">
+        <v>122</v>
       </c>
       <c r="K83" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M83" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="N83" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="J84" s="1" t="s">
-        <v>126</v>
+        <v>268</v>
+      </c>
+      <c r="J84" t="s">
+        <v>122</v>
       </c>
       <c r="K84" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L84" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="N84" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H85" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="J85" t="s">
+        <v>122</v>
+      </c>
+      <c r="K85" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L85" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M85" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="I85" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="J85" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="K85" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="L85" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="M85" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="N85" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G86" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="J86" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
+      </c>
+      <c r="J86" t="s">
+        <v>269</v>
       </c>
       <c r="K86" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="L86" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M86" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="N86" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G87" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="J87" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
+      </c>
+      <c r="J87" t="s">
+        <v>269</v>
       </c>
       <c r="K87" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="L87" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M87" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="N87" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="J88" s="1" t="s">
-        <v>64</v>
+        <v>268</v>
+      </c>
+      <c r="J88" t="s">
+        <v>269</v>
       </c>
       <c r="K88" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="L88" s="3" t="s">
         <v>2</v>
@@ -5678,139 +5645,139 @@
         <v>2</v>
       </c>
       <c r="N88" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G89" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="J89" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
+      </c>
+      <c r="J89" t="s">
+        <v>269</v>
       </c>
       <c r="K89" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="L89" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M89" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="N89" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C90" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="C90" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G90" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="J90" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="K90" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="L90" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="M90" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="N90" s="9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="11" t="s">
-        <v>268</v>
+        <v>268</v>
+      </c>
+      <c r="J90" t="s">
+        <v>269</v>
+      </c>
+      <c r="K90" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="L90" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="M90" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="N90" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="9" t="s">
+        <v>259</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C91" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="C91" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D91" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="E91" s="12" t="s">
+      <c r="D91" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E91" s="10" t="s">
         <v>36</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G91" s="11" t="s">
-        <v>272</v>
-      </c>
-      <c r="H91" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="I91" s="12" t="s">
-        <v>277</v>
-      </c>
-      <c r="J91" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="K91" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="L91" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="M91" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="N91" s="13" t="s">
-        <v>59</v>
+        <v>77</v>
+      </c>
+      <c r="G91" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="H91" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="I91" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="J91" t="s">
+        <v>264</v>
+      </c>
+      <c r="K91" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="L91" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="M91" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="N91" s="11" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/snu_x_im_distribution_configuration/23Tto24TMap.xlsx
+++ b/data-raw/snu_x_im_distribution_configuration/23Tto24TMap.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordanbales/Documents/Repos/data-pack-commons/data-raw/snu_x_im_distribution_configuration/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/faustolopezbao/Documents/GitHub/data-pack-commons/data-raw/snu_x_im_distribution_configuration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{342D3109-669D-8F4D-9468-2894D95148F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{CD1E064A-6AB4-DC4F-BCDB-E1F093A9502E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16000" yWindow="500" windowWidth="32000" windowHeight="26160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36280" yWindow="1280" windowWidth="35760" windowHeight="17940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Map" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="1274" uniqueCount="270">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="1414" uniqueCount="280">
   <si>
     <t>CXCA_SCRN</t>
   </si>
@@ -846,6 +846,36 @@
   </si>
   <si>
     <t>fy24_age_bands</t>
+  </si>
+  <si>
+    <t>PrEP_CT.TestResult.T</t>
+  </si>
+  <si>
+    <t>DE_GROUP-TXAVaM4oYMd</t>
+  </si>
+  <si>
+    <t>2023Oct</t>
+  </si>
+  <si>
+    <t>HTS.Index.Pos.T</t>
+  </si>
+  <si>
+    <t>HTS.Index.Neg.T</t>
+  </si>
+  <si>
+    <t>HTS_TST.SNS.Pos.T</t>
+  </si>
+  <si>
+    <t>HTS_TST.SNS.Neg.T</t>
+  </si>
+  <si>
+    <t>HTS_TST.ActiveOther.Pos.T</t>
+  </si>
+  <si>
+    <t>HTS_TST.ActiveOther.Neg.T</t>
+  </si>
+  <si>
+    <t>HTS_RECENT.T</t>
   </si>
 </sst>
 </file>
@@ -1005,7 +1035,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1183,6 +1213,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1372,19 +1408,22 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="8" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1749,18 +1788,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N91"/>
+  <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection activeCell="A44" sqref="A44"/>
-      <selection pane="topRight" activeCell="J1" sqref="J1:J1048576"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D87" sqref="D87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="30.83203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="23" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.83203125" style="2" customWidth="1"/>
     <col min="5" max="5" width="11.83203125" style="2" bestFit="1" customWidth="1"/>
@@ -1997,7 +2035,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="2" t="s">
         <v>147</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -2033,7 +2071,7 @@
       <c r="L6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="M6" s="2" t="s">
         <v>2</v>
       </c>
       <c r="N6" s="1" t="s">
@@ -2129,7 +2167,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="2" t="s">
         <v>150</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -2165,7 +2203,7 @@
       <c r="L9" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="M9" s="4" t="s">
+      <c r="M9" s="2" t="s">
         <v>2</v>
       </c>
       <c r="N9" s="1" t="s">
@@ -2341,7 +2379,7 @@
       <c r="L13" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="M13" s="4" t="s">
+      <c r="M13" s="2" t="s">
         <v>2</v>
       </c>
       <c r="N13" s="1" t="s">
@@ -2437,7 +2475,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="2" t="s">
         <v>157</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -2473,7 +2511,7 @@
       <c r="L16" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="M16" s="4" t="s">
+      <c r="M16" s="2" t="s">
         <v>2</v>
       </c>
       <c r="N16" s="1" t="s">
@@ -2657,7 +2695,7 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="2" t="s">
         <v>162</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -2693,7 +2731,7 @@
       <c r="L21" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="M21" s="4" t="s">
+      <c r="M21" s="2" t="s">
         <v>2</v>
       </c>
       <c r="N21" s="1" t="s">
@@ -2825,7 +2863,7 @@
       <c r="L24" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="M24" s="4" t="s">
+      <c r="M24" s="2" t="s">
         <v>2</v>
       </c>
       <c r="N24" s="1" t="s">
@@ -2921,7 +2959,7 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="2" t="s">
         <v>168</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -2957,7 +2995,7 @@
       <c r="L27" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="M27" s="4" t="s">
+      <c r="M27" s="2" t="s">
         <v>2</v>
       </c>
       <c r="N27" s="1" t="s">
@@ -3141,7 +3179,7 @@
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="2" t="s">
         <v>173</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -3177,7 +3215,7 @@
       <c r="L32" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="M32" s="4" t="s">
+      <c r="M32" s="2" t="s">
         <v>2</v>
       </c>
       <c r="N32" s="1" t="s">
@@ -3273,7 +3311,7 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="2" t="s">
         <v>176</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -3309,7 +3347,7 @@
       <c r="L35" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="M35" s="4" t="s">
+      <c r="M35" s="2" t="s">
         <v>2</v>
       </c>
       <c r="N35" s="1" t="s">
@@ -3441,7 +3479,7 @@
       <c r="L38" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="M38" s="4" t="s">
+      <c r="M38" s="2" t="s">
         <v>2</v>
       </c>
       <c r="N38" s="1" t="s">
@@ -3537,7 +3575,7 @@
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="2" t="s">
         <v>182</v>
       </c>
       <c r="B41" s="1" t="s">
@@ -3617,7 +3655,7 @@
       <c r="L42" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="M42" s="4" t="s">
+      <c r="M42" s="2" t="s">
         <v>2</v>
       </c>
       <c r="N42" s="1" t="s">
@@ -3775,10 +3813,10 @@
       <c r="F46" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G46" s="5" t="s">
+      <c r="G46" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="H46" s="5" t="s">
+      <c r="H46" s="4" t="s">
         <v>265</v>
       </c>
       <c r="I46" s="1" t="s">
@@ -3819,10 +3857,10 @@
       <c r="F47" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G47" s="5" t="s">
+      <c r="G47" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="H47" s="5" t="s">
+      <c r="H47" s="4" t="s">
         <v>265</v>
       </c>
       <c r="I47" s="1" t="s">
@@ -3845,22 +3883,22 @@
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A48" s="6" t="s">
+      <c r="A48" s="5" t="s">
         <v>254</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="C48" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D48" s="6" t="s">
+      <c r="D48" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="E48" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F48" s="6" t="s">
+      <c r="E48" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F48" s="5" t="s">
         <v>77</v>
       </c>
       <c r="G48" s="2" t="s">
@@ -3869,22 +3907,22 @@
       <c r="H48" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="I48" s="6" t="s">
+      <c r="I48" s="5" t="s">
         <v>268</v>
       </c>
       <c r="J48" t="s">
         <v>269</v>
       </c>
-      <c r="K48" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="L48" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="M48" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="N48" s="6" t="s">
+      <c r="K48" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="L48" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M48" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="N48" s="5" t="s">
         <v>56</v>
       </c>
     </row>
@@ -4277,7 +4315,7 @@
       <c r="L57" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="M57" s="4" t="s">
+      <c r="M57" s="2" t="s">
         <v>2</v>
       </c>
       <c r="N57" s="1" t="s">
@@ -4945,7 +4983,7 @@
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A73" s="4" t="s">
+      <c r="A73" s="2" t="s">
         <v>209</v>
       </c>
       <c r="B73" s="1" t="s">
@@ -4981,7 +5019,7 @@
       <c r="L73" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="M73" s="4" t="s">
+      <c r="M73" s="2" t="s">
         <v>2</v>
       </c>
       <c r="N73" s="1" t="s">
@@ -5605,7 +5643,7 @@
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A88" s="4" t="s">
+      <c r="A88" s="2" t="s">
         <v>224</v>
       </c>
       <c r="B88" s="1" t="s">
@@ -5641,7 +5679,7 @@
       <c r="L88" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="M88" s="4" t="s">
+      <c r="M88" s="2" t="s">
         <v>2</v>
       </c>
       <c r="N88" s="1" t="s">
@@ -5699,7 +5737,7 @@
       <c r="B90" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="C90" s="7" t="s">
+      <c r="C90" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D90" s="1" t="s">
@@ -5723,60 +5761,500 @@
       <c r="J90" t="s">
         <v>269</v>
       </c>
-      <c r="K90" s="8" t="s">
+      <c r="K90" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="L90" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="M90" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="N90" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="9" t="s">
+      <c r="L90" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="M90" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N90" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="8" t="s">
         <v>259</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="C91" s="11" t="s">
+      <c r="C91" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D91" s="10" t="s">
+      <c r="D91" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="E91" s="10" t="s">
+      <c r="E91" s="9" t="s">
         <v>36</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G91" s="9" t="s">
+      <c r="G91" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="H91" s="9" t="s">
+      <c r="H91" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="I91" s="10" t="s">
+      <c r="I91" s="9" t="s">
         <v>268</v>
       </c>
       <c r="J91" t="s">
         <v>264</v>
       </c>
-      <c r="K91" s="11" t="s">
+      <c r="K91" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="L91" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="M91" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="N91" s="11" t="s">
+      <c r="L91" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="M91" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="N91" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="B92" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="C92" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D92" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="E92" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F92" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="G92" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H92" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="I92" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="J92" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="K92" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="L92" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="M92" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="N92" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="B93" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="C93" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="D93" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="E93" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F93" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="G93" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H93" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="I93" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="J93" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="K93" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="L93" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="M93" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="N93" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="B94" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="C94" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="D94" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="E94" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F94" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="G94" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H94" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="I94" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="J94" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="K94" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="L94" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="M94" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="N94" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="B95" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="C95" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D95" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E95" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F95" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="G95" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="H95" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="I95" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="J95" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="K95" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="L95" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="M95" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="N95" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="B96" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="C96" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D96" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E96" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F96" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="G96" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="H96" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="I96" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="J96" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="K96" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="L96" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="M96" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="N96" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="B97" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="C97" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D97" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E97" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F97" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="G97" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H97" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="I97" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="J97" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="K97" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="L97" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="M97" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="N97" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="B98" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="C98" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D98" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E98" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F98" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="G98" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H98" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="I98" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="J98" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="K98" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="L98" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="M98" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="N98" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="B99" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="C99" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D99" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="E99" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F99" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="G99" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="H99" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="I99" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="J99" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="K99" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="L99" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="M99" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="N99" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="B100" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="C100" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D100" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E100" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F100" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="G100" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H100" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="I100" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="J100" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="K100" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="L100" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="M100" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="N100" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="B101" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="C101" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D101" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E101" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F101" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="G101" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H101" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="I101" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="J101" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="K101" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="L101" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="M101" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="N101" s="12" t="s">
         <v>56</v>
       </c>
     </row>

--- a/data-raw/snu_x_im_distribution_configuration/23Tto24TMap.xlsx
+++ b/data-raw/snu_x_im_distribution_configuration/23Tto24TMap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/faustolopezbao/Documents/GitHub/data-pack-commons/data-raw/snu_x_im_distribution_configuration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{CD1E064A-6AB4-DC4F-BCDB-E1F093A9502E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{AC3C1D35-D5EC-2547-9331-535A26191F02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36280" yWindow="1280" windowWidth="35760" windowHeight="17940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35940" yWindow="2840" windowWidth="33500" windowHeight="17820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Map" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="1414" uniqueCount="280">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="1428" uniqueCount="285">
   <si>
     <t>CXCA_SCRN</t>
   </si>
@@ -876,6 +876,21 @@
   </si>
   <si>
     <t>HTS_RECENT.T</t>
+  </si>
+  <si>
+    <t>PrEP_CT</t>
+  </si>
+  <si>
+    <t>PrEP_CT.Neg.T</t>
+  </si>
+  <si>
+    <t>Som9NRMQqV8</t>
+  </si>
+  <si>
+    <t>fRWHMVd6Vq5</t>
+  </si>
+  <si>
+    <t>Age/Sex/Result</t>
   </si>
 </sst>
 </file>
@@ -1035,7 +1050,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1218,6 +1233,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1408,7 +1429,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1424,6 +1445,10 @@
     <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1788,11 +1813,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D87" sqref="D87"/>
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A102" sqref="A102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4278,47 +4303,47 @@
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
+    <row r="57" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="15" t="s">
         <v>255</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="C57" s="1" t="s">
+      <c r="B57" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="C57" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="D57" s="18" t="s">
         <v>227</v>
       </c>
-      <c r="E57" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G57" s="2" t="s">
+      <c r="E57" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F57" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="G57" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="H57" s="2" t="s">
+      <c r="H57" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="I57" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="J57" t="s">
-        <v>269</v>
-      </c>
-      <c r="K57" s="3" t="s">
+      <c r="I57" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="J57" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="K57" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="M57" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="N57" s="1" t="s">
+      <c r="L57" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="M57" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="N57" s="15" t="s">
         <v>56</v>
       </c>
     </row>
@@ -4366,47 +4391,47 @@
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
+    <row r="59" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="C59" s="1" t="s">
+      <c r="B59" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="C59" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="D59" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="E59" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G59" s="1" t="s">
+      <c r="E59" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F59" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="G59" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="H59" s="1" t="s">
+      <c r="H59" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="I59" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="J59" t="s">
-        <v>269</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="M59" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N59" s="1" t="s">
+      <c r="I59" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="J59" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="K59" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="L59" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="M59" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="N59" s="15" t="s">
         <v>56</v>
       </c>
     </row>
@@ -5825,11 +5850,11 @@
       <c r="B92" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="C92" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D92" s="12" t="s">
-        <v>129</v>
+      <c r="C92" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="D92" s="14" t="s">
+        <v>283</v>
       </c>
       <c r="E92" s="11" t="s">
         <v>36</v>
@@ -6190,7 +6215,7 @@
         <v>77</v>
       </c>
       <c r="G100" s="12" t="s">
-        <v>38</v>
+        <v>284</v>
       </c>
       <c r="H100" s="12" t="s">
         <v>113</v>
@@ -6234,7 +6259,7 @@
         <v>77</v>
       </c>
       <c r="G101" s="12" t="s">
-        <v>38</v>
+        <v>284</v>
       </c>
       <c r="H101" s="12" t="s">
         <v>113</v>
@@ -6255,6 +6280,50 @@
         <v>2</v>
       </c>
       <c r="N101" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="B102" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="C102" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="D102" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="E102" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F102" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="G102" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="H102" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="I102" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="J102" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="K102" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="L102" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="M102" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="N102" s="12" t="s">
         <v>56</v>
       </c>
     </row>

--- a/data-raw/snu_x_im_distribution_configuration/23Tto24TMap.xlsx
+++ b/data-raw/snu_x_im_distribution_configuration/23Tto24TMap.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/faustolopezbao/Documents/GitHub/data-pack-commons/data-raw/snu_x_im_distribution_configuration/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordanbales/Documents/Repos/data-pack-commons/data-raw/snu_x_im_distribution_configuration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{AC3C1D35-D5EC-2547-9331-535A26191F02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{38B0F1C0-F66E-7145-8B73-932477D46285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35940" yWindow="2840" windowWidth="33500" windowHeight="17820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="32000" windowHeight="26160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Map" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="1428" uniqueCount="285">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="1428" uniqueCount="283">
   <si>
     <t>CXCA_SCRN</t>
   </si>
@@ -104,9 +104,6 @@
     <t>PP_PREV</t>
   </si>
   <si>
-    <t>PrEP_CURR</t>
-  </si>
-  <si>
     <t>PrEP_NEW</t>
   </si>
   <si>
@@ -423,9 +420,6 @@
   </si>
   <si>
     <t>EICV6m2Ay7l</t>
-  </si>
-  <si>
-    <t>pkZRNlMgL89</t>
   </si>
   <si>
     <t>PxGprLSHtqv</t>
@@ -1050,7 +1044,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1242,6 +1236,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="12">
     <border>
@@ -1429,7 +1429,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1449,6 +1449,10 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="34" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1816,8 +1820,8 @@
   <dimension ref="A1:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A102" sqref="A102"/>
+      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C92" sqref="C92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1841,75 +1845,75 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="J1" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="K1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J2" t="s">
         <v>2</v>
@@ -1921,39 +1925,39 @@
         <v>2</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J3" t="s">
         <v>2</v>
@@ -1965,133 +1969,133 @@
         <v>2</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>124</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>124</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J5" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L5" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J6" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L6" s="3" t="s">
         <v>2</v>
@@ -2100,130 +2104,130 @@
         <v>2</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>124</v>
-      </c>
       <c r="E7" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L7" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>124</v>
-      </c>
       <c r="E8" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J8" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J9" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>2</v>
@@ -2232,42 +2236,42 @@
         <v>2</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J10" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>2</v>
@@ -2276,130 +2280,130 @@
         <v>2</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J11" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L11" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J12" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J13" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L13" s="3" t="s">
         <v>2</v>
@@ -2408,130 +2412,130 @@
         <v>2</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J14" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J15" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J16" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L16" s="3" t="s">
         <v>2</v>
@@ -2540,218 +2544,218 @@
         <v>2</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J17" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L17" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J18" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L18" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="H19" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J19" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L19" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="H20" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J20" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J21" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>2</v>
@@ -2760,130 +2764,130 @@
         <v>2</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J22" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J23" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L23" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J24" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>2</v>
@@ -2892,130 +2896,130 @@
         <v>2</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J25" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L25" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J26" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L26" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J27" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L27" s="3" t="s">
         <v>2</v>
@@ -3024,218 +3028,218 @@
         <v>2</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J28" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L28" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J29" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J30" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L30" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J31" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L31" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J32" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>2</v>
@@ -3244,130 +3248,130 @@
         <v>2</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J33" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L33" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J34" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L34" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J35" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L35" s="3" t="s">
         <v>2</v>
@@ -3376,130 +3380,130 @@
         <v>2</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J36" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L36" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J37" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L37" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J38" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L38" s="3" t="s">
         <v>2</v>
@@ -3508,36 +3512,36 @@
         <v>2</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J39" t="s">
         <v>2</v>
@@ -3546,42 +3550,42 @@
         <v>2</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J40" t="s">
         <v>2</v>
@@ -3590,42 +3594,42 @@
         <v>2</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J41" t="s">
         <v>2</v>
@@ -3634,42 +3638,42 @@
         <v>2</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M41" s="1" t="s">
         <v>2</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J42" t="s">
         <v>2</v>
@@ -3678,48 +3682,48 @@
         <v>2</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M42" s="2" t="s">
         <v>2</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J43" t="s">
         <v>2</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L43" s="3" t="s">
         <v>2</v>
@@ -3728,36 +3732,36 @@
         <v>2</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J44" t="s">
         <v>2</v>
@@ -3766,42 +3770,42 @@
         <v>2</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M44" s="1" t="s">
         <v>2</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J45" t="s">
         <v>2</v>
@@ -3816,130 +3820,130 @@
         <v>2</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J46" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L46" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J47" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J48" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K48" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L48" s="5" t="s">
         <v>2</v>
@@ -3948,127 +3952,127 @@
         <v>2</v>
       </c>
       <c r="N48" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G49" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H49" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="H49" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="I49" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J49" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G50" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H50" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="H50" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="I50" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J50" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L50" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J51" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K51" s="3" t="s">
         <v>2</v>
@@ -4080,39 +4084,39 @@
         <v>2</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J52" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>2</v>
@@ -4124,42 +4128,42 @@
         <v>2</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>19</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J53" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L53" s="3" t="s">
         <v>2</v>
@@ -4168,174 +4172,174 @@
         <v>2</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>20</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J54" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L54" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>20</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J55" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L55" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>20</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J56" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L56" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="15" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C57" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D57" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="E57" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F57" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="G57" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="H57" s="18" t="s">
         <v>227</v>
       </c>
-      <c r="E57" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="F57" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="G57" s="18" t="s">
-        <v>228</v>
-      </c>
-      <c r="H57" s="18" t="s">
-        <v>229</v>
-      </c>
       <c r="I57" s="15" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J57" s="16" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K57" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L57" s="17" t="s">
         <v>2</v>
@@ -4344,42 +4348,42 @@
         <v>2</v>
       </c>
       <c r="N57" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>19</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J58" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>2</v>
@@ -4388,130 +4392,130 @@
         <v>2</v>
       </c>
       <c r="N58" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="B59" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="D59" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="E59" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="F59" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="G59" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="H59" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="I59" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="J59" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="K59" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="L59" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="M59" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="N59" s="19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="B60" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="D60" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="E60" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="F60" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="G60" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H60" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="I60" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="J60" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="K60" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="L60" s="21" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="59" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="15" t="s">
-        <v>257</v>
-      </c>
-      <c r="B59" s="15" t="s">
-        <v>267</v>
-      </c>
-      <c r="C59" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D59" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="E59" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="F59" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="G59" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H59" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="I59" s="15" t="s">
-        <v>268</v>
-      </c>
-      <c r="J59" s="16" t="s">
-        <v>269</v>
-      </c>
-      <c r="K59" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="L59" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="M59" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="N59" s="15" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I60" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="J60" t="s">
-        <v>2</v>
-      </c>
-      <c r="K60" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="L60" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="M60" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N60" s="1" t="s">
-        <v>56</v>
+      <c r="M60" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="N60" s="19" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>19</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J61" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L61" s="3" t="s">
         <v>2</v>
@@ -4520,36 +4524,36 @@
         <v>2</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J62" t="s">
         <v>2</v>
@@ -4558,312 +4562,312 @@
         <v>2</v>
       </c>
       <c r="L62" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M62" s="1" t="s">
         <v>2</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G63" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H63" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="H63" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="I63" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J63" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L63" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G64" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H64" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="H64" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="I64" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J64" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L64" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G65" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H65" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="H65" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="I65" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J65" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L65" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N65" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G66" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H66" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="H66" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="I66" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J66" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L66" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G67" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H67" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="H67" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="I67" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J67" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L67" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N67" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G68" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H68" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="H68" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="I68" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J68" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L68" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N68" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>19</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J69" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L69" s="3" t="s">
         <v>2</v>
@@ -4872,174 +4876,174 @@
         <v>2</v>
       </c>
       <c r="N69" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>20</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J70" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L70" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M70" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N70" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>20</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J71" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L71" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M71" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N71" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>20</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J72" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L72" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M72" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N72" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J73" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L73" s="3" t="s">
         <v>2</v>
@@ -5048,42 +5052,42 @@
         <v>2</v>
       </c>
       <c r="N73" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J74" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L74" s="3" t="s">
         <v>2</v>
@@ -5092,42 +5096,42 @@
         <v>2</v>
       </c>
       <c r="N74" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J75" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L75" s="3" t="s">
         <v>2</v>
@@ -5136,36 +5140,36 @@
         <v>2</v>
       </c>
       <c r="N75" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C76" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G76" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D76" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="H76" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J76" t="s">
         <v>2</v>
@@ -5174,42 +5178,42 @@
         <v>2</v>
       </c>
       <c r="L76" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M76" s="1" t="s">
         <v>2</v>
       </c>
       <c r="N76" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J77" t="s">
         <v>2</v>
@@ -5218,42 +5222,42 @@
         <v>2</v>
       </c>
       <c r="L77" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M77" s="1" t="s">
         <v>2</v>
       </c>
       <c r="N77" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J78" t="s">
         <v>2</v>
@@ -5262,42 +5266,42 @@
         <v>2</v>
       </c>
       <c r="L78" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M78" s="1" t="s">
         <v>2</v>
       </c>
       <c r="N78" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J79" t="s">
         <v>2</v>
@@ -5306,400 +5310,400 @@
         <v>2</v>
       </c>
       <c r="L79" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M79" s="1" t="s">
         <v>2</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C80" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G80" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D80" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="H80" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J80" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K80" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L80" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M80" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N80" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C81" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G81" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D81" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="H81" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J81" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L81" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M81" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N81" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C82" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G82" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D82" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="H82" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J82" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L82" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="N82" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C83" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G83" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D83" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="H83" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J83" t="s">
+        <v>121</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M83" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="I83" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="J83" t="s">
-        <v>122</v>
-      </c>
-      <c r="K83" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="L83" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="M83" s="1" t="s">
-        <v>136</v>
-      </c>
       <c r="N83" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C84" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G84" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D84" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G84" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="H84" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J84" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K84" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L84" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="N84" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C85" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G85" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D85" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G85" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="H85" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J85" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K85" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L85" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M85" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="N85" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G86" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J86" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K86" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L86" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M86" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="N86" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G87" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J87" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K87" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L87" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M87" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="N87" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J88" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K88" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L88" s="3" t="s">
         <v>2</v>
@@ -5708,86 +5712,86 @@
         <v>2</v>
       </c>
       <c r="N88" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G89" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J89" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K89" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L89" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M89" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="N89" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C90" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G90" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J90" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K90" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L90" s="7" t="s">
         <v>2</v>
@@ -5796,42 +5800,42 @@
         <v>2</v>
       </c>
       <c r="N90" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="91" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="8" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C91" s="10" t="s">
         <v>14</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E91" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G91" s="8" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H91" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="I91" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="J91" t="s">
         <v>262</v>
       </c>
-      <c r="I91" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="J91" t="s">
-        <v>264</v>
-      </c>
       <c r="K91" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L91" s="10" t="s">
         <v>2</v>
@@ -5840,42 +5844,42 @@
         <v>2</v>
       </c>
       <c r="N91" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="92" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="11" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B92" s="12" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D92" s="14" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E92" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F92" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G92" s="12" t="s">
         <v>19</v>
       </c>
       <c r="H92" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I92" s="12" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="J92" s="14" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K92" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L92" s="13" t="s">
         <v>2</v>
@@ -5884,42 +5888,42 @@
         <v>2</v>
       </c>
       <c r="N92" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="93" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="11" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B93" s="12" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C93" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="D93" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="D93" s="12" t="s">
-        <v>124</v>
-      </c>
       <c r="E93" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F93" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G93" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H93" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I93" s="12" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="J93" s="14" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K93" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L93" s="13" t="s">
         <v>2</v>
@@ -5928,42 +5932,42 @@
         <v>2</v>
       </c>
       <c r="N93" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="94" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="11" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B94" s="12" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C94" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="D94" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="D94" s="12" t="s">
-        <v>124</v>
-      </c>
       <c r="E94" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F94" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G94" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H94" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I94" s="12" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="J94" s="14" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K94" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L94" s="13" t="s">
         <v>2</v>
@@ -5972,42 +5976,42 @@
         <v>2</v>
       </c>
       <c r="N94" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="95" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="11" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B95" s="12" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C95" s="12" t="s">
         <v>7</v>
       </c>
       <c r="D95" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E95" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F95" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G95" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H95" s="11" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="I95" s="12" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="J95" s="14" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K95" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L95" s="13" t="s">
         <v>2</v>
@@ -6016,42 +6020,42 @@
         <v>2</v>
       </c>
       <c r="N95" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="96" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="11" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B96" s="12" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C96" s="12" t="s">
         <v>7</v>
       </c>
       <c r="D96" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E96" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F96" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G96" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H96" s="11" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="I96" s="12" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="J96" s="14" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K96" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L96" s="13" t="s">
         <v>2</v>
@@ -6060,42 +6064,42 @@
         <v>2</v>
       </c>
       <c r="N96" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="97" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="11" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B97" s="12" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C97" s="12" t="s">
         <v>7</v>
       </c>
       <c r="D97" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E97" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F97" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G97" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H97" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I97" s="12" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="J97" s="14" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K97" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L97" s="13" t="s">
         <v>2</v>
@@ -6104,42 +6108,42 @@
         <v>2</v>
       </c>
       <c r="N97" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="98" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="11" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B98" s="12" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C98" s="12" t="s">
         <v>7</v>
       </c>
       <c r="D98" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E98" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F98" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G98" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H98" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I98" s="12" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="J98" s="14" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K98" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L98" s="13" t="s">
         <v>2</v>
@@ -6148,42 +6152,42 @@
         <v>2</v>
       </c>
       <c r="N98" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="99" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="11" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C99" s="12" t="s">
         <v>5</v>
       </c>
       <c r="D99" s="11" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E99" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F99" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G99" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H99" s="11" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="I99" s="12" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="J99" s="14" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K99" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L99" s="13" t="s">
         <v>2</v>
@@ -6192,42 +6196,42 @@
         <v>2</v>
       </c>
       <c r="N99" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="100" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="11" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B100" s="12" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C100" s="12" t="s">
         <v>7</v>
       </c>
       <c r="D100" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E100" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F100" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G100" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H100" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I100" s="12" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="J100" s="14" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K100" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L100" s="13" t="s">
         <v>2</v>
@@ -6236,42 +6240,42 @@
         <v>2</v>
       </c>
       <c r="N100" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="101" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="11" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B101" s="12" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C101" s="12" t="s">
         <v>7</v>
       </c>
       <c r="D101" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E101" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F101" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G101" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H101" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I101" s="12" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="J101" s="14" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K101" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L101" s="13" t="s">
         <v>2</v>
@@ -6280,42 +6284,42 @@
         <v>2</v>
       </c>
       <c r="N101" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="102" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="B102" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="C102" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="D102" s="14" t="s">
         <v>281</v>
       </c>
-      <c r="B102" s="12" t="s">
-        <v>271</v>
-      </c>
-      <c r="C102" s="11" t="s">
+      <c r="E102" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F102" s="12" t="s">
         <v>280</v>
-      </c>
-      <c r="D102" s="14" t="s">
-        <v>283</v>
-      </c>
-      <c r="E102" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="F102" s="12" t="s">
-        <v>282</v>
       </c>
       <c r="G102" s="11" t="s">
         <v>1</v>
       </c>
       <c r="H102" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I102" s="11" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="J102" s="14" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K102" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L102" s="13" t="s">
         <v>2</v>
@@ -6324,7 +6328,7 @@
         <v>2</v>
       </c>
       <c r="N102" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/snu_x_im_distribution_configuration/23Tto24TMap.xlsx
+++ b/data-raw/snu_x_im_distribution_configuration/23Tto24TMap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordanbales/Documents/Repos/data-pack-commons/data-raw/snu_x_im_distribution_configuration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{38B0F1C0-F66E-7145-8B73-932477D46285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{FBF37D22-2427-734A-B385-A57CDF23925F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="32000" windowHeight="26160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="1428" uniqueCount="283">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="1414" uniqueCount="280">
   <si>
     <t>CXCA_SCRN</t>
   </si>
@@ -875,23 +875,14 @@
     <t>PrEP_CT</t>
   </si>
   <si>
-    <t>PrEP_CT.Neg.T</t>
-  </si>
-  <si>
-    <t>Som9NRMQqV8</t>
-  </si>
-  <si>
     <t>fRWHMVd6Vq5</t>
-  </si>
-  <si>
-    <t>Age/Sex/Result</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1042,6 +1033,11 @@
       <sz val="11"/>
       <name val="Lucida Grande"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF202124"/>
+      <name val="Roboto"/>
     </font>
   </fonts>
   <fills count="36">
@@ -1429,7 +1425,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1453,6 +1449,7 @@
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="35" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1817,11 +1814,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N102"/>
+  <dimension ref="A1:N101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C92" sqref="C92"/>
+      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4406,7 +4403,7 @@
         <v>278</v>
       </c>
       <c r="D59" s="14" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E59" s="19" t="s">
         <v>35</v>
@@ -4450,7 +4447,7 @@
         <v>278</v>
       </c>
       <c r="D60" s="14" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E60" s="19" t="s">
         <v>35</v>
@@ -5858,7 +5855,7 @@
         <v>278</v>
       </c>
       <c r="D92" s="14" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E92" s="11" t="s">
         <v>35</v>
@@ -6199,7 +6196,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="100" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:14" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="11" t="s">
         <v>165</v>
       </c>
@@ -6218,8 +6215,8 @@
       <c r="F100" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="G100" s="12" t="s">
-        <v>282</v>
+      <c r="G100" s="23" t="s">
+        <v>37</v>
       </c>
       <c r="H100" s="12" t="s">
         <v>112</v>
@@ -6243,7 +6240,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="101" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:14" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="11" t="s">
         <v>164</v>
       </c>
@@ -6262,8 +6259,8 @@
       <c r="F101" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="G101" s="12" t="s">
-        <v>282</v>
+      <c r="G101" s="23" t="s">
+        <v>37</v>
       </c>
       <c r="H101" s="12" t="s">
         <v>112</v>
@@ -6284,50 +6281,6 @@
         <v>2</v>
       </c>
       <c r="N101" s="12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="102" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="B102" s="12" t="s">
-        <v>269</v>
-      </c>
-      <c r="C102" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="D102" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="E102" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F102" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="G102" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="H102" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="I102" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="J102" s="14" t="s">
-        <v>267</v>
-      </c>
-      <c r="K102" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="L102" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="M102" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="N102" s="12" t="s">
         <v>55</v>
       </c>
     </row>

--- a/data-raw/snu_x_im_distribution_configuration/23Tto24TMap.xlsx
+++ b/data-raw/snu_x_im_distribution_configuration/23Tto24TMap.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordanbales/Documents/Repos/data-pack-commons/data-raw/snu_x_im_distribution_configuration/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/faustolopezbao/Documents/GitHub/data-pack-commons/data-raw/snu_x_im_distribution_configuration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{FBF37D22-2427-734A-B385-A57CDF23925F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{07D679ED-4667-994D-9968-C18413DEE505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="32000" windowHeight="26160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39400" yWindow="1260" windowWidth="32000" windowHeight="20340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Map" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="1414" uniqueCount="280">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="1428" uniqueCount="282">
   <si>
     <t>CXCA_SCRN</t>
   </si>
@@ -876,6 +876,12 @@
   </si>
   <si>
     <t>fRWHMVd6Vq5</t>
+  </si>
+  <si>
+    <t>PrEP_CT.Neg.T</t>
+  </si>
+  <si>
+    <t>Som9NRMQqV8</t>
   </si>
 </sst>
 </file>
@@ -1814,11 +1820,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C60" sqref="C60"/>
+      <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J102" sqref="J102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6196,7 +6202,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="100" spans="1:14" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="11" t="s">
         <v>165</v>
       </c>
@@ -6240,7 +6246,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="101" spans="1:14" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="11" t="s">
         <v>164</v>
       </c>
@@ -6281,6 +6287,50 @@
         <v>2</v>
       </c>
       <c r="N101" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="B102" s="19" t="s">
+        <v>269</v>
+      </c>
+      <c r="C102" s="22" t="s">
+        <v>278</v>
+      </c>
+      <c r="D102" s="20" t="s">
+        <v>279</v>
+      </c>
+      <c r="E102" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="F102" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="G102" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="H102" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="I102" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="J102" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="K102" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="L102" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="M102" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="N102" s="19" t="s">
         <v>55</v>
       </c>
     </row>

--- a/data-raw/snu_x_im_distribution_configuration/23Tto24TMap.xlsx
+++ b/data-raw/snu_x_im_distribution_configuration/23Tto24TMap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/faustolopezbao/Documents/GitHub/data-pack-commons/data-raw/snu_x_im_distribution_configuration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{07D679ED-4667-994D-9968-C18413DEE505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{638F6A4F-990E-8E48-86F7-D46F73F33412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39400" yWindow="1260" windowWidth="32000" windowHeight="20340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37240" yWindow="1260" windowWidth="32000" windowHeight="20340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Map" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="1428" uniqueCount="282">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="1414" uniqueCount="280">
   <si>
     <t>CXCA_SCRN</t>
   </si>
@@ -876,12 +876,6 @@
   </si>
   <si>
     <t>fRWHMVd6Vq5</t>
-  </si>
-  <si>
-    <t>PrEP_CT.Neg.T</t>
-  </si>
-  <si>
-    <t>Som9NRMQqV8</t>
   </si>
 </sst>
 </file>
@@ -1234,13 +1228,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1455,7 +1449,7 @@
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="35" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1820,11 +1814,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N102"/>
+  <dimension ref="A1:N101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J102" sqref="J102"/>
+      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F96" sqref="F96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1978,267 +1972,267 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="B4" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="C4" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G4" s="1" t="s">
+      <c r="E4" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="G4" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="J4" t="s">
-        <v>267</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="M4" s="2" t="s">
+      <c r="I4" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="J4" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="K4" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="L4" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="M4" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="N4" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="N4" s="19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="B5" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="C5" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G5" s="1" t="s">
+      <c r="E5" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="J5" t="s">
-        <v>267</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="M5" s="2" t="s">
+      <c r="I5" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="J5" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="K5" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="L5" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="M5" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="N5" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="N5" s="19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="B6" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="C6" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="22" t="s">
         <v>225</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G6" s="1" t="s">
+      <c r="E6" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="22" t="s">
         <v>242</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="J6" t="s">
-        <v>267</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="I6" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="J6" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="K6" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="L6" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="M6" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="N6" s="19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="B7" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="C7" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G7" s="1" t="s">
+      <c r="E7" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="G7" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="J7" t="s">
-        <v>267</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="M7" s="2" t="s">
+      <c r="I7" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="J7" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="K7" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="L7" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="M7" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="N7" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="N7" s="19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="B8" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="C8" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G8" s="1" t="s">
+      <c r="E8" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="G8" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="J8" t="s">
-        <v>267</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="2" t="s">
+      <c r="I8" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="J8" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="K8" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="L8" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="N8" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="N8" s="19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="B9" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="C9" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="22" t="s">
         <v>225</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G9" s="1" t="s">
+      <c r="E9" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="G9" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="22" t="s">
         <v>243</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="J9" t="s">
-        <v>267</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="N9" s="1" t="s">
+      <c r="I9" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="J9" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="K9" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="L9" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="M9" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="N9" s="19" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2286,619 +2280,619 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="B11" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="C11" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G11" s="1" t="s">
+      <c r="E11" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="G11" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="J11" t="s">
-        <v>267</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="M11" s="1" t="s">
+      <c r="I11" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="J11" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="K11" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="L11" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="M11" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="N11" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="N11" s="19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="B12" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="C12" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G12" s="1" t="s">
+      <c r="E12" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="J12" t="s">
-        <v>267</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="M12" s="1" t="s">
+      <c r="I12" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="J12" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="K12" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="L12" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="M12" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="N12" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+      <c r="N12" s="19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="B13" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="C13" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="22" t="s">
         <v>225</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G13" s="1" t="s">
+      <c r="E13" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="G13" s="19" t="s">
         <v>234</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H13" s="22" t="s">
         <v>244</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="J13" t="s">
-        <v>267</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+      <c r="I13" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="J13" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="K13" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="L13" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="M13" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="N13" s="19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C14" s="1" t="s">
+      <c r="B14" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="C14" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G14" s="1" t="s">
+      <c r="E14" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H14" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="J14" t="s">
-        <v>267</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="M14" s="1" t="s">
+      <c r="I14" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="J14" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="K14" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="L14" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="M14" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="N14" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+      <c r="N14" s="19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C15" s="1" t="s">
+      <c r="B15" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="C15" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G15" s="1" t="s">
+      <c r="E15" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="G15" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H15" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="I15" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="J15" t="s">
-        <v>267</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="M15" s="1" t="s">
+      <c r="I15" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="J15" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="K15" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="L15" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="M15" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="N15" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+      <c r="N15" s="19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C16" s="1" t="s">
+      <c r="B16" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="C16" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="22" t="s">
         <v>225</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G16" s="1" t="s">
+      <c r="E16" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="G16" s="19" t="s">
         <v>235</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="H16" s="22" t="s">
         <v>245</v>
       </c>
-      <c r="I16" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="J16" t="s">
-        <v>267</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+      <c r="I16" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="J16" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="K16" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="L16" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="M16" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="N16" s="19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C17" s="1" t="s">
+      <c r="B17" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="C17" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G17" s="1" t="s">
+      <c r="E17" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="G17" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="H17" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="I17" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="J17" t="s">
-        <v>267</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="M17" s="1" t="s">
+      <c r="I17" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="J17" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="K17" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="L17" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="M17" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="N17" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+      <c r="N17" s="19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C18" s="1" t="s">
+      <c r="B18" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="C18" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G18" s="1" t="s">
+      <c r="E18" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="G18" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="H18" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="I18" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="J18" t="s">
-        <v>267</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="M18" s="1" t="s">
+      <c r="I18" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="J18" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="K18" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="L18" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="M18" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="N18" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+      <c r="N18" s="19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C19" s="1" t="s">
+      <c r="B19" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="C19" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G19" s="1" t="s">
+      <c r="E19" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="G19" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="H19" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="I19" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="J19" t="s">
-        <v>267</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="L19" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="M19" s="1" t="s">
+      <c r="I19" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="J19" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="K19" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="L19" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="M19" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="N19" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+      <c r="N19" s="19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C20" s="1" t="s">
+      <c r="B20" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="C20" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G20" s="1" t="s">
+      <c r="E20" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="G20" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="H20" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="I20" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="J20" t="s">
-        <v>267</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="M20" s="1" t="s">
+      <c r="I20" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="J20" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="K20" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="L20" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="M20" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="N20" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
+      <c r="N20" s="19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C21" s="1" t="s">
+      <c r="B21" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="C21" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="22" t="s">
         <v>225</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G21" s="1" t="s">
+      <c r="E21" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="G21" s="19" t="s">
         <v>236</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="H21" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="I21" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="J21" t="s">
-        <v>267</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="M21" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="N21" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+      <c r="I21" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="J21" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="K21" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="L21" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="M21" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="N21" s="19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C22" s="1" t="s">
+      <c r="B22" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="C22" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G22" s="1" t="s">
+      <c r="E22" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="G22" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="H22" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="I22" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="J22" t="s">
-        <v>267</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="M22" s="1" t="s">
+      <c r="I22" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="J22" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="K22" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="L22" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="M22" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="N22" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
+      <c r="N22" s="19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C23" s="1" t="s">
+      <c r="B23" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="C23" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G23" s="1" t="s">
+      <c r="E23" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="G23" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="H23" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="I23" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="J23" t="s">
-        <v>267</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="M23" s="1" t="s">
+      <c r="I23" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="J23" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="K23" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="L23" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="M23" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="N23" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
+      <c r="N23" s="19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C24" s="1" t="s">
+      <c r="B24" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="C24" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="22" t="s">
         <v>225</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G24" s="1" t="s">
+      <c r="E24" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="F24" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="G24" s="19" t="s">
         <v>237</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="H24" s="22" t="s">
         <v>247</v>
       </c>
-      <c r="I24" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="J24" t="s">
-        <v>267</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="M24" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="N24" s="1" t="s">
+      <c r="I24" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="J24" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="K24" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="L24" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="M24" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="N24" s="19" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2990,139 +2984,139 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
+    <row r="27" spans="1:14" s="22" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C27" s="1" t="s">
+      <c r="B27" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="C27" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="22" t="s">
         <v>225</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G27" s="1" t="s">
+      <c r="E27" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="G27" s="19" t="s">
         <v>238</v>
       </c>
-      <c r="H27" s="2" t="s">
+      <c r="H27" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="I27" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="J27" t="s">
-        <v>267</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="M27" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="N27" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
+      <c r="I27" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="J27" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="K27" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="L27" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="M27" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="N27" s="19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" s="22" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C28" s="1" t="s">
+      <c r="B28" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="C28" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G28" s="1" t="s">
+      <c r="E28" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="F28" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="G28" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="H28" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="I28" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="J28" t="s">
-        <v>267</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="L28" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="M28" s="1" t="s">
+      <c r="I28" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="J28" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="K28" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="L28" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="M28" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="N28" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
+      <c r="N28" s="19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" s="22" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C29" s="1" t="s">
+      <c r="B29" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="C29" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G29" s="1" t="s">
+      <c r="E29" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="F29" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="G29" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="H29" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="I29" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="J29" t="s">
-        <v>267</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="M29" s="1" t="s">
+      <c r="I29" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="J29" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="K29" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="L29" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="M29" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="N29" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>169</v>
       </c>
@@ -3210,47 +3204,47 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
+    <row r="32" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C32" s="1" t="s">
+      <c r="B32" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="C32" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="22" t="s">
         <v>225</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G32" s="1" t="s">
+      <c r="E32" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="F32" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="G32" s="19" t="s">
         <v>239</v>
       </c>
-      <c r="H32" s="2" t="s">
+      <c r="H32" s="22" t="s">
         <v>249</v>
       </c>
-      <c r="I32" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="J32" t="s">
-        <v>267</v>
-      </c>
-      <c r="K32" s="3" t="s">
+      <c r="I32" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="J32" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="K32" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="M32" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="N32" s="1" t="s">
+      <c r="L32" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="M32" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="N32" s="19" t="s">
         <v>55</v>
       </c>
     </row>
@@ -3342,179 +3336,179 @@
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
+    <row r="35" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C35" s="1" t="s">
+      <c r="B35" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="C35" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D35" s="22" t="s">
         <v>225</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G35" s="1" t="s">
+      <c r="E35" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="F35" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="G35" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="H35" s="2" t="s">
+      <c r="H35" s="22" t="s">
         <v>250</v>
       </c>
-      <c r="I35" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="J35" t="s">
-        <v>267</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="L35" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="M35" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="N35" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
+      <c r="I35" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="J35" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="K35" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="L35" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="M35" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="N35" s="19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C36" s="1" t="s">
+      <c r="B36" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="C36" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="E36" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G36" s="1" t="s">
+      <c r="E36" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="F36" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="G36" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="H36" s="1" t="s">
+      <c r="H36" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="I36" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="J36" t="s">
-        <v>267</v>
-      </c>
-      <c r="K36" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="L36" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="M36" s="1" t="s">
+      <c r="I36" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="J36" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="K36" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="L36" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="M36" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="N36" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
+      <c r="N36" s="19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C37" s="1" t="s">
+      <c r="B37" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="C37" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="E37" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G37" s="1" t="s">
+      <c r="E37" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="F37" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="G37" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="H37" s="1" t="s">
+      <c r="H37" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="I37" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="J37" t="s">
-        <v>267</v>
-      </c>
-      <c r="K37" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="L37" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="M37" s="1" t="s">
+      <c r="I37" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="J37" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="K37" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="L37" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="M37" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="N37" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
+      <c r="N37" s="19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C38" s="1" t="s">
+      <c r="B38" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="C38" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D38" s="22" t="s">
         <v>225</v>
       </c>
-      <c r="E38" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G38" s="1" t="s">
+      <c r="E38" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="F38" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="G38" s="19" t="s">
         <v>241</v>
       </c>
-      <c r="H38" s="2" t="s">
+      <c r="H38" s="22" t="s">
         <v>251</v>
       </c>
-      <c r="I38" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="J38" t="s">
-        <v>267</v>
-      </c>
-      <c r="K38" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="L38" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="M38" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="N38" s="1" t="s">
+      <c r="I38" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="J38" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="K38" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="L38" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="M38" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="N38" s="19" t="s">
         <v>55</v>
       </c>
     </row>
@@ -4310,47 +4304,47 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="15" t="s">
+    <row r="57" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="19" t="s">
         <v>253</v>
       </c>
-      <c r="B57" s="15" t="s">
-        <v>265</v>
-      </c>
-      <c r="C57" s="15" t="s">
+      <c r="B57" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="C57" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="D57" s="18" t="s">
+      <c r="D57" s="22" t="s">
         <v>225</v>
       </c>
-      <c r="E57" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="F57" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="G57" s="18" t="s">
+      <c r="E57" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="F57" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="G57" s="22" t="s">
         <v>226</v>
       </c>
-      <c r="H57" s="18" t="s">
+      <c r="H57" s="22" t="s">
         <v>227</v>
       </c>
-      <c r="I57" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="J57" s="16" t="s">
-        <v>267</v>
-      </c>
-      <c r="K57" s="17" t="s">
+      <c r="I57" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="J57" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="K57" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="L57" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="M57" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="N57" s="15" t="s">
+      <c r="L57" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="M57" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="N57" s="19" t="s">
         <v>55</v>
       </c>
     </row>
@@ -4398,11 +4392,11 @@
         <v>55</v>
       </c>
     </row>
-    <row r="59" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="19" t="s">
+    <row r="59" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="15" t="s">
         <v>255</v>
       </c>
-      <c r="B59" s="19" t="s">
+      <c r="B59" s="15" t="s">
         <v>265</v>
       </c>
       <c r="C59" s="11" t="s">
@@ -4411,42 +4405,42 @@
       <c r="D59" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="E59" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="F59" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="G59" s="19" t="s">
+      <c r="E59" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F59" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="G59" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="H59" s="19" t="s">
+      <c r="H59" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="I59" s="19" t="s">
-        <v>266</v>
-      </c>
-      <c r="J59" s="20" t="s">
-        <v>267</v>
-      </c>
-      <c r="K59" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="L59" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="M59" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="N59" s="19" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="19" t="s">
+      <c r="I59" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="J59" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="K59" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="L59" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="M59" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="N59" s="15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="15" t="s">
         <v>256</v>
       </c>
-      <c r="B60" s="19" t="s">
+      <c r="B60" s="15" t="s">
         <v>265</v>
       </c>
       <c r="C60" s="11" t="s">
@@ -4455,34 +4449,34 @@
       <c r="D60" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="E60" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="F60" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="G60" s="19" t="s">
+      <c r="E60" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F60" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="G60" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="H60" s="19" t="s">
+      <c r="H60" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="I60" s="19" t="s">
-        <v>266</v>
-      </c>
-      <c r="J60" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="K60" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="L60" s="21" t="s">
+      <c r="I60" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="J60" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="K60" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="L60" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="M60" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="N60" s="19" t="s">
+      <c r="M60" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="N60" s="15" t="s">
         <v>55</v>
       </c>
     </row>
@@ -5014,47 +5008,47 @@
         <v>55</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A73" s="2" t="s">
+    <row r="73" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="22" t="s">
         <v>207</v>
       </c>
-      <c r="B73" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C73" s="1" t="s">
+      <c r="B73" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="C73" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="D73" s="2" t="s">
+      <c r="D73" s="22" t="s">
         <v>225</v>
       </c>
-      <c r="E73" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G73" s="2" t="s">
+      <c r="E73" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="F73" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="G73" s="22" t="s">
         <v>228</v>
       </c>
-      <c r="H73" s="2" t="s">
+      <c r="H73" s="22" t="s">
         <v>229</v>
       </c>
-      <c r="I73" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="J73" t="s">
-        <v>267</v>
-      </c>
-      <c r="K73" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="L73" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="M73" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="N73" s="1" t="s">
+      <c r="I73" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="J73" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="K73" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="L73" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="M73" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="N73" s="19" t="s">
         <v>55</v>
       </c>
     </row>
@@ -5674,47 +5668,47 @@
         <v>55</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A88" s="2" t="s">
+    <row r="88" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="B88" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C88" s="1" t="s">
+      <c r="B88" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="C88" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="D88" s="2" t="s">
+      <c r="D88" s="22" t="s">
         <v>225</v>
       </c>
-      <c r="E88" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G88" s="2" t="s">
+      <c r="E88" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="F88" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="G88" s="22" t="s">
         <v>230</v>
       </c>
-      <c r="H88" s="2" t="s">
+      <c r="H88" s="22" t="s">
         <v>231</v>
       </c>
-      <c r="I88" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="J88" t="s">
-        <v>267</v>
-      </c>
-      <c r="K88" s="3" t="s">
+      <c r="I88" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="J88" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="K88" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="L88" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="M88" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="N88" s="1" t="s">
+      <c r="L88" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="M88" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="N88" s="19" t="s">
         <v>55</v>
       </c>
     </row>
@@ -5870,10 +5864,10 @@
         <v>76</v>
       </c>
       <c r="G92" s="12" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="H92" s="12" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I92" s="12" t="s">
         <v>270</v>
@@ -6287,50 +6281,6 @@
         <v>2</v>
       </c>
       <c r="N101" s="12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="102" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="22" t="s">
-        <v>280</v>
-      </c>
-      <c r="B102" s="19" t="s">
-        <v>269</v>
-      </c>
-      <c r="C102" s="22" t="s">
-        <v>278</v>
-      </c>
-      <c r="D102" s="20" t="s">
-        <v>279</v>
-      </c>
-      <c r="E102" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="F102" s="19" t="s">
-        <v>281</v>
-      </c>
-      <c r="G102" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="H102" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="I102" s="22" t="s">
-        <v>270</v>
-      </c>
-      <c r="J102" s="20" t="s">
-        <v>267</v>
-      </c>
-      <c r="K102" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="L102" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="M102" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="N102" s="19" t="s">
         <v>55</v>
       </c>
     </row>

--- a/data-raw/snu_x_im_distribution_configuration/23Tto24TMap.xlsx
+++ b/data-raw/snu_x_im_distribution_configuration/23Tto24TMap.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/faustolopezbao/Documents/GitHub/data-pack-commons/data-raw/snu_x_im_distribution_configuration/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordanbales/Documents/Repos/data-pack-commons/data-raw/snu_x_im_distribution_configuration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{638F6A4F-990E-8E48-86F7-D46F73F33412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{D4707B4A-0660-EB4A-9C64-B5ED86729C4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37240" yWindow="1260" windowWidth="32000" windowHeight="20340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16000" yWindow="500" windowWidth="32000" windowHeight="26160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Map" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="1414" uniqueCount="280">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="1414" uniqueCount="279">
   <si>
     <t>CXCA_SCRN</t>
   </si>
@@ -846,9 +846,6 @@
   </si>
   <si>
     <t>DE_GROUP-TXAVaM4oYMd</t>
-  </si>
-  <si>
-    <t>2023Oct</t>
   </si>
   <si>
     <t>HTS.Index.Pos.T</t>
@@ -1817,8 +1814,8 @@
   <dimension ref="A1:N101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F96" sqref="F96"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H96" sqref="H96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4400,10 +4397,10 @@
         <v>265</v>
       </c>
       <c r="C59" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="D59" s="14" t="s">
         <v>278</v>
-      </c>
-      <c r="D59" s="14" t="s">
-        <v>279</v>
       </c>
       <c r="E59" s="15" t="s">
         <v>35</v>
@@ -4444,10 +4441,10 @@
         <v>265</v>
       </c>
       <c r="C60" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="D60" s="14" t="s">
         <v>278</v>
-      </c>
-      <c r="D60" s="14" t="s">
-        <v>279</v>
       </c>
       <c r="E60" s="15" t="s">
         <v>35</v>
@@ -5852,25 +5849,25 @@
         <v>269</v>
       </c>
       <c r="C92" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="D92" s="14" t="s">
         <v>278</v>
       </c>
-      <c r="D92" s="14" t="s">
-        <v>279</v>
-      </c>
       <c r="E92" s="11" t="s">
         <v>35</v>
       </c>
       <c r="F92" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="G92" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="H92" s="12" t="s">
-        <v>100</v>
+      <c r="G92" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="H92" s="15" t="s">
+        <v>99</v>
       </c>
       <c r="I92" s="12" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="J92" s="14" t="s">
         <v>267</v>
@@ -5890,7 +5887,7 @@
     </row>
     <row r="93" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="11" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B93" s="12" t="s">
         <v>269</v>
@@ -5914,7 +5911,7 @@
         <v>103</v>
       </c>
       <c r="I93" s="12" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="J93" s="14" t="s">
         <v>267</v>
@@ -5934,7 +5931,7 @@
     </row>
     <row r="94" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B94" s="12" t="s">
         <v>269</v>
@@ -5958,7 +5955,7 @@
         <v>103</v>
       </c>
       <c r="I94" s="12" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="J94" s="14" t="s">
         <v>267</v>
@@ -5978,7 +5975,7 @@
     </row>
     <row r="95" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B95" s="12" t="s">
         <v>269</v>
@@ -6002,7 +5999,7 @@
         <v>231</v>
       </c>
       <c r="I95" s="12" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="J95" s="14" t="s">
         <v>267</v>
@@ -6022,7 +6019,7 @@
     </row>
     <row r="96" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="11" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B96" s="12" t="s">
         <v>269</v>
@@ -6046,7 +6043,7 @@
         <v>231</v>
       </c>
       <c r="I96" s="12" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="J96" s="14" t="s">
         <v>267</v>
@@ -6066,7 +6063,7 @@
     </row>
     <row r="97" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B97" s="12" t="s">
         <v>269</v>
@@ -6090,7 +6087,7 @@
         <v>112</v>
       </c>
       <c r="I97" s="12" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="J97" s="14" t="s">
         <v>267</v>
@@ -6110,7 +6107,7 @@
     </row>
     <row r="98" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="11" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B98" s="12" t="s">
         <v>269</v>
@@ -6134,7 +6131,7 @@
         <v>112</v>
       </c>
       <c r="I98" s="12" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="J98" s="14" t="s">
         <v>267</v>
@@ -6154,7 +6151,7 @@
     </row>
     <row r="99" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="11" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B99" s="12" t="s">
         <v>269</v>
@@ -6178,7 +6175,7 @@
         <v>231</v>
       </c>
       <c r="I99" s="12" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="J99" s="14" t="s">
         <v>267</v>
@@ -6222,7 +6219,7 @@
         <v>112</v>
       </c>
       <c r="I100" s="12" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="J100" s="14" t="s">
         <v>267</v>
@@ -6266,7 +6263,7 @@
         <v>112</v>
       </c>
       <c r="I101" s="12" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="J101" s="14" t="s">
         <v>267</v>

--- a/data-raw/snu_x_im_distribution_configuration/23Tto24TMap.xlsx
+++ b/data-raw/snu_x_im_distribution_configuration/23Tto24TMap.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordanbales/Documents/Repos/data-pack-commons/data-raw/snu_x_im_distribution_configuration/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/faustolopezbao/Documents/GitHub/data-pack-commons/data-raw/snu_x_im_distribution_configuration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{D4707B4A-0660-EB4A-9C64-B5ED86729C4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{9359A3EA-81DA-904C-B2E6-EE289B6199DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16000" yWindow="500" windowWidth="32000" windowHeight="26160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3840" yWindow="500" windowWidth="32000" windowHeight="20340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Map" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="1414" uniqueCount="279">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="1414" uniqueCount="278">
   <si>
     <t>CXCA_SCRN</t>
   </si>
@@ -843,9 +843,6 @@
   </si>
   <si>
     <t>PrEP_CT.TestResult.T</t>
-  </si>
-  <si>
-    <t>DE_GROUP-TXAVaM4oYMd</t>
   </si>
   <si>
     <t>HTS.Index.Pos.T</t>
@@ -1814,8 +1811,8 @@
   <dimension ref="A1:N101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H96" sqref="H96"/>
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B92" sqref="B92:B101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4397,10 +4394,10 @@
         <v>265</v>
       </c>
       <c r="C59" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="D59" s="14" t="s">
         <v>277</v>
-      </c>
-      <c r="D59" s="14" t="s">
-        <v>278</v>
       </c>
       <c r="E59" s="15" t="s">
         <v>35</v>
@@ -4441,10 +4438,10 @@
         <v>265</v>
       </c>
       <c r="C60" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="D60" s="14" t="s">
         <v>277</v>
-      </c>
-      <c r="D60" s="14" t="s">
-        <v>278</v>
       </c>
       <c r="E60" s="15" t="s">
         <v>35</v>
@@ -5846,13 +5843,13 @@
         <v>268</v>
       </c>
       <c r="B92" s="12" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C92" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="D92" s="14" t="s">
         <v>277</v>
-      </c>
-      <c r="D92" s="14" t="s">
-        <v>278</v>
       </c>
       <c r="E92" s="11" t="s">
         <v>35</v>
@@ -5887,10 +5884,10 @@
     </row>
     <row r="93" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="11" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B93" s="12" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C93" s="12" t="s">
         <v>122</v>
@@ -5931,10 +5928,10 @@
     </row>
     <row r="94" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="11" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B94" s="12" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C94" s="12" t="s">
         <v>122</v>
@@ -5975,10 +5972,10 @@
     </row>
     <row r="95" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B95" s="12" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C95" s="12" t="s">
         <v>7</v>
@@ -6019,10 +6016,10 @@
     </row>
     <row r="96" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B96" s="12" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C96" s="12" t="s">
         <v>7</v>
@@ -6063,10 +6060,10 @@
     </row>
     <row r="97" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="11" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B97" s="12" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C97" s="12" t="s">
         <v>7</v>
@@ -6107,10 +6104,10 @@
     </row>
     <row r="98" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B98" s="12" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C98" s="12" t="s">
         <v>7</v>
@@ -6151,10 +6148,10 @@
     </row>
     <row r="99" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="11" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C99" s="12" t="s">
         <v>5</v>
@@ -6198,7 +6195,7 @@
         <v>165</v>
       </c>
       <c r="B100" s="12" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C100" s="12" t="s">
         <v>7</v>
@@ -6242,7 +6239,7 @@
         <v>164</v>
       </c>
       <c r="B101" s="12" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C101" s="12" t="s">
         <v>7</v>

--- a/data-raw/snu_x_im_distribution_configuration/23Tto24TMap.xlsx
+++ b/data-raw/snu_x_im_distribution_configuration/23Tto24TMap.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/faustolopezbao/Documents/GitHub/data-pack-commons/data-raw/snu_x_im_distribution_configuration/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sam/Documents/GitHub/data-pack-commons/data-raw/snu_x_im_distribution_configuration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{9359A3EA-81DA-904C-B2E6-EE289B6199DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{57F6702A-9BE1-0344-A122-A5EFD472E837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3840" yWindow="500" windowWidth="32000" windowHeight="20340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1600" yWindow="500" windowWidth="32000" windowHeight="20340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Map" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="1414" uniqueCount="278">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="1414" uniqueCount="280">
   <si>
     <t>CXCA_SCRN</t>
   </si>
@@ -870,6 +870,12 @@
   </si>
   <si>
     <t>fRWHMVd6Vq5</t>
+  </si>
+  <si>
+    <t>Index/Age/Sex/Result;IndexMod/Age/Sex/Result</t>
+  </si>
+  <si>
+    <t>zzNslrLngKi;xds87opkbem</t>
   </si>
 </sst>
 </file>
@@ -1034,7 +1040,7 @@
       <name val="Roboto"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1232,6 +1238,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="12">
     <border>
@@ -1419,7 +1431,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1444,6 +1456,10 @@
     <xf numFmtId="0" fontId="19" fillId="35" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1811,8 +1827,8 @@
   <dimension ref="A1:N101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B92" sqref="B92:B101"/>
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A93" sqref="A93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1823,7 +1839,7 @@
     <col min="4" max="4" width="16.83203125" style="2" customWidth="1"/>
     <col min="5" max="5" width="11.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.83203125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="36.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="27.5" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.5" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="24.33203125" bestFit="1" customWidth="1"/>
@@ -5883,46 +5899,46 @@
       </c>
     </row>
     <row r="93" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="11" t="s">
+      <c r="A93" s="24" t="s">
         <v>269</v>
       </c>
-      <c r="B93" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="C93" s="12" t="s">
+      <c r="B93" s="25" t="s">
+        <v>265</v>
+      </c>
+      <c r="C93" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="D93" s="12" t="s">
+      <c r="D93" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="E93" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F93" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="G93" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="H93" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="I93" s="12" t="s">
-        <v>266</v>
-      </c>
-      <c r="J93" s="14" t="s">
-        <v>267</v>
-      </c>
-      <c r="K93" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="L93" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="M93" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="N93" s="12" t="s">
+      <c r="E93" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="F93" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="G93" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="H93" s="25" t="s">
+        <v>279</v>
+      </c>
+      <c r="I93" s="25" t="s">
+        <v>266</v>
+      </c>
+      <c r="J93" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="K93" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="L93" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="M93" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="N93" s="25" t="s">
         <v>55</v>
       </c>
     </row>

--- a/data-raw/snu_x_im_distribution_configuration/23Tto24TMap.xlsx
+++ b/data-raw/snu_x_im_distribution_configuration/23Tto24TMap.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sam/Documents/GitHub/data-pack-commons/data-raw/snu_x_im_distribution_configuration/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/faustolopezbao/Documents/GitHub/data-pack-commons/data-raw/snu_x_im_distribution_configuration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{57F6702A-9BE1-0344-A122-A5EFD472E837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{81DFC993-7113-534A-B18A-3BDA55AB6D79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1600" yWindow="500" windowWidth="32000" windowHeight="20340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36060" yWindow="1040" windowWidth="37520" windowHeight="18980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Map" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="1414" uniqueCount="280">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="1414" uniqueCount="286">
   <si>
     <t>CXCA_SCRN</t>
   </si>
@@ -876,6 +876,24 @@
   </si>
   <si>
     <t>zzNslrLngKi;xds87opkbem</t>
+  </si>
+  <si>
+    <t>OtherMod/Age Aggregated/Sex/Result;MobileMod/Age/Sex/Result</t>
+  </si>
+  <si>
+    <t>cYRowDkVEpl;Qr9eyrVLHSg</t>
+  </si>
+  <si>
+    <t>IndexMod/Age/Sex/HIVStatus;Index/Age/Sex/HIVStatus;Emergency Ward/Age/Sex/HIVStatus;Inpat/Age/Sex/HIVStatus;MobileMod/Age/Sex/HIVStatus;OtherMod/Age/Sex/HIVStatus;OtherPITC/Age/Sex/HIVStatus;PMTCT PostANC/Age/Sex/HIVStatus;STI Clinic/Age/Sex/HIVStatus;VCT/Age/Sex/HIVStatus;KeyPop/HIVStatus;PMTCT ANC/Age/Sex/HIVStatus;TBClinic/Age/Sex/HIVStatus;VMMC/Age/Sex/HIVStatus</t>
+  </si>
+  <si>
+    <t>cnlEjFkl5UZ;Tpc0Ztxae9H;lJQyt3PjrVy;CEcYYCkTncR;EVwSAwSEfTg;G6QgzwFMWSP;Y3aCLwI6IU3;c60fuhOWPu4;WGV3YTTqrZ3;vYZLPZAuv8A;oLVJbdHt6ou;FazeYvGkStI;PcsTdqSq0Id;mCtbMQYjHjj</t>
+  </si>
+  <si>
+    <t>Inpat/Age/Sex/Result;Emergency Ward/Age/Sex/Result;OtherPITC/Age/Sex/Result;VCT/Age/Sex/Result;Pediatric/Age/Sex/Result;Malnutrition/Age/Sex/Result</t>
+  </si>
+  <si>
+    <t>p6j1mfN4rjP;iPfNX6Ylqp1;E3VaSq4JOzd;dcaYk7TXk4E;iFlQUEQcsfZ;jEpJPF6IVVB</t>
   </si>
 </sst>
 </file>
@@ -1040,7 +1058,7 @@
       <name val="Roboto"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1240,7 +1258,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1431,7 +1455,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1444,8 +1468,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="8" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
@@ -1455,11 +1477,23 @@
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="35" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="36" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1826,16 +1860,16 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A93" sqref="A93"/>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G99" sqref="G99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="30.83203125" style="2" customWidth="1"/>
     <col min="2" max="2" width="24.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.83203125" style="2" customWidth="1"/>
     <col min="5" max="5" width="11.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.83203125" style="2" customWidth="1"/>
@@ -1982,267 +2016,267 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="19" t="s">
+    <row r="4" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="B4" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="C4" s="19" t="s">
+      <c r="B4" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="C4" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="E4" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="G4" s="19" t="s">
+      <c r="E4" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="G4" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="I4" s="19" t="s">
-        <v>266</v>
-      </c>
-      <c r="J4" s="20" t="s">
-        <v>267</v>
-      </c>
-      <c r="K4" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="L4" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="M4" s="22" t="s">
+      <c r="I4" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="J4" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="K4" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="L4" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="M4" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="N4" s="19" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="19" t="s">
+      <c r="N4" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="B5" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="C5" s="19" t="s">
+      <c r="B5" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="C5" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="E5" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="G5" s="19" t="s">
+      <c r="E5" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="H5" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="I5" s="19" t="s">
-        <v>266</v>
-      </c>
-      <c r="J5" s="20" t="s">
-        <v>267</v>
-      </c>
-      <c r="K5" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="L5" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="M5" s="22" t="s">
+      <c r="I5" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="J5" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="M5" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="N5" s="19" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="22" t="s">
+      <c r="N5" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="B6" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="C6" s="19" t="s">
+      <c r="B6" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="C6" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="E6" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="G6" s="19" t="s">
+      <c r="E6" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="H6" s="22" t="s">
+      <c r="H6" s="20" t="s">
         <v>242</v>
       </c>
-      <c r="I6" s="19" t="s">
-        <v>266</v>
-      </c>
-      <c r="J6" s="20" t="s">
-        <v>267</v>
-      </c>
-      <c r="K6" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="L6" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="M6" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="N6" s="19" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="19" t="s">
+      <c r="I6" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="J6" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="K6" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="L6" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="M6" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="N6" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="B7" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="C7" s="19" t="s">
+      <c r="B7" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="C7" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="E7" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="G7" s="19" t="s">
+      <c r="E7" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="G7" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="19" t="s">
+      <c r="H7" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="I7" s="19" t="s">
-        <v>266</v>
-      </c>
-      <c r="J7" s="20" t="s">
-        <v>267</v>
-      </c>
-      <c r="K7" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="L7" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="M7" s="22" t="s">
+      <c r="I7" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="J7" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="K7" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="L7" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="M7" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="N7" s="19" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="19" t="s">
+      <c r="N7" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="B8" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="C8" s="19" t="s">
+      <c r="B8" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="C8" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="E8" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="G8" s="19" t="s">
+      <c r="E8" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="G8" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="H8" s="19" t="s">
+      <c r="H8" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="I8" s="19" t="s">
-        <v>266</v>
-      </c>
-      <c r="J8" s="20" t="s">
-        <v>267</v>
-      </c>
-      <c r="K8" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="L8" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="22" t="s">
+      <c r="I8" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="J8" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="K8" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="L8" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="N8" s="19" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="22" t="s">
+      <c r="N8" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="B9" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="C9" s="19" t="s">
+      <c r="B9" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="C9" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="E9" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="G9" s="19" t="s">
+      <c r="E9" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="G9" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="H9" s="22" t="s">
+      <c r="H9" s="20" t="s">
         <v>243</v>
       </c>
-      <c r="I9" s="19" t="s">
-        <v>266</v>
-      </c>
-      <c r="J9" s="20" t="s">
-        <v>267</v>
-      </c>
-      <c r="K9" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="L9" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="M9" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="N9" s="19" t="s">
+      <c r="I9" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="J9" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="K9" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="L9" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="M9" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="N9" s="17" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2290,619 +2324,619 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="19" t="s">
+    <row r="11" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="B11" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="C11" s="19" t="s">
+      <c r="B11" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="C11" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="E11" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="G11" s="19" t="s">
+      <c r="E11" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="G11" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="H11" s="19" t="s">
+      <c r="H11" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="I11" s="19" t="s">
-        <v>266</v>
-      </c>
-      <c r="J11" s="20" t="s">
-        <v>267</v>
-      </c>
-      <c r="K11" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="L11" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="M11" s="19" t="s">
+      <c r="I11" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="J11" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="K11" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="L11" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="M11" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="N11" s="19" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="19" t="s">
+      <c r="N11" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="B12" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="C12" s="19" t="s">
+      <c r="B12" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="C12" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="E12" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="G12" s="19" t="s">
+      <c r="E12" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="H12" s="19" t="s">
+      <c r="H12" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="I12" s="19" t="s">
-        <v>266</v>
-      </c>
-      <c r="J12" s="20" t="s">
-        <v>267</v>
-      </c>
-      <c r="K12" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="L12" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="M12" s="19" t="s">
+      <c r="I12" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="J12" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="K12" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="L12" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="M12" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="N12" s="19" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="22" t="s">
+      <c r="N12" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="B13" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="C13" s="19" t="s">
+      <c r="B13" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="C13" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="E13" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="G13" s="19" t="s">
+      <c r="E13" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="G13" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="H13" s="22" t="s">
+      <c r="H13" s="20" t="s">
         <v>244</v>
       </c>
-      <c r="I13" s="19" t="s">
-        <v>266</v>
-      </c>
-      <c r="J13" s="20" t="s">
-        <v>267</v>
-      </c>
-      <c r="K13" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="L13" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="M13" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="N13" s="19" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="19" t="s">
+      <c r="I13" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="J13" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="K13" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="L13" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="M13" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="N13" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="B14" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="C14" s="19" t="s">
+      <c r="B14" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="C14" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="E14" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="G14" s="19" t="s">
+      <c r="E14" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="H14" s="19" t="s">
+      <c r="H14" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="I14" s="19" t="s">
-        <v>266</v>
-      </c>
-      <c r="J14" s="20" t="s">
-        <v>267</v>
-      </c>
-      <c r="K14" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="L14" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="M14" s="19" t="s">
+      <c r="I14" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="J14" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="K14" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="L14" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="M14" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="N14" s="19" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="19" t="s">
+      <c r="N14" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="B15" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="C15" s="19" t="s">
+      <c r="B15" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="C15" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="E15" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="G15" s="19" t="s">
+      <c r="E15" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="G15" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="H15" s="19" t="s">
+      <c r="H15" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="I15" s="19" t="s">
-        <v>266</v>
-      </c>
-      <c r="J15" s="20" t="s">
-        <v>267</v>
-      </c>
-      <c r="K15" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="L15" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="M15" s="19" t="s">
+      <c r="I15" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="J15" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="K15" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="L15" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="M15" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="N15" s="19" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="22" t="s">
+      <c r="N15" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="B16" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="C16" s="19" t="s">
+      <c r="B16" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="C16" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="E16" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="F16" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="G16" s="19" t="s">
+      <c r="E16" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="G16" s="17" t="s">
         <v>235</v>
       </c>
-      <c r="H16" s="22" t="s">
+      <c r="H16" s="20" t="s">
         <v>245</v>
       </c>
-      <c r="I16" s="19" t="s">
-        <v>266</v>
-      </c>
-      <c r="J16" s="20" t="s">
-        <v>267</v>
-      </c>
-      <c r="K16" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="L16" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="M16" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="N16" s="19" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="19" t="s">
+      <c r="I16" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="J16" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="K16" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="L16" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="M16" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="N16" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="B17" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="C17" s="19" t="s">
+      <c r="B17" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="C17" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="E17" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="F17" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="G17" s="19" t="s">
+      <c r="E17" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="G17" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="H17" s="19" t="s">
+      <c r="H17" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="I17" s="19" t="s">
-        <v>266</v>
-      </c>
-      <c r="J17" s="20" t="s">
-        <v>267</v>
-      </c>
-      <c r="K17" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="L17" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="M17" s="19" t="s">
+      <c r="I17" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="J17" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="K17" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="L17" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="M17" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="N17" s="19" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="19" t="s">
+      <c r="N17" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="B18" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="C18" s="19" t="s">
+      <c r="B18" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="C18" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="D18" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="E18" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="F18" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="G18" s="19" t="s">
+      <c r="E18" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="G18" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="H18" s="19" t="s">
+      <c r="H18" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="I18" s="19" t="s">
-        <v>266</v>
-      </c>
-      <c r="J18" s="20" t="s">
-        <v>267</v>
-      </c>
-      <c r="K18" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="L18" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="M18" s="19" t="s">
+      <c r="I18" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="J18" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="K18" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="L18" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="M18" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="N18" s="19" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="19" t="s">
+      <c r="N18" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="B19" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="C19" s="19" t="s">
+      <c r="B19" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="C19" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="19" t="s">
+      <c r="D19" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="E19" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="F19" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="G19" s="19" t="s">
+      <c r="E19" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="G19" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="H19" s="19" t="s">
+      <c r="H19" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="I19" s="19" t="s">
-        <v>266</v>
-      </c>
-      <c r="J19" s="20" t="s">
-        <v>267</v>
-      </c>
-      <c r="K19" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="L19" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="M19" s="19" t="s">
+      <c r="I19" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="J19" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="K19" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="L19" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="M19" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="N19" s="19" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="19" t="s">
+      <c r="N19" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="B20" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="C20" s="19" t="s">
+      <c r="B20" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="C20" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="19" t="s">
+      <c r="D20" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="E20" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="F20" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="G20" s="19" t="s">
+      <c r="E20" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="G20" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="H20" s="19" t="s">
+      <c r="H20" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="I20" s="19" t="s">
-        <v>266</v>
-      </c>
-      <c r="J20" s="20" t="s">
-        <v>267</v>
-      </c>
-      <c r="K20" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="L20" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="M20" s="19" t="s">
+      <c r="I20" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="J20" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="K20" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="L20" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="M20" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="N20" s="19" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="22" t="s">
+      <c r="N20" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="B21" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="C21" s="19" t="s">
+      <c r="B21" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="C21" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="D21" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="E21" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="F21" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="G21" s="19" t="s">
+      <c r="E21" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="G21" s="17" t="s">
         <v>236</v>
       </c>
-      <c r="H21" s="22" t="s">
+      <c r="H21" s="20" t="s">
         <v>246</v>
       </c>
-      <c r="I21" s="19" t="s">
-        <v>266</v>
-      </c>
-      <c r="J21" s="20" t="s">
-        <v>267</v>
-      </c>
-      <c r="K21" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="L21" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="M21" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="N21" s="19" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="19" t="s">
+      <c r="I21" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="J21" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="K21" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="L21" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="M21" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="N21" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="B22" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="C22" s="19" t="s">
+      <c r="B22" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="C22" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="19" t="s">
+      <c r="D22" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="E22" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="F22" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="G22" s="19" t="s">
+      <c r="E22" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="G22" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="H22" s="19" t="s">
+      <c r="H22" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="I22" s="19" t="s">
-        <v>266</v>
-      </c>
-      <c r="J22" s="20" t="s">
-        <v>267</v>
-      </c>
-      <c r="K22" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="L22" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="M22" s="19" t="s">
+      <c r="I22" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="J22" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="K22" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="L22" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="M22" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="N22" s="19" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="19" t="s">
+      <c r="N22" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="B23" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="C23" s="19" t="s">
+      <c r="B23" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="C23" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="19" t="s">
+      <c r="D23" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="E23" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="F23" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="G23" s="19" t="s">
+      <c r="E23" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="G23" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="H23" s="19" t="s">
+      <c r="H23" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="I23" s="19" t="s">
-        <v>266</v>
-      </c>
-      <c r="J23" s="20" t="s">
-        <v>267</v>
-      </c>
-      <c r="K23" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="L23" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="M23" s="19" t="s">
+      <c r="I23" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="J23" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="K23" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="L23" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="M23" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="N23" s="19" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="22" t="s">
+      <c r="N23" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="B24" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="C24" s="19" t="s">
+      <c r="B24" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="C24" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="22" t="s">
+      <c r="D24" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="E24" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="F24" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="G24" s="19" t="s">
+      <c r="E24" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="G24" s="17" t="s">
         <v>237</v>
       </c>
-      <c r="H24" s="22" t="s">
+      <c r="H24" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="I24" s="19" t="s">
-        <v>266</v>
-      </c>
-      <c r="J24" s="20" t="s">
-        <v>267</v>
-      </c>
-      <c r="K24" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="L24" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="M24" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="N24" s="19" t="s">
+      <c r="I24" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="J24" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="K24" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="L24" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="M24" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="N24" s="17" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2994,135 +3028,135 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:14" s="22" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="22" t="s">
+    <row r="27" spans="1:14" s="20" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="B27" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="C27" s="19" t="s">
+      <c r="B27" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="C27" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D27" s="22" t="s">
+      <c r="D27" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="E27" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="F27" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="G27" s="19" t="s">
+      <c r="E27" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="G27" s="17" t="s">
         <v>238</v>
       </c>
-      <c r="H27" s="22" t="s">
+      <c r="H27" s="20" t="s">
         <v>248</v>
       </c>
-      <c r="I27" s="19" t="s">
-        <v>266</v>
-      </c>
-      <c r="J27" s="20" t="s">
-        <v>267</v>
-      </c>
-      <c r="K27" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="L27" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="M27" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="N27" s="19" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" s="22" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="19" t="s">
+      <c r="I27" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="J27" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="K27" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="L27" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="M27" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="N27" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" s="20" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="B28" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="C28" s="19" t="s">
+      <c r="B28" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="C28" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D28" s="19" t="s">
+      <c r="D28" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="E28" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="F28" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="G28" s="19" t="s">
+      <c r="E28" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F28" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="G28" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="H28" s="19" t="s">
+      <c r="H28" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="I28" s="19" t="s">
-        <v>266</v>
-      </c>
-      <c r="J28" s="20" t="s">
-        <v>267</v>
-      </c>
-      <c r="K28" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="L28" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="M28" s="19" t="s">
+      <c r="I28" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="J28" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="K28" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="L28" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="M28" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="N28" s="19" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" s="22" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="19" t="s">
+      <c r="N28" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" s="20" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="B29" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="C29" s="19" t="s">
+      <c r="B29" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="C29" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D29" s="19" t="s">
+      <c r="D29" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="E29" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="F29" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="G29" s="19" t="s">
+      <c r="E29" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F29" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="G29" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="H29" s="19" t="s">
+      <c r="H29" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="I29" s="19" t="s">
-        <v>266</v>
-      </c>
-      <c r="J29" s="20" t="s">
-        <v>267</v>
-      </c>
-      <c r="K29" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="L29" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="M29" s="19" t="s">
+      <c r="I29" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="J29" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="K29" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="L29" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="M29" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="N29" s="19" t="s">
+      <c r="N29" s="17" t="s">
         <v>55</v>
       </c>
     </row>
@@ -3214,47 +3248,47 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="22" t="s">
+    <row r="32" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="B32" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="C32" s="19" t="s">
+      <c r="B32" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="C32" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D32" s="22" t="s">
+      <c r="D32" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="E32" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="F32" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="G32" s="19" t="s">
+      <c r="E32" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F32" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="G32" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="H32" s="22" t="s">
+      <c r="H32" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="I32" s="19" t="s">
-        <v>266</v>
-      </c>
-      <c r="J32" s="20" t="s">
-        <v>267</v>
-      </c>
-      <c r="K32" s="21" t="s">
+      <c r="I32" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="J32" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="K32" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="L32" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="M32" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="N32" s="19" t="s">
+      <c r="L32" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="M32" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="N32" s="17" t="s">
         <v>55</v>
       </c>
     </row>
@@ -3346,179 +3380,179 @@
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="22" t="s">
+    <row r="35" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="B35" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="C35" s="19" t="s">
+      <c r="B35" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="C35" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D35" s="22" t="s">
+      <c r="D35" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="E35" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="F35" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="G35" s="19" t="s">
+      <c r="E35" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F35" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="G35" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="H35" s="22" t="s">
+      <c r="H35" s="20" t="s">
         <v>250</v>
       </c>
-      <c r="I35" s="19" t="s">
-        <v>266</v>
-      </c>
-      <c r="J35" s="20" t="s">
-        <v>267</v>
-      </c>
-      <c r="K35" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="L35" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="M35" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="N35" s="19" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="19" t="s">
+      <c r="I35" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="J35" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="K35" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="L35" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="M35" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="N35" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="B36" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="C36" s="19" t="s">
+      <c r="B36" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="C36" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D36" s="19" t="s">
+      <c r="D36" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="E36" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="F36" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="G36" s="19" t="s">
+      <c r="E36" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F36" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="G36" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="H36" s="19" t="s">
+      <c r="H36" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="I36" s="19" t="s">
-        <v>266</v>
-      </c>
-      <c r="J36" s="20" t="s">
-        <v>267</v>
-      </c>
-      <c r="K36" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="L36" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="M36" s="19" t="s">
+      <c r="I36" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="J36" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="K36" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="L36" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="M36" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="N36" s="19" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="19" t="s">
+      <c r="N36" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="B37" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="C37" s="19" t="s">
+      <c r="B37" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="C37" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D37" s="19" t="s">
+      <c r="D37" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="E37" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="F37" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="G37" s="19" t="s">
+      <c r="E37" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F37" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="G37" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="H37" s="19" t="s">
+      <c r="H37" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="I37" s="19" t="s">
-        <v>266</v>
-      </c>
-      <c r="J37" s="20" t="s">
-        <v>267</v>
-      </c>
-      <c r="K37" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="L37" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="M37" s="19" t="s">
+      <c r="I37" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="J37" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="K37" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="L37" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="M37" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="N37" s="19" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="22" t="s">
+      <c r="N37" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="B38" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="C38" s="19" t="s">
+      <c r="B38" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="C38" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D38" s="22" t="s">
+      <c r="D38" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="E38" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="F38" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="G38" s="19" t="s">
+      <c r="E38" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F38" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="G38" s="17" t="s">
         <v>241</v>
       </c>
-      <c r="H38" s="22" t="s">
+      <c r="H38" s="20" t="s">
         <v>251</v>
       </c>
-      <c r="I38" s="19" t="s">
-        <v>266</v>
-      </c>
-      <c r="J38" s="20" t="s">
-        <v>267</v>
-      </c>
-      <c r="K38" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="L38" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="M38" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="N38" s="19" t="s">
+      <c r="I38" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="J38" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="K38" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="L38" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="M38" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="N38" s="17" t="s">
         <v>55</v>
       </c>
     </row>
@@ -4314,47 +4348,47 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="19" t="s">
+    <row r="57" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="17" t="s">
         <v>253</v>
       </c>
-      <c r="B57" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="C57" s="19" t="s">
+      <c r="B57" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="C57" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D57" s="22" t="s">
+      <c r="D57" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="E57" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="F57" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="G57" s="22" t="s">
+      <c r="E57" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F57" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="G57" s="20" t="s">
         <v>226</v>
       </c>
-      <c r="H57" s="22" t="s">
+      <c r="H57" s="20" t="s">
         <v>227</v>
       </c>
-      <c r="I57" s="19" t="s">
-        <v>266</v>
-      </c>
-      <c r="J57" s="20" t="s">
-        <v>267</v>
-      </c>
-      <c r="K57" s="21" t="s">
+      <c r="I57" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="J57" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="K57" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="L57" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="M57" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="N57" s="19" t="s">
+      <c r="L57" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="M57" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="N57" s="17" t="s">
         <v>55</v>
       </c>
     </row>
@@ -4402,91 +4436,91 @@
         <v>55</v>
       </c>
     </row>
-    <row r="59" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="15" t="s">
+    <row r="59" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="13" t="s">
         <v>255</v>
       </c>
-      <c r="B59" s="15" t="s">
+      <c r="B59" s="13" t="s">
         <v>265</v>
       </c>
       <c r="C59" s="11" t="s">
         <v>276</v>
       </c>
-      <c r="D59" s="14" t="s">
+      <c r="D59" s="12" t="s">
         <v>277</v>
       </c>
-      <c r="E59" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="F59" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="G59" s="15" t="s">
+      <c r="E59" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F59" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="G59" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H59" s="15" t="s">
+      <c r="H59" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="I59" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="J59" s="16" t="s">
-        <v>267</v>
-      </c>
-      <c r="K59" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="L59" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="M59" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="N59" s="15" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="15" t="s">
+      <c r="I59" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="J59" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="K59" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="L59" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="M59" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="N59" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="B60" s="15" t="s">
+      <c r="B60" s="13" t="s">
         <v>265</v>
       </c>
       <c r="C60" s="11" t="s">
         <v>276</v>
       </c>
-      <c r="D60" s="14" t="s">
+      <c r="D60" s="12" t="s">
         <v>277</v>
       </c>
-      <c r="E60" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="F60" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="G60" s="15" t="s">
+      <c r="E60" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F60" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="G60" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="H60" s="15" t="s">
+      <c r="H60" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="I60" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="J60" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="K60" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="L60" s="17" t="s">
+      <c r="I60" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="J60" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="K60" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="L60" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="M60" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="N60" s="15" t="s">
+      <c r="M60" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="N60" s="13" t="s">
         <v>55</v>
       </c>
     </row>
@@ -5018,47 +5052,47 @@
         <v>55</v>
       </c>
     </row>
-    <row r="73" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="22" t="s">
+    <row r="73" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="B73" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="C73" s="19" t="s">
+      <c r="B73" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="C73" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D73" s="22" t="s">
+      <c r="D73" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="E73" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="F73" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="G73" s="22" t="s">
+      <c r="E73" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F73" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="G73" s="20" t="s">
         <v>228</v>
       </c>
-      <c r="H73" s="22" t="s">
+      <c r="H73" s="20" t="s">
         <v>229</v>
       </c>
-      <c r="I73" s="19" t="s">
-        <v>266</v>
-      </c>
-      <c r="J73" s="20" t="s">
-        <v>267</v>
-      </c>
-      <c r="K73" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="L73" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="M73" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="N73" s="19" t="s">
+      <c r="I73" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="J73" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="K73" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="L73" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="M73" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="N73" s="17" t="s">
         <v>55</v>
       </c>
     </row>
@@ -5678,47 +5712,47 @@
         <v>55</v>
       </c>
     </row>
-    <row r="88" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="22" t="s">
+    <row r="88" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="20" t="s">
         <v>222</v>
       </c>
-      <c r="B88" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="C88" s="19" t="s">
+      <c r="B88" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="C88" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D88" s="22" t="s">
+      <c r="D88" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="E88" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="F88" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="G88" s="22" t="s">
+      <c r="E88" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F88" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="G88" s="20" t="s">
         <v>230</v>
       </c>
-      <c r="H88" s="22" t="s">
+      <c r="H88" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="I88" s="19" t="s">
-        <v>266</v>
-      </c>
-      <c r="J88" s="20" t="s">
-        <v>267</v>
-      </c>
-      <c r="K88" s="21" t="s">
+      <c r="I88" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="J88" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="K88" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="L88" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="M88" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="N88" s="19" t="s">
+      <c r="L88" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="M88" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="N88" s="17" t="s">
         <v>55</v>
       </c>
     </row>
@@ -5854,443 +5888,443 @@
         <v>55</v>
       </c>
     </row>
-    <row r="92" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="11" t="s">
+    <row r="92" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="28" t="s">
         <v>268</v>
       </c>
-      <c r="B92" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="C92" s="11" t="s">
+      <c r="B92" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="C92" s="28" t="s">
         <v>276</v>
       </c>
-      <c r="D92" s="14" t="s">
+      <c r="D92" s="30" t="s">
         <v>277</v>
       </c>
-      <c r="E92" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F92" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="G92" s="15" t="s">
+      <c r="E92" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="F92" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="G92" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="H92" s="15" t="s">
+      <c r="H92" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="I92" s="12" t="s">
-        <v>266</v>
-      </c>
-      <c r="J92" s="14" t="s">
-        <v>267</v>
-      </c>
-      <c r="K92" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="L92" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="M92" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="N92" s="12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="24" t="s">
+      <c r="I92" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="J92" s="30" t="s">
+        <v>267</v>
+      </c>
+      <c r="K92" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="L92" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="M92" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="N92" s="29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="21" t="s">
         <v>269</v>
       </c>
-      <c r="B93" s="25" t="s">
-        <v>265</v>
-      </c>
-      <c r="C93" s="25" t="s">
+      <c r="B93" s="22" t="s">
+        <v>265</v>
+      </c>
+      <c r="C93" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="D93" s="25" t="s">
+      <c r="D93" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="E93" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="F93" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="G93" s="25" t="s">
+      <c r="E93" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="F93" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="G93" s="22" t="s">
         <v>278</v>
       </c>
-      <c r="H93" s="25" t="s">
+      <c r="H93" s="22" t="s">
         <v>279</v>
       </c>
-      <c r="I93" s="25" t="s">
-        <v>266</v>
-      </c>
-      <c r="J93" s="26" t="s">
-        <v>267</v>
-      </c>
-      <c r="K93" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="L93" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="M93" s="24" t="s">
+      <c r="I93" s="22" t="s">
+        <v>266</v>
+      </c>
+      <c r="J93" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="K93" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="L93" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="M93" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="N93" s="25" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="94" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="11" t="s">
+      <c r="N93" s="22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="21" t="s">
         <v>270</v>
       </c>
-      <c r="B94" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="C94" s="12" t="s">
+      <c r="B94" s="22" t="s">
+        <v>265</v>
+      </c>
+      <c r="C94" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="D94" s="12" t="s">
+      <c r="D94" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="E94" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F94" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="G94" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="H94" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="I94" s="12" t="s">
-        <v>266</v>
-      </c>
-      <c r="J94" s="14" t="s">
-        <v>267</v>
-      </c>
-      <c r="K94" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="L94" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="M94" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="N94" s="12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="11" t="s">
+      <c r="E94" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="F94" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="G94" s="22" t="s">
+        <v>278</v>
+      </c>
+      <c r="H94" s="22" t="s">
+        <v>279</v>
+      </c>
+      <c r="I94" s="22" t="s">
+        <v>266</v>
+      </c>
+      <c r="J94" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="K94" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="L94" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="M94" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="N94" s="22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="28" t="s">
         <v>271</v>
       </c>
-      <c r="B95" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="C95" s="12" t="s">
+      <c r="B95" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="C95" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="D95" s="12" t="s">
+      <c r="D95" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="E95" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F95" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="G95" s="11" t="s">
+      <c r="E95" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="F95" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="G95" s="28" t="s">
         <v>230</v>
       </c>
-      <c r="H95" s="11" t="s">
+      <c r="H95" s="28" t="s">
         <v>231</v>
       </c>
-      <c r="I95" s="12" t="s">
-        <v>266</v>
-      </c>
-      <c r="J95" s="14" t="s">
-        <v>267</v>
-      </c>
-      <c r="K95" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="L95" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="M95" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="N95" s="12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="96" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="11" t="s">
+      <c r="I95" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="J95" s="30" t="s">
+        <v>267</v>
+      </c>
+      <c r="K95" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="L95" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="M95" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="N95" s="29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="28" t="s">
         <v>272</v>
       </c>
-      <c r="B96" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="C96" s="12" t="s">
+      <c r="B96" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="C96" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="D96" s="12" t="s">
+      <c r="D96" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="E96" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F96" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="G96" s="11" t="s">
+      <c r="E96" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="F96" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="G96" s="28" t="s">
         <v>230</v>
       </c>
-      <c r="H96" s="11" t="s">
+      <c r="H96" s="28" t="s">
         <v>231</v>
       </c>
-      <c r="I96" s="12" t="s">
-        <v>266</v>
-      </c>
-      <c r="J96" s="14" t="s">
-        <v>267</v>
-      </c>
-      <c r="K96" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="L96" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="M96" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="N96" s="12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="97" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="11" t="s">
+      <c r="I96" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="J96" s="30" t="s">
+        <v>267</v>
+      </c>
+      <c r="K96" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="L96" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="M96" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="N96" s="29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" s="21" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A97" s="21" t="s">
         <v>273</v>
       </c>
-      <c r="B97" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="C97" s="12" t="s">
+      <c r="B97" s="22" t="s">
+        <v>265</v>
+      </c>
+      <c r="C97" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D97" s="12" t="s">
+      <c r="D97" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="E97" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F97" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="G97" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="H97" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="I97" s="12" t="s">
-        <v>266</v>
-      </c>
-      <c r="J97" s="14" t="s">
-        <v>267</v>
-      </c>
-      <c r="K97" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="L97" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="M97" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="N97" s="12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="11" t="s">
+      <c r="E97" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="F97" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="G97" s="25" t="s">
+        <v>280</v>
+      </c>
+      <c r="H97" s="25" t="s">
+        <v>281</v>
+      </c>
+      <c r="I97" s="22" t="s">
+        <v>266</v>
+      </c>
+      <c r="J97" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="K97" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="L97" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="M97" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="N97" s="22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" s="21" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A98" s="21" t="s">
         <v>274</v>
       </c>
-      <c r="B98" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="C98" s="12" t="s">
+      <c r="B98" s="22" t="s">
+        <v>265</v>
+      </c>
+      <c r="C98" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D98" s="12" t="s">
+      <c r="D98" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="E98" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F98" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="G98" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="H98" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="I98" s="12" t="s">
-        <v>266</v>
-      </c>
-      <c r="J98" s="14" t="s">
-        <v>267</v>
-      </c>
-      <c r="K98" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="L98" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="M98" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="N98" s="12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="11" t="s">
+      <c r="E98" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="F98" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="G98" s="25" t="s">
+        <v>280</v>
+      </c>
+      <c r="H98" s="25" t="s">
+        <v>281</v>
+      </c>
+      <c r="I98" s="22" t="s">
+        <v>266</v>
+      </c>
+      <c r="J98" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="K98" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="L98" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="M98" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="N98" s="22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" s="21" customFormat="1" ht="153" x14ac:dyDescent="0.2">
+      <c r="A99" s="21" t="s">
         <v>275</v>
       </c>
-      <c r="B99" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="C99" s="12" t="s">
+      <c r="B99" s="22" t="s">
+        <v>265</v>
+      </c>
+      <c r="C99" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D99" s="11" t="s">
+      <c r="D99" s="21" t="s">
         <v>225</v>
       </c>
-      <c r="E99" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F99" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="G99" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="H99" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="I99" s="12" t="s">
-        <v>266</v>
-      </c>
-      <c r="J99" s="14" t="s">
-        <v>267</v>
-      </c>
-      <c r="K99" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="L99" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="M99" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="N99" s="12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="100" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="11" t="s">
+      <c r="E99" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="F99" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="G99" s="26" t="s">
+        <v>282</v>
+      </c>
+      <c r="H99" s="26" t="s">
+        <v>283</v>
+      </c>
+      <c r="I99" s="22" t="s">
+        <v>266</v>
+      </c>
+      <c r="J99" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="K99" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="L99" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="M99" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="N99" s="22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" s="21" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A100" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="B100" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="C100" s="12" t="s">
+      <c r="B100" s="22" t="s">
+        <v>265</v>
+      </c>
+      <c r="C100" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D100" s="12" t="s">
+      <c r="D100" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="E100" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F100" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="G100" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="H100" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="I100" s="12" t="s">
-        <v>266</v>
-      </c>
-      <c r="J100" s="14" t="s">
-        <v>267</v>
-      </c>
-      <c r="K100" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="L100" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="M100" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="N100" s="12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="101" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="11" t="s">
+      <c r="E100" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="F100" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="G100" s="27" t="s">
+        <v>284</v>
+      </c>
+      <c r="H100" s="25" t="s">
+        <v>285</v>
+      </c>
+      <c r="I100" s="22" t="s">
+        <v>266</v>
+      </c>
+      <c r="J100" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="K100" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="L100" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="M100" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="N100" s="22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" s="21" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A101" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="B101" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="C101" s="12" t="s">
+      <c r="B101" s="22" t="s">
+        <v>265</v>
+      </c>
+      <c r="C101" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D101" s="12" t="s">
+      <c r="D101" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="E101" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F101" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="G101" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="H101" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="I101" s="12" t="s">
-        <v>266</v>
-      </c>
-      <c r="J101" s="14" t="s">
-        <v>267</v>
-      </c>
-      <c r="K101" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="L101" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="M101" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="N101" s="12" t="s">
+      <c r="E101" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="F101" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="G101" s="27" t="s">
+        <v>284</v>
+      </c>
+      <c r="H101" s="25" t="s">
+        <v>285</v>
+      </c>
+      <c r="I101" s="22" t="s">
+        <v>266</v>
+      </c>
+      <c r="J101" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="K101" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="L101" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="M101" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="N101" s="22" t="s">
         <v>55</v>
       </c>
     </row>

--- a/data-raw/snu_x_im_distribution_configuration/23Tto24TMap.xlsx
+++ b/data-raw/snu_x_im_distribution_configuration/23Tto24TMap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/faustolopezbao/Documents/GitHub/data-pack-commons/data-raw/snu_x_im_distribution_configuration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{81DFC993-7113-534A-B18A-3BDA55AB6D79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{08C34B0A-7808-104E-BAB4-1821F7A48D1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36060" yWindow="1040" windowWidth="37520" windowHeight="18980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2700" yWindow="960" windowWidth="30120" windowHeight="18980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Map" sheetId="1" r:id="rId1"/>
@@ -878,12 +878,6 @@
     <t>zzNslrLngKi;xds87opkbem</t>
   </si>
   <si>
-    <t>OtherMod/Age Aggregated/Sex/Result;MobileMod/Age/Sex/Result</t>
-  </si>
-  <si>
-    <t>cYRowDkVEpl;Qr9eyrVLHSg</t>
-  </si>
-  <si>
     <t>IndexMod/Age/Sex/HIVStatus;Index/Age/Sex/HIVStatus;Emergency Ward/Age/Sex/HIVStatus;Inpat/Age/Sex/HIVStatus;MobileMod/Age/Sex/HIVStatus;OtherMod/Age/Sex/HIVStatus;OtherPITC/Age/Sex/HIVStatus;PMTCT PostANC/Age/Sex/HIVStatus;STI Clinic/Age/Sex/HIVStatus;VCT/Age/Sex/HIVStatus;KeyPop/HIVStatus;PMTCT ANC/Age/Sex/HIVStatus;TBClinic/Age/Sex/HIVStatus;VMMC/Age/Sex/HIVStatus</t>
   </si>
   <si>
@@ -894,6 +888,12 @@
   </si>
   <si>
     <t>p6j1mfN4rjP;iPfNX6Ylqp1;E3VaSq4JOzd;dcaYk7TXk4E;iFlQUEQcsfZ;jEpJPF6IVVB</t>
+  </si>
+  <si>
+    <t>OtherMod/Age/Sex/Result;MobileMod/Age/Sex/Result</t>
+  </si>
+  <si>
+    <t>Lhk8mjk6Yk2;Qr9eyrVLHSg</t>
   </si>
 </sst>
 </file>
@@ -1860,9 +1860,9 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G99" sqref="G99"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="152" zoomScaleNormal="152" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H98" sqref="H98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6108,7 +6108,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="97" spans="1:14" s="21" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:14" s="21" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="21" t="s">
         <v>273</v>
       </c>
@@ -6128,10 +6128,10 @@
         <v>76</v>
       </c>
       <c r="G97" s="25" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="H97" s="25" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="I97" s="22" t="s">
         <v>266</v>
@@ -6152,7 +6152,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="98" spans="1:14" s="21" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:14" s="21" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="21" t="s">
         <v>274</v>
       </c>
@@ -6172,10 +6172,10 @@
         <v>76</v>
       </c>
       <c r="G98" s="25" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="H98" s="25" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="I98" s="22" t="s">
         <v>266</v>
@@ -6216,10 +6216,10 @@
         <v>76</v>
       </c>
       <c r="G99" s="26" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H99" s="26" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I99" s="22" t="s">
         <v>266</v>
@@ -6260,10 +6260,10 @@
         <v>76</v>
       </c>
       <c r="G100" s="27" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H100" s="25" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I100" s="22" t="s">
         <v>266</v>
@@ -6304,10 +6304,10 @@
         <v>76</v>
       </c>
       <c r="G101" s="27" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H101" s="25" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I101" s="22" t="s">
         <v>266</v>

--- a/data-raw/snu_x_im_distribution_configuration/23Tto24TMap.xlsx
+++ b/data-raw/snu_x_im_distribution_configuration/23Tto24TMap.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/faustolopezbao/Documents/GitHub/data-pack-commons/data-raw/snu_x_im_distribution_configuration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{08C34B0A-7808-104E-BAB4-1821F7A48D1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{B2CDB35A-281D-A94F-871B-6D9DC389D6E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2700" yWindow="960" windowWidth="30120" windowHeight="18980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37580" yWindow="1080" windowWidth="30120" windowHeight="18980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Map" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Map!$A$1:$N$91</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Map!$A$1:$N$89</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="1414" uniqueCount="286">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="1386" uniqueCount="284">
   <si>
     <t>CXCA_SCRN</t>
   </si>
@@ -149,9 +149,6 @@
     <t>MobileMod/Age/Sex/Result</t>
   </si>
   <si>
-    <t>OtherPITC/Age/Sex/Result</t>
-  </si>
-  <si>
     <t>No Disagg</t>
   </si>
   <si>
@@ -374,9 +371,6 @@
     <t>Lhk8mjk6Yk2</t>
   </si>
   <si>
-    <t>E3VaSq4JOzd</t>
-  </si>
-  <si>
     <t>iFlQUEQcsfZ</t>
   </si>
   <si>
@@ -878,12 +872,6 @@
     <t>zzNslrLngKi;xds87opkbem</t>
   </si>
   <si>
-    <t>IndexMod/Age/Sex/HIVStatus;Index/Age/Sex/HIVStatus;Emergency Ward/Age/Sex/HIVStatus;Inpat/Age/Sex/HIVStatus;MobileMod/Age/Sex/HIVStatus;OtherMod/Age/Sex/HIVStatus;OtherPITC/Age/Sex/HIVStatus;PMTCT PostANC/Age/Sex/HIVStatus;STI Clinic/Age/Sex/HIVStatus;VCT/Age/Sex/HIVStatus;KeyPop/HIVStatus;PMTCT ANC/Age/Sex/HIVStatus;TBClinic/Age/Sex/HIVStatus;VMMC/Age/Sex/HIVStatus</t>
-  </si>
-  <si>
-    <t>cnlEjFkl5UZ;Tpc0Ztxae9H;lJQyt3PjrVy;CEcYYCkTncR;EVwSAwSEfTg;G6QgzwFMWSP;Y3aCLwI6IU3;c60fuhOWPu4;WGV3YTTqrZ3;vYZLPZAuv8A;oLVJbdHt6ou;FazeYvGkStI;PcsTdqSq0Id;mCtbMQYjHjj</t>
-  </si>
-  <si>
     <t>Inpat/Age/Sex/Result;Emergency Ward/Age/Sex/Result;OtherPITC/Age/Sex/Result;VCT/Age/Sex/Result;Pediatric/Age/Sex/Result;Malnutrition/Age/Sex/Result</t>
   </si>
   <si>
@@ -894,6 +882,12 @@
   </si>
   <si>
     <t>Lhk8mjk6Yk2;Qr9eyrVLHSg</t>
+  </si>
+  <si>
+    <t>cnlEjFkl5UZ;Tpc0Ztxae9H;lJQyt3PjrVy;CEcYYCkTncR;EVwSAwSEfTg;G6QgzwFMWSP;Y3aCLwI6IU3;c60fuhOWPu4;WGV3YTTqrZ3;vYZLPZAuv8A;FazeYvGkStI;PcsTdqSq0Id;mCtbMQYjHjj</t>
+  </si>
+  <si>
+    <t>IndexMod/Age/Sex/HIVStatus;Index/Age/Sex/HIVStatus;Emergency Ward/Age/Sex/HIVStatus;Inpat/Age/Sex/HIVStatus;MobileMod/Age/Sex/HIVStatus;OtherMod/Age/Sex/HIVStatus;OtherPITC/Age/Sex/HIVStatus;PMTCT PostANC/Age/Sex/HIVStatus;STI Clinic/Age/Sex/HIVStatus;VCT/Age/Sex/HIVStatus;PMTCT ANC/Age/Sex/HIVStatus;TBClinic/Age/Sex/HIVStatus;VMMC/Age/Sex/HIVStatus</t>
   </si>
 </sst>
 </file>
@@ -1858,11 +1852,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:N99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="152" zoomScaleNormal="152" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H98" sqref="H98"/>
+    <sheetView tabSelected="1" zoomScale="111" zoomScaleNormal="111" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1886,75 +1880,75 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="J1" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="K1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J2" t="s">
         <v>2</v>
@@ -1966,39 +1960,39 @@
         <v>2</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J3" t="s">
         <v>2</v>
@@ -2010,133 +2004,133 @@
         <v>2</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>35</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J4" s="18" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K4" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L4" s="19" t="s">
         <v>2</v>
       </c>
       <c r="M4" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N4" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>35</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I5" s="17" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J5" s="18" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K5" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L5" s="19" t="s">
         <v>2</v>
       </c>
       <c r="M5" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N5" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E6" s="17" t="s">
         <v>35</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H6" s="20" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I6" s="17" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J6" s="18" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K6" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L6" s="19" t="s">
         <v>2</v>
@@ -2145,130 +2139,130 @@
         <v>2</v>
       </c>
       <c r="N6" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E7" s="17" t="s">
         <v>35</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I7" s="17" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J7" s="18" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K7" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L7" s="19" t="s">
         <v>2</v>
       </c>
       <c r="M7" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N7" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="17" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E8" s="17" t="s">
         <v>35</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I8" s="17" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J8" s="18" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K8" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L8" s="19" t="s">
         <v>2</v>
       </c>
       <c r="M8" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N8" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E9" s="17" t="s">
         <v>35</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H9" s="20" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="I9" s="17" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J9" s="18" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K9" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L9" s="19" t="s">
         <v>2</v>
@@ -2277,42 +2271,42 @@
         <v>2</v>
       </c>
       <c r="N9" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J10" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>2</v>
@@ -2321,130 +2315,130 @@
         <v>2</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C11" s="17" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E11" s="17" t="s">
         <v>35</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I11" s="17" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J11" s="18" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K11" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L11" s="19" t="s">
         <v>2</v>
       </c>
       <c r="M11" s="17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N11" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="17" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C12" s="17" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>35</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J12" s="18" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K12" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L12" s="19" t="s">
         <v>2</v>
       </c>
       <c r="M12" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N12" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="20" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C13" s="17" t="s">
         <v>5</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E13" s="17" t="s">
         <v>35</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H13" s="20" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I13" s="17" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J13" s="18" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K13" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L13" s="19" t="s">
         <v>2</v>
@@ -2453,130 +2447,130 @@
         <v>2</v>
       </c>
       <c r="N13" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C14" s="17" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E14" s="17" t="s">
         <v>35</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I14" s="17" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J14" s="18" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K14" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L14" s="19" t="s">
         <v>2</v>
       </c>
       <c r="M14" s="17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N14" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C15" s="17" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E15" s="17" t="s">
         <v>35</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I15" s="17" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J15" s="18" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K15" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L15" s="19" t="s">
         <v>2</v>
       </c>
       <c r="M15" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N15" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C16" s="17" t="s">
         <v>5</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E16" s="17" t="s">
         <v>35</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H16" s="20" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="I16" s="17" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J16" s="18" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K16" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L16" s="19" t="s">
         <v>2</v>
@@ -2585,218 +2579,218 @@
         <v>2</v>
       </c>
       <c r="N16" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="17" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C17" s="17" t="s">
         <v>7</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E17" s="17" t="s">
         <v>35</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H17" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I17" s="17" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J17" s="18" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K17" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L17" s="19" t="s">
         <v>2</v>
       </c>
       <c r="M17" s="17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N17" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="17" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C18" s="17" t="s">
         <v>7</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E18" s="17" t="s">
         <v>35</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H18" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I18" s="17" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J18" s="18" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K18" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L18" s="19" t="s">
         <v>2</v>
       </c>
       <c r="M18" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N18" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="17" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C19" s="17" t="s">
         <v>7</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E19" s="17" t="s">
         <v>35</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G19" s="17" t="s">
         <v>36</v>
       </c>
       <c r="H19" s="17" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I19" s="17" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J19" s="18" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K19" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L19" s="19" t="s">
         <v>2</v>
       </c>
       <c r="M19" s="17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N19" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="17" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C20" s="17" t="s">
         <v>7</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E20" s="17" t="s">
         <v>35</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G20" s="17" t="s">
         <v>36</v>
       </c>
       <c r="H20" s="17" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I20" s="17" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J20" s="18" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K20" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L20" s="19" t="s">
         <v>2</v>
       </c>
       <c r="M20" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N20" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="20" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C21" s="17" t="s">
         <v>5</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E21" s="17" t="s">
         <v>35</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H21" s="20" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I21" s="17" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J21" s="18" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K21" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L21" s="19" t="s">
         <v>2</v>
@@ -2805,403 +2799,403 @@
         <v>2</v>
       </c>
       <c r="N21" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="17" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C22" s="17" t="s">
         <v>7</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E22" s="17" t="s">
         <v>35</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G22" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H22" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I22" s="17" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J22" s="18" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K22" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L22" s="19" t="s">
         <v>2</v>
       </c>
       <c r="M22" s="17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N22" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="17" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C23" s="17" t="s">
         <v>7</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E23" s="17" t="s">
         <v>35</v>
       </c>
       <c r="F23" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G23" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H23" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I23" s="17" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J23" s="18" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K23" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L23" s="19" t="s">
         <v>2</v>
       </c>
       <c r="M23" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N23" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="20" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C24" s="17" t="s">
         <v>5</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E24" s="17" t="s">
         <v>35</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G24" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="H24" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="I24" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="J24" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="K24" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="L24" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="M24" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="N24" s="17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" s="20" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="G25" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="H25" s="20" t="s">
+        <v>246</v>
+      </c>
+      <c r="I25" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="J25" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="K25" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="L25" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="M25" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="N25" s="17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" s="20" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="G26" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="H26" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="I26" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="J26" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="K26" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="L26" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="M26" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="N26" s="17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" s="20" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="G27" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="H27" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="I27" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="J27" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="K27" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="L27" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="M27" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="N27" s="17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="J28" t="s">
+        <v>265</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="J29" t="s">
+        <v>265</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F30" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="G30" s="17" t="s">
         <v>237</v>
       </c>
-      <c r="H24" s="20" t="s">
+      <c r="H30" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="I24" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="J24" s="18" t="s">
-        <v>267</v>
-      </c>
-      <c r="K24" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="L24" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="M24" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="N24" s="17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="J25" t="s">
-        <v>267</v>
-      </c>
-      <c r="K25" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="L25" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="M25" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="N25" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="J26" t="s">
-        <v>267</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="M26" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="N26" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" s="20" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="20" t="s">
-        <v>166</v>
-      </c>
-      <c r="B27" s="17" t="s">
-        <v>265</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D27" s="20" t="s">
-        <v>225</v>
-      </c>
-      <c r="E27" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="F27" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="G27" s="17" t="s">
-        <v>238</v>
-      </c>
-      <c r="H27" s="20" t="s">
-        <v>248</v>
-      </c>
-      <c r="I27" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="J27" s="18" t="s">
-        <v>267</v>
-      </c>
-      <c r="K27" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="L27" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="M27" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="N27" s="17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" s="20" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="17" t="s">
-        <v>167</v>
-      </c>
-      <c r="B28" s="17" t="s">
-        <v>265</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="E28" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="F28" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="G28" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="H28" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="I28" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="J28" s="18" t="s">
-        <v>267</v>
-      </c>
-      <c r="K28" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="L28" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="M28" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="N28" s="17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" s="20" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="B29" s="17" t="s">
-        <v>265</v>
-      </c>
-      <c r="C29" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="E29" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="F29" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="G29" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="H29" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="I29" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="J29" s="18" t="s">
-        <v>267</v>
-      </c>
-      <c r="K29" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="L29" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="M29" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="N29" s="17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="J30" t="s">
-        <v>267</v>
-      </c>
-      <c r="K30" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="L30" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="N30" s="1" t="s">
-        <v>55</v>
+      <c r="I30" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="J30" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="K30" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="L30" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="M30" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="N30" s="17" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
@@ -3209,527 +3203,527 @@
         <v>170</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D31" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="J31" t="s">
+        <v>265</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="J32" t="s">
+        <v>265</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F33" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="G33" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="H33" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="I33" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="J33" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="K33" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="L33" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="M33" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="N33" s="17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F34" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="G34" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="I34" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="J34" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="K34" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="L34" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="M34" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="N34" s="17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F35" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="G35" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="I35" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="J35" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="K35" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="L35" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="M35" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="N35" s="17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="E36" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F36" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="G36" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="H36" s="20" t="s">
+        <v>249</v>
+      </c>
+      <c r="I36" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="J36" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="K36" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="L36" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="M36" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="N36" s="17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="J37" t="s">
+        <v>2</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="J38" t="s">
+        <v>2</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L38" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="J39" t="s">
+        <v>2</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="J40" t="s">
+        <v>2</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L40" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="M40" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="J31" t="s">
-        <v>267</v>
-      </c>
-      <c r="K31" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="L31" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="M31" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="N31" s="1" t="s">
+      <c r="E41" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="J41" t="s">
+        <v>2</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="J42" t="s">
+        <v>2</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L42" s="3" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="B32" s="17" t="s">
-        <v>265</v>
-      </c>
-      <c r="C32" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D32" s="20" t="s">
-        <v>225</v>
-      </c>
-      <c r="E32" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="F32" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="G32" s="17" t="s">
-        <v>239</v>
-      </c>
-      <c r="H32" s="20" t="s">
-        <v>249</v>
-      </c>
-      <c r="I32" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="J32" s="18" t="s">
-        <v>267</v>
-      </c>
-      <c r="K32" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="L32" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="M32" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="N32" s="17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="J33" t="s">
-        <v>267</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="L33" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="M33" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="N33" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="J34" t="s">
-        <v>267</v>
-      </c>
-      <c r="K34" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="L34" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="M34" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="N34" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="20" t="s">
-        <v>174</v>
-      </c>
-      <c r="B35" s="17" t="s">
-        <v>265</v>
-      </c>
-      <c r="C35" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D35" s="20" t="s">
-        <v>225</v>
-      </c>
-      <c r="E35" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="F35" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="G35" s="17" t="s">
-        <v>240</v>
-      </c>
-      <c r="H35" s="20" t="s">
-        <v>250</v>
-      </c>
-      <c r="I35" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="J35" s="18" t="s">
-        <v>267</v>
-      </c>
-      <c r="K35" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="L35" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="M35" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="N35" s="17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="B36" s="17" t="s">
-        <v>265</v>
-      </c>
-      <c r="C36" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D36" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="E36" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="F36" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="G36" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="H36" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="I36" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="J36" s="18" t="s">
-        <v>267</v>
-      </c>
-      <c r="K36" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="L36" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="M36" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="N36" s="17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="B37" s="17" t="s">
-        <v>265</v>
-      </c>
-      <c r="C37" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D37" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="E37" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="F37" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="G37" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="H37" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="I37" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="J37" s="18" t="s">
-        <v>267</v>
-      </c>
-      <c r="K37" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="L37" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="M37" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="N37" s="17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="B38" s="17" t="s">
-        <v>265</v>
-      </c>
-      <c r="C38" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D38" s="20" t="s">
-        <v>225</v>
-      </c>
-      <c r="E38" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="F38" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="G38" s="17" t="s">
-        <v>241</v>
-      </c>
-      <c r="H38" s="20" t="s">
-        <v>251</v>
-      </c>
-      <c r="I38" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="J38" s="18" t="s">
-        <v>267</v>
-      </c>
-      <c r="K38" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="L38" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="M38" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="N38" s="17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="J39" t="s">
-        <v>2</v>
-      </c>
-      <c r="K39" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="L39" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="M39" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="N39" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="J40" t="s">
-        <v>2</v>
-      </c>
-      <c r="K40" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="L40" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="M40" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="N40" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="J41" t="s">
-        <v>2</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="M41" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N41" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="J42" t="s">
-        <v>2</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="L42" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="M42" s="2" t="s">
+      <c r="M42" s="1" t="s">
         <v>2</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
@@ -3737,34 +3731,34 @@
         <v>182</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J43" t="s">
         <v>2</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="L43" s="3" t="s">
         <v>2</v>
@@ -3773,7 +3767,7 @@
         <v>2</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
@@ -3781,54 +3775,54 @@
         <v>183</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>106</v>
+        <v>75</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>261</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J44" t="s">
-        <v>2</v>
+        <v>260</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>56</v>
+        <v>2</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>2</v>
+        <v>122</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>184</v>
+        <v>252</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>82</v>
@@ -3837,86 +3831,86 @@
         <v>35</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>110</v>
+        <v>75</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>261</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J45" t="s">
-        <v>2</v>
+        <v>260</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>2</v>
+        <v>123</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
-        <v>185</v>
+      <c r="A46" s="5" t="s">
+        <v>250</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C46" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C46" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D46" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="H46" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>266</v>
+      <c r="D46" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>264</v>
       </c>
       <c r="J46" t="s">
-        <v>262</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="L46" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="M46" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="N46" s="1" t="s">
-        <v>55</v>
+        <v>265</v>
+      </c>
+      <c r="K46" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="L46" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M46" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="N46" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>254</v>
+        <v>184</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>83</v>
@@ -3925,75 +3919,75 @@
         <v>35</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="H47" s="4" t="s">
-        <v>263</v>
+        <v>75</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>125</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J47" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M47" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="N47" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H48" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="N47" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A48" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="I48" s="5" t="s">
-        <v>266</v>
+      <c r="I48" s="1" t="s">
+        <v>264</v>
       </c>
       <c r="J48" t="s">
-        <v>267</v>
-      </c>
-      <c r="K48" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="L48" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="M48" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="N48" s="5" t="s">
-        <v>55</v>
+        <v>265</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="N48" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
@@ -4001,10 +3995,10 @@
         <v>186</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>84</v>
@@ -4013,31 +4007,31 @@
         <v>35</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>126</v>
+        <v>17</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J49" t="s">
-        <v>267</v>
+        <v>56</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
@@ -4045,10 +4039,10 @@
         <v>187</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>84</v>
@@ -4057,31 +4051,31 @@
         <v>35</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>126</v>
+        <v>17</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J50" t="s">
-        <v>267</v>
+        <v>57</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="L50" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>65</v>
+        <v>2</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
@@ -4089,34 +4083,34 @@
         <v>188</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>85</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>76</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>98</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J51" t="s">
-        <v>57</v>
+        <v>265</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="L51" s="3" t="s">
         <v>2</v>
@@ -4125,7 +4119,7 @@
         <v>2</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
@@ -4133,10 +4127,10 @@
         <v>189</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>85</v>
@@ -4145,31 +4139,31 @@
         <v>35</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J52" t="s">
+        <v>265</v>
+      </c>
+      <c r="K52" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>2</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
@@ -4177,43 +4171,43 @@
         <v>190</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J53" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L53" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>2</v>
+        <v>66</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
@@ -4221,98 +4215,98 @@
         <v>191</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>20</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J54" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L54" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="J55" t="s">
-        <v>267</v>
-      </c>
-      <c r="K55" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="L55" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="M55" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="N55" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="B55" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="C55" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D55" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="E55" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F55" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="G55" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="H55" s="20" t="s">
+        <v>225</v>
+      </c>
+      <c r="I55" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="J55" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="K55" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="L55" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="M55" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="N55" s="17" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>86</v>
@@ -4321,207 +4315,207 @@
         <v>35</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J56" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="L56" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>68</v>
+        <v>2</v>
       </c>
       <c r="N56" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="B57" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="D57" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="E57" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F57" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="G57" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H57" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="I57" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="J57" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="K57" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="L57" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="M57" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="N57" s="13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="B58" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="D58" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="E58" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F58" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="G58" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H58" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="I58" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="J58" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="K58" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="L58" s="15" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="17" t="s">
-        <v>253</v>
-      </c>
-      <c r="B57" s="17" t="s">
-        <v>265</v>
-      </c>
-      <c r="C57" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D57" s="20" t="s">
-        <v>225</v>
-      </c>
-      <c r="E57" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="F57" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="G57" s="20" t="s">
-        <v>226</v>
-      </c>
-      <c r="H57" s="20" t="s">
-        <v>227</v>
-      </c>
-      <c r="I57" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="J57" s="18" t="s">
-        <v>267</v>
-      </c>
-      <c r="K57" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="L57" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="M57" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="N57" s="17" t="s">
+      <c r="M58" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="N58" s="13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="J59" t="s">
+        <v>265</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M59" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N59" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="J60" t="s">
+        <v>2</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L60" s="3" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="I58" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="J58" t="s">
-        <v>267</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="M58" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N58" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="13" t="s">
-        <v>255</v>
-      </c>
-      <c r="B59" s="13" t="s">
-        <v>265</v>
-      </c>
-      <c r="C59" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="D59" s="12" t="s">
-        <v>277</v>
-      </c>
-      <c r="E59" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="F59" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="G59" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="H59" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="I59" s="13" t="s">
-        <v>266</v>
-      </c>
-      <c r="J59" s="14" t="s">
-        <v>267</v>
-      </c>
-      <c r="K59" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="L59" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="M59" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="N59" s="13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="13" t="s">
-        <v>256</v>
-      </c>
-      <c r="B60" s="13" t="s">
-        <v>265</v>
-      </c>
-      <c r="C60" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="D60" s="12" t="s">
-        <v>277</v>
-      </c>
-      <c r="E60" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="F60" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="G60" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H60" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="I60" s="13" t="s">
-        <v>266</v>
-      </c>
-      <c r="J60" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="K60" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="L60" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="M60" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="N60" s="13" t="s">
-        <v>55</v>
+      <c r="M60" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N60" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
@@ -4529,10 +4523,10 @@
         <v>195</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>88</v>
@@ -4541,31 +4535,31 @@
         <v>35</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>99</v>
+        <v>75</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>125</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J61" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L61" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
@@ -4573,10 +4567,10 @@
         <v>196</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>88</v>
@@ -4585,31 +4579,31 @@
         <v>35</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>106</v>
+        <v>75</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>125</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J62" t="s">
-        <v>2</v>
+        <v>265</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="L62" s="3" t="s">
-        <v>56</v>
+        <v>2</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>2</v>
+        <v>64</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
@@ -4617,43 +4611,43 @@
         <v>197</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>89</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>76</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J63" t="s">
-        <v>267</v>
+        <v>119</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L63" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
@@ -4661,43 +4655,43 @@
         <v>198</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>89</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>76</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J64" t="s">
-        <v>267</v>
+        <v>119</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L64" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.2">
@@ -4705,43 +4699,43 @@
         <v>199</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J65" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L65" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N65" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.2">
@@ -4749,43 +4743,43 @@
         <v>200</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J66" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L66" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
@@ -4793,43 +4787,43 @@
         <v>201</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>90</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="G67" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="H67" s="2" t="s">
-        <v>127</v>
+      <c r="G67" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J67" t="s">
-        <v>121</v>
+        <v>265</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L67" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="N67" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.2">
@@ -4837,10 +4831,10 @@
         <v>202</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>90</v>
@@ -4849,22 +4843,22 @@
         <v>35</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="H68" s="2" t="s">
-        <v>127</v>
+        <v>75</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J68" t="s">
-        <v>121</v>
+        <v>265</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L68" s="3" t="s">
         <v>2</v>
@@ -4873,7 +4867,7 @@
         <v>65</v>
       </c>
       <c r="N68" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
@@ -4881,43 +4875,43 @@
         <v>203</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J69" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L69" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M69" s="1" t="s">
-        <v>2</v>
+        <v>66</v>
       </c>
       <c r="N69" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
@@ -4925,87 +4919,87 @@
         <v>204</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>20</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J70" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L70" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M70" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="N70" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A71" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="20" t="s">
         <v>205</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H71" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="I71" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="J71" t="s">
-        <v>267</v>
-      </c>
-      <c r="K71" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="L71" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="M71" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="N71" s="1" t="s">
-        <v>55</v>
+      <c r="B71" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="C71" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D71" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="E71" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F71" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="G71" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="H71" s="20" t="s">
+        <v>227</v>
+      </c>
+      <c r="I71" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="J71" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="K71" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="L71" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="M71" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="N71" s="17" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.2">
@@ -5013,10 +5007,10 @@
         <v>206</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>91</v>
@@ -5025,75 +5019,75 @@
         <v>35</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J72" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L72" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M72" s="1" t="s">
-        <v>68</v>
+        <v>2</v>
       </c>
       <c r="N72" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B73" s="17" t="s">
-        <v>265</v>
-      </c>
-      <c r="C73" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D73" s="20" t="s">
-        <v>225</v>
-      </c>
-      <c r="E73" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="F73" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="G73" s="20" t="s">
-        <v>228</v>
-      </c>
-      <c r="H73" s="20" t="s">
-        <v>229</v>
-      </c>
-      <c r="I73" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="J73" s="18" t="s">
-        <v>267</v>
-      </c>
-      <c r="K73" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="L73" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="M73" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="N73" s="17" t="s">
-        <v>55</v>
+      <c r="B73" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="J73" t="s">
+        <v>265</v>
+      </c>
+      <c r="K73" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L73" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M73" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N73" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
@@ -5101,10 +5095,10 @@
         <v>208</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>92</v>
@@ -5113,31 +5107,31 @@
         <v>35</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J74" t="s">
-        <v>267</v>
+        <v>2</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="L74" s="3" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="M74" s="1" t="s">
         <v>2</v>
       </c>
       <c r="N74" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
@@ -5145,43 +5139,43 @@
         <v>209</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J75" t="s">
-        <v>267</v>
+        <v>2</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="L75" s="3" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="M75" s="1" t="s">
         <v>2</v>
       </c>
       <c r="N75" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.2">
@@ -5189,16 +5183,16 @@
         <v>210</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D76" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D76" s="2" t="s">
         <v>93</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>76</v>
@@ -5207,10 +5201,10 @@
         <v>28</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J76" t="s">
         <v>2</v>
@@ -5219,13 +5213,13 @@
         <v>2</v>
       </c>
       <c r="L76" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M76" s="1" t="s">
         <v>2</v>
       </c>
       <c r="N76" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
@@ -5233,28 +5227,28 @@
         <v>211</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>92</v>
+        <v>263</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>28</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J77" t="s">
         <v>2</v>
@@ -5263,13 +5257,13 @@
         <v>2</v>
       </c>
       <c r="L77" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M77" s="1" t="s">
         <v>2</v>
       </c>
       <c r="N77" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
@@ -5277,43 +5271,43 @@
         <v>212</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>34</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J78" t="s">
-        <v>2</v>
+        <v>265</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="L78" s="3" t="s">
-        <v>56</v>
+        <v>2</v>
       </c>
       <c r="M78" s="1" t="s">
-        <v>2</v>
+        <v>68</v>
       </c>
       <c r="N78" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.2">
@@ -5321,43 +5315,43 @@
         <v>213</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J79" t="s">
-        <v>2</v>
+        <v>265</v>
       </c>
       <c r="K79" s="3" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="L79" s="3" t="s">
-        <v>56</v>
+        <v>2</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>2</v>
+        <v>68</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.2">
@@ -5365,43 +5359,43 @@
         <v>214</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D80" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D80" s="1" t="s">
         <v>94</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>34</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J80" t="s">
-        <v>267</v>
+        <v>119</v>
       </c>
       <c r="K80" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L80" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M80" s="1" t="s">
-        <v>69</v>
+        <v>131</v>
       </c>
       <c r="N80" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.2">
@@ -5409,43 +5403,43 @@
         <v>215</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D81" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D81" s="1" t="s">
         <v>94</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>76</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J81" t="s">
-        <v>267</v>
+        <v>119</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L81" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M81" s="1" t="s">
-        <v>69</v>
+        <v>132</v>
       </c>
       <c r="N81" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.2">
@@ -5453,34 +5447,34 @@
         <v>216</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>34</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>32</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J82" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L82" s="3" t="s">
         <v>2</v>
@@ -5489,7 +5483,7 @@
         <v>133</v>
       </c>
       <c r="N82" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.2">
@@ -5497,34 +5491,34 @@
         <v>217</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>34</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G83" s="1" t="s">
         <v>32</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J83" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K83" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>2</v>
@@ -5533,7 +5527,7 @@
         <v>134</v>
       </c>
       <c r="N83" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.2">
@@ -5541,43 +5535,43 @@
         <v>218</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>95</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>132</v>
+        <v>99</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J84" t="s">
-        <v>121</v>
+        <v>265</v>
       </c>
       <c r="K84" s="3" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="L84" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="N84" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.2">
@@ -5585,87 +5579,87 @@
         <v>219</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>95</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>132</v>
+        <v>99</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J85" t="s">
-        <v>121</v>
+        <v>265</v>
       </c>
       <c r="K85" s="3" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="L85" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M85" s="1" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="N85" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A86" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="20" t="s">
         <v>220</v>
       </c>
-      <c r="B86" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H86" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="I86" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="J86" t="s">
-        <v>267</v>
-      </c>
-      <c r="K86" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="L86" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="M86" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="N86" s="1" t="s">
-        <v>55</v>
+      <c r="B86" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="C86" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D86" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="E86" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F86" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="G86" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="H86" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="I86" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="J86" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="K86" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="L86" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="M86" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="N86" s="17" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.2">
@@ -5673,669 +5667,581 @@
         <v>221</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G87" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I87" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="J87" t="s">
+        <v>265</v>
+      </c>
+      <c r="K87" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L87" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M87" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="N87" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="J88" t="s">
+        <v>265</v>
+      </c>
+      <c r="K88" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L88" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="M88" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N88" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C89" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D89" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E89" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G89" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="H89" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="I89" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="J89" t="s">
+        <v>260</v>
+      </c>
+      <c r="K89" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="L89" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="M89" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="N89" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="28" t="s">
         <v>266</v>
       </c>
-      <c r="J87" t="s">
+      <c r="B90" s="29" t="s">
+        <v>263</v>
+      </c>
+      <c r="C90" s="28" t="s">
+        <v>274</v>
+      </c>
+      <c r="D90" s="30" t="s">
+        <v>275</v>
+      </c>
+      <c r="E90" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="F90" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="G90" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="H90" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="I90" s="29" t="s">
+        <v>264</v>
+      </c>
+      <c r="J90" s="30" t="s">
+        <v>265</v>
+      </c>
+      <c r="K90" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="L90" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="M90" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="N90" s="29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="21" t="s">
         <v>267</v>
       </c>
-      <c r="K87" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="L87" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="M87" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="N87" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="88" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="20" t="s">
-        <v>222</v>
-      </c>
-      <c r="B88" s="17" t="s">
-        <v>265</v>
-      </c>
-      <c r="C88" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D88" s="20" t="s">
-        <v>225</v>
-      </c>
-      <c r="E88" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="F88" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="G88" s="20" t="s">
-        <v>230</v>
-      </c>
-      <c r="H88" s="20" t="s">
-        <v>231</v>
-      </c>
-      <c r="I88" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="J88" s="18" t="s">
-        <v>267</v>
-      </c>
-      <c r="K88" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="L88" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="M88" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="N88" s="17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A89" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G89" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H89" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="I89" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="J89" t="s">
-        <v>267</v>
-      </c>
-      <c r="K89" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="L89" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="M89" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="N89" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A90" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C90" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G90" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H90" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="I90" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="J90" t="s">
-        <v>267</v>
-      </c>
-      <c r="K90" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="L90" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="M90" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="N90" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C91" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D91" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="E91" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G91" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="H91" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="I91" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="J91" t="s">
-        <v>262</v>
-      </c>
-      <c r="K91" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="L91" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="M91" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="N91" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="28" t="s">
+      <c r="B91" s="22" t="s">
+        <v>263</v>
+      </c>
+      <c r="C91" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="D91" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="E91" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="F91" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="G91" s="22" t="s">
+        <v>276</v>
+      </c>
+      <c r="H91" s="22" t="s">
+        <v>277</v>
+      </c>
+      <c r="I91" s="22" t="s">
+        <v>264</v>
+      </c>
+      <c r="J91" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="K91" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="L91" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="M91" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="N91" s="22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="21" t="s">
         <v>268</v>
       </c>
-      <c r="B92" s="29" t="s">
-        <v>265</v>
-      </c>
-      <c r="C92" s="28" t="s">
+      <c r="B92" s="22" t="s">
+        <v>263</v>
+      </c>
+      <c r="C92" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="D92" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="E92" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="F92" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="G92" s="22" t="s">
         <v>276</v>
       </c>
-      <c r="D92" s="30" t="s">
+      <c r="H92" s="22" t="s">
         <v>277</v>
       </c>
-      <c r="E92" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="F92" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="G92" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="H92" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="I92" s="29" t="s">
-        <v>266</v>
-      </c>
-      <c r="J92" s="30" t="s">
-        <v>267</v>
-      </c>
-      <c r="K92" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="L92" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="M92" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="N92" s="29" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="21" t="s">
+      <c r="I92" s="22" t="s">
+        <v>264</v>
+      </c>
+      <c r="J92" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="K92" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="L92" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="M92" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="N92" s="22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="28" t="s">
         <v>269</v>
       </c>
-      <c r="B93" s="22" t="s">
-        <v>265</v>
-      </c>
-      <c r="C93" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="D93" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="E93" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="F93" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="G93" s="22" t="s">
-        <v>278</v>
-      </c>
-      <c r="H93" s="22" t="s">
-        <v>279</v>
-      </c>
-      <c r="I93" s="22" t="s">
-        <v>266</v>
-      </c>
-      <c r="J93" s="23" t="s">
-        <v>267</v>
-      </c>
-      <c r="K93" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="L93" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="M93" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="N93" s="22" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="94" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="21" t="s">
+      <c r="B93" s="29" t="s">
+        <v>263</v>
+      </c>
+      <c r="C93" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D93" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="E93" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="F93" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="G93" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="H93" s="28" t="s">
+        <v>229</v>
+      </c>
+      <c r="I93" s="29" t="s">
+        <v>264</v>
+      </c>
+      <c r="J93" s="30" t="s">
+        <v>265</v>
+      </c>
+      <c r="K93" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="L93" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="M93" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="N93" s="29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="28" t="s">
         <v>270</v>
       </c>
-      <c r="B94" s="22" t="s">
-        <v>265</v>
-      </c>
-      <c r="C94" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="D94" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="E94" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="F94" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="G94" s="22" t="s">
-        <v>278</v>
-      </c>
-      <c r="H94" s="22" t="s">
-        <v>279</v>
-      </c>
-      <c r="I94" s="22" t="s">
-        <v>266</v>
-      </c>
-      <c r="J94" s="23" t="s">
-        <v>267</v>
-      </c>
-      <c r="K94" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="L94" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="M94" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="N94" s="22" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="28" t="s">
+      <c r="B94" s="29" t="s">
+        <v>263</v>
+      </c>
+      <c r="C94" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D94" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="E94" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="F94" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="G94" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="H94" s="28" t="s">
+        <v>229</v>
+      </c>
+      <c r="I94" s="29" t="s">
+        <v>264</v>
+      </c>
+      <c r="J94" s="30" t="s">
+        <v>265</v>
+      </c>
+      <c r="K94" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="L94" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="M94" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="N94" s="29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" s="21" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A95" s="21" t="s">
         <v>271</v>
       </c>
-      <c r="B95" s="29" t="s">
-        <v>265</v>
-      </c>
-      <c r="C95" s="29" t="s">
+      <c r="B95" s="22" t="s">
+        <v>263</v>
+      </c>
+      <c r="C95" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D95" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="E95" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="F95" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="G95" s="28" t="s">
-        <v>230</v>
-      </c>
-      <c r="H95" s="28" t="s">
-        <v>231</v>
-      </c>
-      <c r="I95" s="29" t="s">
-        <v>266</v>
-      </c>
-      <c r="J95" s="30" t="s">
-        <v>267</v>
-      </c>
-      <c r="K95" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="L95" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="M95" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="N95" s="29" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="96" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="28" t="s">
+      <c r="D95" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="E95" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="F95" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="G95" s="25" t="s">
+        <v>280</v>
+      </c>
+      <c r="H95" s="25" t="s">
+        <v>281</v>
+      </c>
+      <c r="I95" s="22" t="s">
+        <v>264</v>
+      </c>
+      <c r="J95" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="K95" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="L95" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="M95" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="N95" s="22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" s="21" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A96" s="21" t="s">
         <v>272</v>
       </c>
-      <c r="B96" s="29" t="s">
-        <v>265</v>
-      </c>
-      <c r="C96" s="29" t="s">
+      <c r="B96" s="22" t="s">
+        <v>263</v>
+      </c>
+      <c r="C96" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D96" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="E96" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="F96" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="G96" s="28" t="s">
-        <v>230</v>
-      </c>
-      <c r="H96" s="28" t="s">
-        <v>231</v>
-      </c>
-      <c r="I96" s="29" t="s">
-        <v>266</v>
-      </c>
-      <c r="J96" s="30" t="s">
-        <v>267</v>
-      </c>
-      <c r="K96" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="L96" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="M96" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="N96" s="29" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="97" spans="1:14" s="21" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="D96" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="E96" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="F96" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="G96" s="25" t="s">
+        <v>280</v>
+      </c>
+      <c r="H96" s="25" t="s">
+        <v>281</v>
+      </c>
+      <c r="I96" s="22" t="s">
+        <v>264</v>
+      </c>
+      <c r="J96" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="K96" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="L96" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="M96" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="N96" s="22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" s="21" customFormat="1" ht="136" x14ac:dyDescent="0.2">
       <c r="A97" s="21" t="s">
         <v>273</v>
       </c>
       <c r="B97" s="22" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C97" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D97" s="22" t="s">
-        <v>79</v>
+        <v>5</v>
+      </c>
+      <c r="D97" s="21" t="s">
+        <v>223</v>
       </c>
       <c r="E97" s="22" t="s">
         <v>35</v>
       </c>
       <c r="F97" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="G97" s="25" t="s">
-        <v>284</v>
-      </c>
-      <c r="H97" s="25" t="s">
-        <v>285</v>
+        <v>75</v>
+      </c>
+      <c r="G97" s="26" t="s">
+        <v>283</v>
+      </c>
+      <c r="H97" s="26" t="s">
+        <v>282</v>
       </c>
       <c r="I97" s="22" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J97" s="23" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K97" s="24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L97" s="24" t="s">
         <v>2</v>
       </c>
       <c r="M97" s="22" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="N97" s="22" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14" s="21" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" s="21" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A98" s="21" t="s">
-        <v>274</v>
+        <v>163</v>
       </c>
       <c r="B98" s="22" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C98" s="22" t="s">
         <v>7</v>
       </c>
       <c r="D98" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E98" s="22" t="s">
         <v>35</v>
       </c>
       <c r="F98" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="G98" s="25" t="s">
-        <v>284</v>
+        <v>75</v>
+      </c>
+      <c r="G98" s="27" t="s">
+        <v>278</v>
       </c>
       <c r="H98" s="25" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="I98" s="22" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J98" s="23" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K98" s="24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L98" s="24" t="s">
         <v>2</v>
       </c>
       <c r="M98" s="22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N98" s="22" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14" s="21" customFormat="1" ht="153" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" s="21" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A99" s="21" t="s">
-        <v>275</v>
+        <v>162</v>
       </c>
       <c r="B99" s="22" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C99" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D99" s="21" t="s">
-        <v>225</v>
+        <v>7</v>
+      </c>
+      <c r="D99" s="22" t="s">
+        <v>78</v>
       </c>
       <c r="E99" s="22" t="s">
         <v>35</v>
       </c>
       <c r="F99" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="G99" s="26" t="s">
-        <v>280</v>
-      </c>
-      <c r="H99" s="26" t="s">
-        <v>281</v>
+        <v>75</v>
+      </c>
+      <c r="G99" s="27" t="s">
+        <v>278</v>
+      </c>
+      <c r="H99" s="25" t="s">
+        <v>279</v>
       </c>
       <c r="I99" s="22" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J99" s="23" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K99" s="24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L99" s="24" t="s">
         <v>2</v>
       </c>
       <c r="M99" s="22" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="N99" s="22" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="100" spans="1:14" s="21" customFormat="1" ht="68" x14ac:dyDescent="0.2">
-      <c r="A100" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="B100" s="22" t="s">
-        <v>265</v>
-      </c>
-      <c r="C100" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D100" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="E100" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="F100" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="G100" s="27" t="s">
-        <v>282</v>
-      </c>
-      <c r="H100" s="25" t="s">
-        <v>283</v>
-      </c>
-      <c r="I100" s="22" t="s">
-        <v>266</v>
-      </c>
-      <c r="J100" s="23" t="s">
-        <v>267</v>
-      </c>
-      <c r="K100" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="L100" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="M100" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="N100" s="22" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="101" spans="1:14" s="21" customFormat="1" ht="68" x14ac:dyDescent="0.2">
-      <c r="A101" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="B101" s="22" t="s">
-        <v>265</v>
-      </c>
-      <c r="C101" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D101" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="E101" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="F101" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="G101" s="27" t="s">
-        <v>282</v>
-      </c>
-      <c r="H101" s="25" t="s">
-        <v>283</v>
-      </c>
-      <c r="I101" s="22" t="s">
-        <v>266</v>
-      </c>
-      <c r="J101" s="23" t="s">
-        <v>267</v>
-      </c>
-      <c r="K101" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="L101" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="M101" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="N101" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N90">
-    <sortCondition ref="A2:A90"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N88">
+    <sortCondition ref="A2:A88"/>
   </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
-  <conditionalFormatting sqref="A57">
+  <conditionalFormatting sqref="A55">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$D57="Male"</formula>
+      <formula>$D55="Male"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data-raw/snu_x_im_distribution_configuration/23Tto24TMap.xlsx
+++ b/data-raw/snu_x_im_distribution_configuration/23Tto24TMap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/faustolopezbao/Documents/GitHub/data-pack-commons/data-raw/snu_x_im_distribution_configuration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{B2CDB35A-281D-A94F-871B-6D9DC389D6E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{96D130E4-4264-B644-9510-73EEFFD6DCA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37580" yWindow="1080" windowWidth="30120" windowHeight="18980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="24260" windowHeight="20400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Map" sheetId="1" r:id="rId1"/>
@@ -884,10 +884,10 @@
     <t>Lhk8mjk6Yk2;Qr9eyrVLHSg</t>
   </si>
   <si>
-    <t>cnlEjFkl5UZ;Tpc0Ztxae9H;lJQyt3PjrVy;CEcYYCkTncR;EVwSAwSEfTg;G6QgzwFMWSP;Y3aCLwI6IU3;c60fuhOWPu4;WGV3YTTqrZ3;vYZLPZAuv8A;FazeYvGkStI;PcsTdqSq0Id;mCtbMQYjHjj</t>
-  </si>
-  <si>
-    <t>IndexMod/Age/Sex/HIVStatus;Index/Age/Sex/HIVStatus;Emergency Ward/Age/Sex/HIVStatus;Inpat/Age/Sex/HIVStatus;MobileMod/Age/Sex/HIVStatus;OtherMod/Age/Sex/HIVStatus;OtherPITC/Age/Sex/HIVStatus;PMTCT PostANC/Age/Sex/HIVStatus;STI Clinic/Age/Sex/HIVStatus;VCT/Age/Sex/HIVStatus;PMTCT ANC/Age/Sex/HIVStatus;TBClinic/Age/Sex/HIVStatus;VMMC/Age/Sex/HIVStatus</t>
+    <t>IndexMod/Age/Sex/HIVStatus;Index/Age/Sex/HIVStatus;Emergency Ward/Age/Sex/HIVStatus;Inpat/Age/Sex/HIVStatus;MobileMod/Age/Sex/HIVStatus;OtherMod/Age/Sex/HIVStatus;OtherPITC/Age/Sex/HIVStatus;PMTCT PostANC/Age/Sex/HIVStatus;STI Clinic/Age/Sex/HIVStatus;VCT/Age/Sex/HIVStatus;PMTCT ANC/Age/Sex/HIVStatus;TBClinic/Age/Sex/HIVStatus;VMMC/Age/Sex/HIVStatus;SNSMod/Age/Sex/HIVStatus;SNS/Age/Sex/HIVStatus</t>
+  </si>
+  <si>
+    <t>cnlEjFkl5UZ;Tpc0Ztxae9H;lJQyt3PjrVy;CEcYYCkTncR;EVwSAwSEfTg;G6QgzwFMWSP;Y3aCLwI6IU3;c60fuhOWPu4;WGV3YTTqrZ3;vYZLPZAuv8A;FazeYvGkStI;PcsTdqSq0Id;mCtbMQYjHjj;ibJUfCOgjxa;icVEv3fDvfA</t>
   </si>
 </sst>
 </file>
@@ -1856,7 +1856,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="111" zoomScaleNormal="111" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B86" sqref="B86"/>
+      <selection pane="bottomLeft" activeCell="H97" sqref="H97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6102,7 +6102,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="97" spans="1:14" s="21" customFormat="1" ht="136" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:14" s="21" customFormat="1" ht="153" x14ac:dyDescent="0.2">
       <c r="A97" s="21" t="s">
         <v>273</v>
       </c>
@@ -6122,10 +6122,10 @@
         <v>75</v>
       </c>
       <c r="G97" s="26" t="s">
+        <v>282</v>
+      </c>
+      <c r="H97" s="26" t="s">
         <v>283</v>
-      </c>
-      <c r="H97" s="26" t="s">
-        <v>282</v>
       </c>
       <c r="I97" s="22" t="s">
         <v>264</v>

--- a/data-raw/snu_x_im_distribution_configuration/23Tto24TMap.xlsx
+++ b/data-raw/snu_x_im_distribution_configuration/23Tto24TMap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/faustolopezbao/Documents/GitHub/data-pack-commons/data-raw/snu_x_im_distribution_configuration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{96D130E4-4264-B644-9510-73EEFFD6DCA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{6FE4D896-76E6-D840-B3A6-650B773DA9FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="24260" windowHeight="20400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33820" windowHeight="20520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Map" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="1386" uniqueCount="284">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="1386" uniqueCount="286">
   <si>
     <t>CXCA_SCRN</t>
   </si>
@@ -888,13 +888,19 @@
   </si>
   <si>
     <t>cnlEjFkl5UZ;Tpc0Ztxae9H;lJQyt3PjrVy;CEcYYCkTncR;EVwSAwSEfTg;G6QgzwFMWSP;Y3aCLwI6IU3;c60fuhOWPu4;WGV3YTTqrZ3;vYZLPZAuv8A;FazeYvGkStI;PcsTdqSq0Id;mCtbMQYjHjj;ibJUfCOgjxa;icVEv3fDvfA</t>
+  </si>
+  <si>
+    <t>SNS/Age/Sex/Result;SNSMod/Age/Sex/Result</t>
+  </si>
+  <si>
+    <t>STGTOMk0tLf;BAyV276wNJj</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1050,6 +1056,12 @@
       <sz val="13"/>
       <color rgb="FF202124"/>
       <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="38">
@@ -1449,7 +1461,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1488,6 +1500,7 @@
     <xf numFmtId="0" fontId="19" fillId="37" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="37" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1855,8 +1868,8 @@
   <dimension ref="A1:N99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="111" zoomScaleNormal="111" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H97" sqref="H97"/>
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H94" sqref="H94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5945,11 +5958,11 @@
       <c r="F93" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="G93" s="28" t="s">
-        <v>228</v>
+      <c r="G93" s="32" t="s">
+        <v>284</v>
       </c>
       <c r="H93" s="28" t="s">
-        <v>229</v>
+        <v>285</v>
       </c>
       <c r="I93" s="29" t="s">
         <v>264</v>
@@ -5964,7 +5977,7 @@
         <v>2</v>
       </c>
       <c r="M93" s="29" t="s">
-        <v>2</v>
+        <v>128</v>
       </c>
       <c r="N93" s="29" t="s">
         <v>54</v>
@@ -5989,11 +6002,11 @@
       <c r="F94" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="G94" s="28" t="s">
-        <v>228</v>
+      <c r="G94" s="32" t="s">
+        <v>284</v>
       </c>
       <c r="H94" s="28" t="s">
-        <v>229</v>
+        <v>285</v>
       </c>
       <c r="I94" s="29" t="s">
         <v>264</v>
@@ -6008,7 +6021,7 @@
         <v>2</v>
       </c>
       <c r="M94" s="29" t="s">
-        <v>2</v>
+        <v>127</v>
       </c>
       <c r="N94" s="29" t="s">
         <v>54</v>

--- a/data-raw/snu_x_im_distribution_configuration/23Tto24TMap.xlsx
+++ b/data-raw/snu_x_im_distribution_configuration/23Tto24TMap.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/faustolopezbao/Documents/GitHub/data-pack-commons/data-raw/snu_x_im_distribution_configuration/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sam/Documents/GitHub/data-pack-commons/data-raw/snu_x_im_distribution_configuration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{FBCD3707-98D2-5541-B097-7CE0C0EDF027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{E3FCD9CF-A503-1545-808C-C265BA32413E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="500" windowWidth="33820" windowHeight="20380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="700" yWindow="9280" windowWidth="33600" windowHeight="12000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Map" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Map!$A$1:$N$58</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Map!$A$1:$N$68</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="952" uniqueCount="211">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="952" uniqueCount="212">
   <si>
     <t>CXCA_SCRN</t>
   </si>
@@ -669,6 +669,9 @@
   </si>
   <si>
     <t>STGTOMk0tLf;BAyV276wNJj</t>
+  </si>
+  <si>
+    <t>5-14</t>
   </si>
 </sst>
 </file>
@@ -1212,21 +1215,18 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="8" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1238,6 +1238,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="7" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="7"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="6" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="0" xfId="7" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1596,22 +1605,22 @@
   <dimension ref="A1:N68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="111" zoomScaleNormal="111" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="30.83203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="24.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.83203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.83203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="24.1640625" style="17" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="2" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="16.83203125" style="17" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" style="17" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="15.83203125" style="17" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="55.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="27.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.33203125" style="21" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6.5" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.83203125" style="2" bestFit="1" customWidth="1"/>
@@ -1623,19 +1632,19 @@
       <c r="A1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="16" t="s">
         <v>99</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="16" t="s">
         <v>64</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -1644,10 +1653,10 @@
       <c r="H1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="21" t="s">
         <v>40</v>
       </c>
       <c r="K1" s="1" t="s">
@@ -1663,619 +1672,619 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="E2" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="J2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M2" s="1" t="s">
+      <c r="I2" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="J2" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="N2" s="16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="C3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="E3" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="J3" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="1" t="s">
+      <c r="I3" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="J3" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="N3" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="N3" s="16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="B4" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="C4" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G4" s="2" t="s">
+      <c r="E4" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="I4" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="J4" s="22" t="s">
         <v>190</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="L4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="L4" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="M4" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="N4" s="16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" s="17" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="B5" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="C5" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G5" s="1" t="s">
+      <c r="E5" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="I5" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="J5" s="22" t="s">
         <v>190</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="L5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="M5" s="1" t="s">
+      <c r="L5" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="M5" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="N5" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="N5" s="16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="B6" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="C6" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G6" s="1" t="s">
+      <c r="E6" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="G6" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="I6" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="J6" s="22" t="s">
         <v>190</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="L6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="M6" s="1" t="s">
+      <c r="L6" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="M6" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="N6" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="N6" s="16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="B7" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="C7" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G7" s="1" t="s">
+      <c r="E7" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="G7" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="I7" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="J7" s="22" t="s">
         <v>190</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="L7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="M7" s="1" t="s">
+      <c r="L7" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="M7" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="N7" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="N7" s="16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="B8" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="C8" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G8" s="1" t="s">
+      <c r="E8" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="G8" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="I8" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="J8" s="22" t="s">
         <v>190</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="1" t="s">
+      <c r="L8" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="N8" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="N8" s="16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="B9" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="C9" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G9" s="1" t="s">
+      <c r="E9" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="G9" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="J9" t="s">
-        <v>2</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="L9" s="3" t="s">
+      <c r="I9" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="J9" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="K9" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="L9" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="M9" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="N9" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="N9" s="16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="B10" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="C10" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G10" s="1" t="s">
+      <c r="E10" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="G10" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="J10" t="s">
-        <v>2</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="L10" s="3" t="s">
+      <c r="I10" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="J10" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="K10" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="L10" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="M10" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="N10" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+      <c r="N10" s="16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="B11" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="C11" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G11" s="1" t="s">
+      <c r="E11" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="J11" t="s">
-        <v>2</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="L11" s="3" t="s">
+      <c r="I11" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="J11" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="K11" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="L11" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="M11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+      <c r="M11" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="N11" s="16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="B12" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="C12" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G12" s="2" t="s">
+      <c r="E12" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="G12" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="J12" t="s">
-        <v>2</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="L12" s="3" t="s">
+      <c r="I12" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="J12" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="K12" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="L12" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="M12" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="M12" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="N12" s="16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="B13" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="C13" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G13" s="1" t="s">
+      <c r="E13" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H13" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="J13" t="s">
-        <v>2</v>
-      </c>
-      <c r="K13" s="3" t="s">
+      <c r="I13" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="J13" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="K13" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="L13" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+      <c r="L13" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="M13" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="N13" s="16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C14" s="1" t="s">
+      <c r="B14" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="C14" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G14" s="1" t="s">
+      <c r="E14" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="G14" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H14" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="J14" t="s">
-        <v>2</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="L14" s="3" t="s">
+      <c r="I14" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="J14" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="K14" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="L14" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="M14" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+      <c r="M14" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="N14" s="16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C15" s="1" t="s">
+      <c r="B15" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="C15" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G15" s="1" t="s">
+      <c r="E15" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="G15" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H15" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="I15" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="J15" t="s">
-        <v>2</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N15" s="1" t="s">
+      <c r="I15" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="J15" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="K15" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="L15" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="M15" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="N15" s="16" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2283,19 +2292,19 @@
       <c r="A16" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C16" s="1" t="s">
+      <c r="B16" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="C16" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F16" s="1" t="s">
+      <c r="E16" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" s="16" t="s">
         <v>66</v>
       </c>
       <c r="G16" s="4" t="s">
@@ -2304,10 +2313,10 @@
       <c r="H16" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="I16" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="J16" t="s">
+      <c r="I16" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="J16" s="21" t="s">
         <v>185</v>
       </c>
       <c r="K16" s="3" t="s">
@@ -2327,19 +2336,19 @@
       <c r="A17" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C17" s="1" t="s">
+      <c r="B17" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="C17" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F17" s="1" t="s">
+      <c r="E17" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="16" t="s">
         <v>66</v>
       </c>
       <c r="G17" s="4" t="s">
@@ -2348,10 +2357,10 @@
       <c r="H17" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="I17" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="J17" t="s">
+      <c r="I17" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="J17" s="21" t="s">
         <v>185</v>
       </c>
       <c r="K17" s="3" t="s">
@@ -2367,47 +2376,47 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
+    <row r="18" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C18" s="5" t="s">
+      <c r="B18" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="C18" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="E18" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="G18" s="2" t="s">
+      <c r="E18" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="G18" s="20" t="s">
         <v>182</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="H18" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="I18" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="J18" t="s">
-        <v>190</v>
-      </c>
-      <c r="K18" s="5" t="s">
+      <c r="I18" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="J18" s="23" t="s">
+        <v>211</v>
+      </c>
+      <c r="K18" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="L18" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="M18" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="N18" s="5" t="s">
+      <c r="L18" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="M18" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="N18" s="19" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2415,19 +2424,19 @@
       <c r="A19" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C19" s="1" t="s">
+      <c r="B19" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="C19" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F19" s="1" t="s">
+      <c r="E19" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" s="16" t="s">
         <v>66</v>
       </c>
       <c r="G19" s="1" t="s">
@@ -2436,10 +2445,10 @@
       <c r="H19" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="I19" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="J19" t="s">
+      <c r="I19" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="J19" s="21" t="s">
         <v>190</v>
       </c>
       <c r="K19" s="3" t="s">
@@ -2459,19 +2468,19 @@
       <c r="A20" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C20" s="1" t="s">
+      <c r="B20" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="C20" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F20" s="1" t="s">
+      <c r="E20" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" s="16" t="s">
         <v>66</v>
       </c>
       <c r="G20" s="1" t="s">
@@ -2480,10 +2489,10 @@
       <c r="H20" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="I20" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="J20" t="s">
+      <c r="I20" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="J20" s="21" t="s">
         <v>190</v>
       </c>
       <c r="K20" s="3" t="s">
@@ -2503,19 +2512,19 @@
       <c r="A21" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C21" s="1" t="s">
+      <c r="B21" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="C21" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F21" s="1" t="s">
+      <c r="E21" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F21" s="16" t="s">
         <v>66</v>
       </c>
       <c r="G21" s="1" t="s">
@@ -2524,10 +2533,10 @@
       <c r="H21" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="I21" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="J21" t="s">
+      <c r="I21" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="J21" s="21" t="s">
         <v>47</v>
       </c>
       <c r="K21" s="3" t="s">
@@ -2547,19 +2556,19 @@
       <c r="A22" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C22" s="1" t="s">
+      <c r="B22" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="C22" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F22" s="1" t="s">
+      <c r="E22" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22" s="16" t="s">
         <v>66</v>
       </c>
       <c r="G22" s="1" t="s">
@@ -2568,10 +2577,10 @@
       <c r="H22" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="I22" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="J22" t="s">
+      <c r="I22" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="J22" s="21" t="s">
         <v>48</v>
       </c>
       <c r="K22" s="3" t="s">
@@ -2587,47 +2596,47 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C23" s="1" t="s">
+      <c r="B23" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="C23" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="G23" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="H23" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="I23" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="J23" t="s">
+      <c r="I23" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="J23" s="22" t="s">
         <v>190</v>
       </c>
-      <c r="K23" s="3" t="s">
+      <c r="K23" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="M23" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N23" s="1" t="s">
+      <c r="L23" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="M23" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="N23" s="16" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2635,19 +2644,19 @@
       <c r="A24" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C24" s="1" t="s">
+      <c r="B24" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="C24" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F24" s="1" t="s">
+      <c r="E24" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F24" s="16" t="s">
         <v>66</v>
       </c>
       <c r="G24" s="1" t="s">
@@ -2656,10 +2665,10 @@
       <c r="H24" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="I24" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="J24" t="s">
+      <c r="I24" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="J24" s="21" t="s">
         <v>190</v>
       </c>
       <c r="K24" s="3" t="s">
@@ -2679,19 +2688,19 @@
       <c r="A25" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C25" s="1" t="s">
+      <c r="B25" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="C25" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F25" s="1" t="s">
+      <c r="E25" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F25" s="16" t="s">
         <v>66</v>
       </c>
       <c r="G25" s="1" t="s">
@@ -2700,10 +2709,10 @@
       <c r="H25" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="I25" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="J25" t="s">
+      <c r="I25" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="J25" s="21" t="s">
         <v>190</v>
       </c>
       <c r="K25" s="3" t="s">
@@ -2723,19 +2732,19 @@
       <c r="A26" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C26" s="1" t="s">
+      <c r="B26" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="C26" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F26" s="1" t="s">
+      <c r="E26" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F26" s="16" t="s">
         <v>66</v>
       </c>
       <c r="G26" s="1" t="s">
@@ -2744,10 +2753,10 @@
       <c r="H26" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="I26" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="J26" t="s">
+      <c r="I26" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="J26" s="21" t="s">
         <v>190</v>
       </c>
       <c r="K26" s="3" t="s">
@@ -2767,19 +2776,19 @@
       <c r="A27" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C27" s="1" t="s">
+      <c r="B27" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="C27" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F27" s="1" t="s">
+      <c r="E27" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F27" s="16" t="s">
         <v>66</v>
       </c>
       <c r="G27" s="1" t="s">
@@ -2788,10 +2797,10 @@
       <c r="H27" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="I27" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="J27" t="s">
+      <c r="I27" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="J27" s="21" t="s">
         <v>190</v>
       </c>
       <c r="K27" s="3" t="s">
@@ -2807,91 +2816,91 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="12" t="s">
+    <row r="28" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="B28" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="C28" s="11" t="s">
+      <c r="B28" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="C28" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="D28" s="17" t="s">
         <v>200</v>
       </c>
-      <c r="E28" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="G28" s="12" t="s">
+      <c r="E28" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F28" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="G28" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H28" s="12" t="s">
+      <c r="H28" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="I28" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="J28" s="13" t="s">
+      <c r="I28" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="J28" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="K28" s="14" t="s">
+      <c r="K28" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="L28" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="M28" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="N28" s="12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="12" t="s">
+      <c r="L28" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="M28" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="N28" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="B29" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="C29" s="11" t="s">
+      <c r="B29" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="C29" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="17" t="s">
         <v>200</v>
       </c>
-      <c r="E29" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F29" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="G29" s="12" t="s">
+      <c r="E29" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F29" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="G29" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H29" s="12" t="s">
+      <c r="H29" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="I29" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="J29" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="K29" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="L29" s="14" t="s">
+      <c r="I29" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="J29" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="K29" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="L29" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="M29" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="N29" s="12" t="s">
+      <c r="M29" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="N29" s="10" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2899,19 +2908,19 @@
       <c r="A30" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C30" s="1" t="s">
+      <c r="B30" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="C30" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F30" s="1" t="s">
+      <c r="E30" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F30" s="16" t="s">
         <v>66</v>
       </c>
       <c r="G30" s="1" t="s">
@@ -2920,10 +2929,10 @@
       <c r="H30" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="I30" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="J30" t="s">
+      <c r="I30" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="J30" s="21" t="s">
         <v>190</v>
       </c>
       <c r="K30" s="3" t="s">
@@ -2943,19 +2952,19 @@
       <c r="A31" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C31" s="1" t="s">
+      <c r="B31" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="C31" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F31" s="1" t="s">
+      <c r="E31" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F31" s="16" t="s">
         <v>66</v>
       </c>
       <c r="G31" s="1" t="s">
@@ -2964,10 +2973,10 @@
       <c r="H31" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="I31" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="J31" t="s">
+      <c r="I31" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="J31" s="21" t="s">
         <v>2</v>
       </c>
       <c r="K31" s="3" t="s">
@@ -2987,19 +2996,19 @@
       <c r="A32" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C32" s="1" t="s">
+      <c r="B32" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="C32" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F32" s="1" t="s">
+      <c r="E32" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F32" s="16" t="s">
         <v>66</v>
       </c>
       <c r="G32" s="2" t="s">
@@ -3008,10 +3017,10 @@
       <c r="H32" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="I32" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="J32" t="s">
+      <c r="I32" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="J32" s="21" t="s">
         <v>190</v>
       </c>
       <c r="K32" s="3" t="s">
@@ -3031,19 +3040,19 @@
       <c r="A33" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C33" s="1" t="s">
+      <c r="B33" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="C33" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F33" s="1" t="s">
+      <c r="E33" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F33" s="16" t="s">
         <v>66</v>
       </c>
       <c r="G33" s="2" t="s">
@@ -3052,10 +3061,10 @@
       <c r="H33" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="I33" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="J33" t="s">
+      <c r="I33" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="J33" s="21" t="s">
         <v>190</v>
       </c>
       <c r="K33" s="3" t="s">
@@ -3071,91 +3080,91 @@
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
+    <row r="34" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C34" s="1" t="s">
+      <c r="B34" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="C34" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E34" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="F34" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="G34" s="2" t="s">
+      <c r="G34" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="H34" s="2" t="s">
+      <c r="H34" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="I34" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="J34" t="s">
+      <c r="I34" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="J34" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="K34" s="3" t="s">
+      <c r="K34" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="L34" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="M34" s="1" t="s">
+      <c r="L34" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="M34" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="N34" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
+      <c r="N34" s="16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C35" s="1" t="s">
+      <c r="B35" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="C35" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E35" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="F35" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="G35" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="H35" s="2" t="s">
+      <c r="H35" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="I35" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="J35" t="s">
+      <c r="I35" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="J35" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="K35" s="3" t="s">
+      <c r="K35" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="M35" s="1" t="s">
+      <c r="L35" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="M35" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="N35" s="1" t="s">
+      <c r="N35" s="16" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3163,19 +3172,19 @@
       <c r="A36" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C36" s="1" t="s">
+      <c r="B36" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="C36" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="E36" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F36" s="1" t="s">
+      <c r="E36" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F36" s="16" t="s">
         <v>66</v>
       </c>
       <c r="G36" s="2" t="s">
@@ -3184,10 +3193,10 @@
       <c r="H36" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="I36" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="J36" t="s">
+      <c r="I36" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="J36" s="21" t="s">
         <v>101</v>
       </c>
       <c r="K36" s="3" t="s">
@@ -3207,19 +3216,19 @@
       <c r="A37" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C37" s="1" t="s">
+      <c r="B37" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="C37" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="E37" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F37" s="1" t="s">
+      <c r="E37" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F37" s="16" t="s">
         <v>66</v>
       </c>
       <c r="G37" s="2" t="s">
@@ -3228,10 +3237,10 @@
       <c r="H37" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="I37" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="J37" t="s">
+      <c r="I37" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="J37" s="21" t="s">
         <v>101</v>
       </c>
       <c r="K37" s="3" t="s">
@@ -3247,47 +3256,47 @@
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
+    <row r="38" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C38" s="1" t="s">
+      <c r="B38" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="C38" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E38" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="F38" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="G38" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="H38" s="1" t="s">
+      <c r="H38" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="I38" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="J38" t="s">
+      <c r="I38" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="J38" s="22" t="s">
         <v>190</v>
       </c>
-      <c r="K38" s="3" t="s">
+      <c r="K38" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="L38" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="M38" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N38" s="1" t="s">
+      <c r="L38" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="M38" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="N38" s="16" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3295,19 +3304,19 @@
       <c r="A39" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C39" s="1" t="s">
+      <c r="B39" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="C39" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F39" s="1" t="s">
+      <c r="E39" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F39" s="16" t="s">
         <v>66</v>
       </c>
       <c r="G39" s="1" t="s">
@@ -3316,10 +3325,10 @@
       <c r="H39" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="I39" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="J39" t="s">
+      <c r="I39" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="J39" s="21" t="s">
         <v>190</v>
       </c>
       <c r="K39" s="3" t="s">
@@ -3339,19 +3348,19 @@
       <c r="A40" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C40" s="1" t="s">
+      <c r="B40" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="C40" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="E40" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F40" s="1" t="s">
+      <c r="E40" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F40" s="16" t="s">
         <v>66</v>
       </c>
       <c r="G40" s="1" t="s">
@@ -3360,10 +3369,10 @@
       <c r="H40" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="I40" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="J40" t="s">
+      <c r="I40" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="J40" s="21" t="s">
         <v>190</v>
       </c>
       <c r="K40" s="3" t="s">
@@ -3383,19 +3392,19 @@
       <c r="A41" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C41" s="1" t="s">
+      <c r="B41" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="C41" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F41" s="1" t="s">
+      <c r="E41" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F41" s="16" t="s">
         <v>66</v>
       </c>
       <c r="G41" s="1" t="s">
@@ -3404,10 +3413,10 @@
       <c r="H41" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="I41" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="J41" t="s">
+      <c r="I41" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="J41" s="21" t="s">
         <v>190</v>
       </c>
       <c r="K41" s="3" t="s">
@@ -3427,19 +3436,19 @@
       <c r="A42" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C42" s="1" t="s">
+      <c r="B42" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="C42" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="E42" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F42" s="1" t="s">
+      <c r="E42" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F42" s="16" t="s">
         <v>66</v>
       </c>
       <c r="G42" s="1" t="s">
@@ -3448,10 +3457,10 @@
       <c r="H42" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="I42" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="J42" t="s">
+      <c r="I42" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="J42" s="21" t="s">
         <v>190</v>
       </c>
       <c r="K42" s="3" t="s">
@@ -3471,19 +3480,19 @@
       <c r="A43" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C43" s="1" t="s">
+      <c r="B43" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="C43" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D43" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="E43" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F43" s="1" t="s">
+      <c r="E43" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F43" s="16" t="s">
         <v>66</v>
       </c>
       <c r="G43" s="1" t="s">
@@ -3492,10 +3501,10 @@
       <c r="H43" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="I43" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="J43" t="s">
+      <c r="I43" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="J43" s="21" t="s">
         <v>190</v>
       </c>
       <c r="K43" s="3" t="s">
@@ -3515,19 +3524,19 @@
       <c r="A44" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C44" s="1" t="s">
+      <c r="B44" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="C44" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D44" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="E44" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F44" s="1" t="s">
+      <c r="E44" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F44" s="16" t="s">
         <v>66</v>
       </c>
       <c r="G44" s="1" t="s">
@@ -3536,10 +3545,10 @@
       <c r="H44" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="I44" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="J44" t="s">
+      <c r="I44" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="J44" s="21" t="s">
         <v>2</v>
       </c>
       <c r="K44" s="3" t="s">
@@ -3559,19 +3568,19 @@
       <c r="A45" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C45" s="1" t="s">
+      <c r="B45" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="C45" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D45" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="E45" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F45" s="1" t="s">
+      <c r="E45" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F45" s="16" t="s">
         <v>66</v>
       </c>
       <c r="G45" s="1" t="s">
@@ -3580,10 +3589,10 @@
       <c r="H45" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="I45" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="J45" t="s">
+      <c r="I45" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="J45" s="21" t="s">
         <v>2</v>
       </c>
       <c r="K45" s="3" t="s">
@@ -3599,47 +3608,47 @@
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
+    <row r="46" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C46" s="2" t="s">
+      <c r="B46" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="C46" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="D46" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="E46" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F46" s="1" t="s">
+      <c r="F46" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="G46" s="1" t="s">
+      <c r="G46" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H46" s="1" t="s">
+      <c r="H46" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="I46" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="J46" t="s">
-        <v>2</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="L46" s="3" t="s">
+      <c r="I46" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="J46" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="K46" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="L46" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="M46" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N46" s="1" t="s">
+      <c r="M46" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="N46" s="16" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3647,19 +3656,19 @@
       <c r="A47" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C47" s="2" t="s">
+      <c r="B47" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="C47" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="D47" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="E47" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F47" s="1" t="s">
+      <c r="E47" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F47" s="16" t="s">
         <v>66</v>
       </c>
       <c r="G47" s="1" t="s">
@@ -3668,10 +3677,10 @@
       <c r="H47" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="I47" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="J47" t="s">
+      <c r="I47" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="J47" s="21" t="s">
         <v>2</v>
       </c>
       <c r="K47" s="3" t="s">
@@ -3687,47 +3696,47 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
+    <row r="48" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C48" s="2" t="s">
+      <c r="B48" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="C48" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="D48" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="E48" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F48" s="1" t="s">
+      <c r="F48" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="G48" s="1" t="s">
+      <c r="G48" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="H48" s="1" t="s">
+      <c r="H48" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="I48" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="J48" t="s">
+      <c r="I48" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="J48" s="22" t="s">
         <v>190</v>
       </c>
-      <c r="K48" s="3" t="s">
+      <c r="K48" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="M48" s="1" t="s">
+      <c r="L48" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="M48" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="N48" s="1" t="s">
+      <c r="N48" s="16" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3735,19 +3744,19 @@
       <c r="A49" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C49" s="2" t="s">
+      <c r="B49" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="C49" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="D49" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="E49" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F49" s="1" t="s">
+      <c r="E49" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F49" s="16" t="s">
         <v>66</v>
       </c>
       <c r="G49" s="1" t="s">
@@ -3756,10 +3765,10 @@
       <c r="H49" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="I49" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="J49" t="s">
+      <c r="I49" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="J49" s="21" t="s">
         <v>190</v>
       </c>
       <c r="K49" s="3" t="s">
@@ -3775,179 +3784,179 @@
         <v>45</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
+    <row r="50" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C50" s="1" t="s">
+      <c r="B50" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="C50" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D50" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="E50" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F50" s="1" t="s">
+      <c r="F50" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="G50" s="1" t="s">
+      <c r="G50" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="H50" s="1" t="s">
+      <c r="H50" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="I50" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="J50" t="s">
+      <c r="I50" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="J50" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="K50" s="3" t="s">
+      <c r="K50" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="L50" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="M50" s="1" t="s">
+      <c r="L50" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="M50" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="N50" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
+      <c r="N50" s="16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C51" s="1" t="s">
+      <c r="B51" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="C51" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D51" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="E51" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F51" s="1" t="s">
+      <c r="F51" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="G51" s="1" t="s">
+      <c r="G51" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="H51" s="1" t="s">
+      <c r="H51" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="I51" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="J51" t="s">
+      <c r="I51" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="J51" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="K51" s="3" t="s">
+      <c r="K51" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="L51" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="M51" s="1" t="s">
+      <c r="L51" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="M51" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="N51" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
+      <c r="N51" s="16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C52" s="1" t="s">
+      <c r="B52" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="C52" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D52" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="E52" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F52" s="1" t="s">
+      <c r="F52" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="G52" s="1" t="s">
+      <c r="G52" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="H52" s="1" t="s">
+      <c r="H52" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="I52" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="J52" t="s">
+      <c r="I52" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="J52" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="K52" s="3" t="s">
+      <c r="K52" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="M52" s="1" t="s">
+      <c r="L52" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="M52" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="N52" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
+      <c r="N52" s="16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C53" s="1" t="s">
+      <c r="B53" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="C53" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D53" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="E53" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F53" s="1" t="s">
+      <c r="F53" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="G53" s="1" t="s">
+      <c r="G53" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="H53" s="1" t="s">
+      <c r="H53" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="I53" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="J53" t="s">
+      <c r="I53" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="J53" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="K53" s="3" t="s">
+      <c r="K53" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="L53" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="M53" s="1" t="s">
+      <c r="L53" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="M53" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="N53" s="1" t="s">
+      <c r="N53" s="16" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3955,19 +3964,19 @@
       <c r="A54" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C54" s="1" t="s">
+      <c r="B54" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="C54" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D54" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="E54" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F54" s="1" t="s">
+      <c r="E54" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F54" s="16" t="s">
         <v>66</v>
       </c>
       <c r="G54" s="1" t="s">
@@ -3976,10 +3985,10 @@
       <c r="H54" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="I54" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="J54" t="s">
+      <c r="I54" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="J54" s="21" t="s">
         <v>190</v>
       </c>
       <c r="K54" s="3" t="s">
@@ -3999,19 +4008,19 @@
       <c r="A55" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C55" s="1" t="s">
+      <c r="B55" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="C55" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D55" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="E55" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F55" s="1" t="s">
+      <c r="E55" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F55" s="16" t="s">
         <v>66</v>
       </c>
       <c r="G55" s="1" t="s">
@@ -4020,10 +4029,10 @@
       <c r="H55" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="I55" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="J55" t="s">
+      <c r="I55" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="J55" s="21" t="s">
         <v>190</v>
       </c>
       <c r="K55" s="3" t="s">
@@ -4043,19 +4052,19 @@
       <c r="A56" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C56" s="1" t="s">
+      <c r="B56" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="C56" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D56" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="E56" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F56" s="1" t="s">
+      <c r="E56" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F56" s="16" t="s">
         <v>66</v>
       </c>
       <c r="G56" s="1" t="s">
@@ -4064,10 +4073,10 @@
       <c r="H56" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="I56" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="J56" t="s">
+      <c r="I56" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="J56" s="21" t="s">
         <v>190</v>
       </c>
       <c r="K56" s="3" t="s">
@@ -4087,19 +4096,19 @@
       <c r="A57" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C57" s="6" t="s">
+      <c r="B57" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="C57" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D57" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="E57" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F57" s="1" t="s">
+      <c r="E57" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F57" s="16" t="s">
         <v>66</v>
       </c>
       <c r="G57" s="1" t="s">
@@ -4108,510 +4117,511 @@
       <c r="H57" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="I57" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="J57" t="s">
+      <c r="I57" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="J57" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="K57" s="7" t="s">
+      <c r="K57" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="L57" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="M57" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="N57" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="8" t="s">
+      <c r="L57" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="M57" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="N57" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C58" s="10" t="s">
+      <c r="B58" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="C58" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D58" s="9" t="s">
+      <c r="D58" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="E58" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G58" s="8" t="s">
+      <c r="E58" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F58" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="G58" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="H58" s="8" t="s">
+      <c r="H58" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="I58" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="J58" t="s">
+      <c r="I58" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="J58" s="21" t="s">
         <v>185</v>
       </c>
-      <c r="K58" s="10" t="s">
+      <c r="K58" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="L58" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="M58" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="N58" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="11" t="s">
+      <c r="L58" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="M58" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="N58" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="B59" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="C59" s="11" t="s">
+      <c r="B59" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="C59" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="D59" s="13" t="s">
+      <c r="D59" s="17" t="s">
         <v>200</v>
       </c>
-      <c r="E59" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F59" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="G59" s="12" t="s">
+      <c r="E59" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F59" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="G59" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H59" s="12" t="s">
+      <c r="H59" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="I59" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="J59" s="13" t="s">
+      <c r="I59" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="J59" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="K59" s="14" t="s">
+      <c r="K59" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="L59" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="M59" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="N59" s="12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="11" t="s">
+      <c r="L59" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="M59" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="N59" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="B60" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="C60" s="12" t="s">
+      <c r="B60" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="C60" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="D60" s="12" t="s">
+      <c r="D60" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="E60" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F60" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="G60" s="12" t="s">
+      <c r="E60" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F60" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="G60" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="H60" s="12" t="s">
+      <c r="H60" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="I60" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="J60" s="13" t="s">
+      <c r="I60" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="J60" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="K60" s="14" t="s">
+      <c r="K60" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="L60" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="M60" s="11" t="s">
+      <c r="L60" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="M60" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="N60" s="12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="11" t="s">
+      <c r="N60" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="B61" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="C61" s="12" t="s">
+      <c r="B61" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="C61" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="D61" s="12" t="s">
+      <c r="D61" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="E61" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F61" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="G61" s="12" t="s">
+      <c r="E61" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F61" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="G61" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="H61" s="12" t="s">
+      <c r="H61" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="I61" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="J61" s="13" t="s">
+      <c r="I61" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="J61" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="K61" s="14" t="s">
+      <c r="K61" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="L61" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="M61" s="12" t="s">
+      <c r="L61" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="M61" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="N61" s="12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="11" t="s">
+      <c r="N61" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="B62" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="C62" s="12" t="s">
+      <c r="B62" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="C62" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D62" s="12" t="s">
+      <c r="D62" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="E62" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F62" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="G62" s="18" t="s">
+      <c r="E62" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F62" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="G62" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="H62" s="11" t="s">
+      <c r="H62" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="I62" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="J62" s="13" t="s">
+      <c r="I62" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="J62" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="K62" s="14" t="s">
+      <c r="K62" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="L62" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="M62" s="12" t="s">
+      <c r="L62" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="M62" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="N62" s="12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="11" t="s">
+      <c r="N62" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="B63" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="C63" s="12" t="s">
+      <c r="B63" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="C63" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D63" s="12" t="s">
+      <c r="D63" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="E63" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F63" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="G63" s="18" t="s">
+      <c r="E63" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F63" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="G63" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="H63" s="11" t="s">
+      <c r="H63" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="I63" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="J63" s="13" t="s">
+      <c r="I63" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="J63" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="K63" s="14" t="s">
+      <c r="K63" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="L63" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="M63" s="12" t="s">
+      <c r="L63" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="M63" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="N63" s="12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A64" s="11" t="s">
+      <c r="N63" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" s="9" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A64" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="B64" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="C64" s="12" t="s">
+      <c r="B64" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="C64" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D64" s="12" t="s">
+      <c r="D64" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="E64" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F64" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="G64" s="15" t="s">
+      <c r="E64" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F64" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="G64" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="H64" s="15" t="s">
+      <c r="H64" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="I64" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="J64" s="13" t="s">
+      <c r="I64" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="J64" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="K64" s="14" t="s">
+      <c r="K64" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="L64" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="M64" s="12" t="s">
+      <c r="L64" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="M64" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="N64" s="12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A65" s="11" t="s">
+      <c r="N64" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" s="9" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A65" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="B65" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="C65" s="12" t="s">
+      <c r="B65" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="C65" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D65" s="12" t="s">
+      <c r="D65" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="E65" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F65" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="G65" s="15" t="s">
+      <c r="E65" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F65" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="G65" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="H65" s="15" t="s">
+      <c r="H65" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="I65" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="J65" s="13" t="s">
+      <c r="I65" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="J65" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="K65" s="14" t="s">
+      <c r="K65" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="L65" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="M65" s="12" t="s">
+      <c r="L65" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="M65" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="N65" s="12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" s="11" customFormat="1" ht="153" x14ac:dyDescent="0.2">
-      <c r="A66" s="11" t="s">
+      <c r="N65" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" s="9" customFormat="1" ht="153" x14ac:dyDescent="0.2">
+      <c r="A66" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="B66" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="C66" s="12" t="s">
+      <c r="B66" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="C66" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D66" s="11" t="s">
+      <c r="D66" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="E66" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F66" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="G66" s="16" t="s">
+      <c r="E66" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F66" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="G66" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="H66" s="16" t="s">
+      <c r="H66" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="I66" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="J66" s="13" t="s">
+      <c r="I66" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="J66" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="K66" s="14" t="s">
+      <c r="K66" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="L66" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="M66" s="12" t="s">
+      <c r="L66" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="M66" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="N66" s="12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" s="11" customFormat="1" ht="68" x14ac:dyDescent="0.2">
-      <c r="A67" s="11" t="s">
+      <c r="N66" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" s="9" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A67" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="B67" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="C67" s="12" t="s">
+      <c r="B67" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="C67" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D67" s="12" t="s">
+      <c r="D67" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="E67" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F67" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="G67" s="17" t="s">
+      <c r="E67" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F67" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="G67" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="H67" s="15" t="s">
+      <c r="H67" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="I67" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="J67" s="13" t="s">
+      <c r="I67" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="J67" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="K67" s="14" t="s">
+      <c r="K67" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="L67" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="M67" s="12" t="s">
+      <c r="L67" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="M67" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="N67" s="12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" s="11" customFormat="1" ht="68" x14ac:dyDescent="0.2">
-      <c r="A68" s="11" t="s">
+      <c r="N67" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" s="9" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A68" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="B68" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="C68" s="12" t="s">
+      <c r="B68" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="C68" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D68" s="12" t="s">
+      <c r="D68" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="E68" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F68" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="G68" s="17" t="s">
+      <c r="E68" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F68" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="G68" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="H68" s="15" t="s">
+      <c r="H68" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="I68" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="J68" s="13" t="s">
+      <c r="I68" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="J68" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="K68" s="14" t="s">
+      <c r="K68" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="L68" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="M68" s="12" t="s">
+      <c r="L68" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="M68" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="N68" s="12" t="s">
+      <c r="N68" s="10" t="s">
         <v>45</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:N68" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N57">
     <sortCondition ref="A2:A57"/>
   </sortState>

--- a/data-raw/snu_x_im_distribution_configuration/23Tto24TMap.xlsx
+++ b/data-raw/snu_x_im_distribution_configuration/23Tto24TMap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sam/Documents/GitHub/data-pack-commons/data-raw/snu_x_im_distribution_configuration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{E3FCD9CF-A503-1545-808C-C265BA32413E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{D34CD66F-9CD4-0E4B-A4DA-6768FF51E729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="700" yWindow="9280" windowWidth="33600" windowHeight="12000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Map" sheetId="1" r:id="rId1"/>
@@ -678,7 +678,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -825,24 +825,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <name val="Lucida Grande"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <color rgb="FF202124"/>
-      <name val="Roboto"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1020,12 +1004,6 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1215,38 +1193,20 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="8" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="6" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="6"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="6" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="7" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="7"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="6" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="0" xfId="7" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="6" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1605,46 +1565,45 @@
   <dimension ref="A1:N68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="111" zoomScaleNormal="111" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.83203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="24.1640625" style="17" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" style="2" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="16.83203125" style="17" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="11.83203125" style="17" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="15.83203125" style="17" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="55.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="30.83203125" customWidth="1"/>
+    <col min="2" max="2" width="24.1640625" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="16.83203125" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="15.83203125" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="55.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="2" t="s">
         <v>64</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -1653,10 +1612,10 @@
       <c r="H1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="5" t="s">
         <v>40</v>
       </c>
       <c r="K1" s="1" t="s">
@@ -1672,2951 +1631,2951 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="C2" s="16" t="s">
+      <c r="B2" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E2" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="G2" s="16" t="s">
+      <c r="E2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="I2" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="J2" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="K2" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="M2" s="16" t="s">
+      <c r="I2" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="N2" s="16" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
+      <c r="N2" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B3" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="C3" s="16" t="s">
+      <c r="B3" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E3" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="G3" s="16" t="s">
+      <c r="E3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="I3" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="J3" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="L3" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="16" t="s">
+      <c r="I3" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="N3" s="16" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="16" t="s">
+      <c r="N3" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B4" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="C4" s="16" t="s">
+      <c r="B4" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E4" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="G4" s="17" t="s">
+      <c r="E4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="I4" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="J4" s="22" t="s">
+      <c r="I4" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J4" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="K4" s="16" t="s">
+      <c r="K4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L4" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="M4" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="N4" s="16" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" s="17" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
+      <c r="L4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B5" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="C5" s="16" t="s">
+      <c r="B5" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E5" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="G5" s="16" t="s">
+      <c r="E5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="I5" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="J5" s="22" t="s">
+      <c r="I5" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J5" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="K5" s="16" t="s">
+      <c r="K5" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="L5" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="M5" s="16" t="s">
+      <c r="L5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M5" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="N5" s="16" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="16" t="s">
+      <c r="N5" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B6" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="C6" s="16" t="s">
+      <c r="B6" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E6" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="G6" s="16" t="s">
+      <c r="E6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="H6" s="16" t="s">
+      <c r="H6" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="I6" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="J6" s="22" t="s">
+      <c r="I6" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J6" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="K6" s="16" t="s">
+      <c r="K6" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="L6" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="M6" s="16" t="s">
+      <c r="L6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M6" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="N6" s="16" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="16" t="s">
+      <c r="N6" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B7" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="C7" s="16" t="s">
+      <c r="B7" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E7" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="G7" s="16" t="s">
+      <c r="E7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="16" t="s">
+      <c r="H7" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="I7" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="J7" s="22" t="s">
+      <c r="I7" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J7" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="K7" s="16" t="s">
+      <c r="K7" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L7" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="M7" s="16" t="s">
+      <c r="L7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M7" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="N7" s="16" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="16" t="s">
+      <c r="N7" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B8" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="C8" s="16" t="s">
+      <c r="B8" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="G8" s="16" t="s">
+      <c r="E8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="H8" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="I8" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="J8" s="22" t="s">
+      <c r="I8" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J8" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="K8" s="16" t="s">
+      <c r="K8" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L8" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="16" t="s">
+      <c r="L8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="N8" s="16" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="16" t="s">
+      <c r="N8" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B9" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="C9" s="16" t="s">
+      <c r="B9" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E9" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="G9" s="16" t="s">
+      <c r="E9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="16" t="s">
+      <c r="H9" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="I9" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="J9" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="K9" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="L9" s="16" t="s">
+      <c r="I9" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L9" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="M9" s="16" t="s">
+      <c r="M9" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="N9" s="16" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="16" t="s">
+      <c r="N9" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B10" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="C10" s="16" t="s">
+      <c r="B10" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E10" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="G10" s="16" t="s">
+      <c r="E10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="H10" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="I10" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="J10" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="K10" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="L10" s="16" t="s">
+      <c r="I10" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L10" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="M10" s="16" t="s">
+      <c r="M10" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="N10" s="16" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="17" t="s">
+      <c r="N10" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B11" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="C11" s="17" t="s">
+      <c r="B11" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E11" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="G11" s="16" t="s">
+      <c r="E11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="17" t="s">
+      <c r="H11" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="I11" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="J11" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="K11" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="L11" s="16" t="s">
+      <c r="I11" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L11" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="M11" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="N11" s="16" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="17" t="s">
+      <c r="M11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="B12" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="C12" s="16" t="s">
+      <c r="B12" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="E12" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="G12" s="17" t="s">
+      <c r="E12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H12" s="17" t="s">
+      <c r="H12" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="I12" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="J12" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="K12" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="L12" s="16" t="s">
+      <c r="I12" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L12" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="M12" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="N12" s="16" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="16" t="s">
+      <c r="M12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B13" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="C13" s="16" t="s">
+      <c r="B13" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E13" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="G13" s="16" t="s">
+      <c r="E13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H13" s="16" t="s">
+      <c r="H13" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="I13" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="J13" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="K13" s="16" t="s">
+      <c r="I13" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="K13" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L13" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="M13" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="N13" s="16" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="16" t="s">
+      <c r="L13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B14" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="C14" s="16" t="s">
+      <c r="B14" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E14" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="G14" s="16" t="s">
+      <c r="E14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="16" t="s">
+      <c r="H14" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="I14" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="J14" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="K14" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="L14" s="16" t="s">
+      <c r="I14" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L14" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="M14" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="N14" s="16" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="16" t="s">
+      <c r="M14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B15" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="C15" s="16" t="s">
+      <c r="B15" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E15" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="G15" s="16" t="s">
+      <c r="E15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H15" s="16" t="s">
+      <c r="H15" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="I15" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="J15" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="K15" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="L15" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="M15" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="N15" s="16" t="s">
+      <c r="I15" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N15" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B16" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="C16" s="16" t="s">
+      <c r="B16" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E16" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="G16" s="4" t="s">
+      <c r="E16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="H16" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="I16" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="J16" s="21" t="s">
+      <c r="I16" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J16" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="K16" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L16" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="M16" s="1" t="s">
+      <c r="L16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M16" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="N16" s="1" t="s">
+      <c r="N16" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B17" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="C17" s="16" t="s">
+      <c r="B17" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E17" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F17" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="G17" s="4" t="s">
+      <c r="E17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="H17" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="I17" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="J17" s="21" t="s">
+      <c r="I17" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J17" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="K17" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="M17" s="1" t="s">
+      <c r="L17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M17" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="N17" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="19" t="s">
+      <c r="N17" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B18" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="C18" s="19" t="s">
+      <c r="B18" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="D18" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E18" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="F18" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="G18" s="20" t="s">
+      <c r="E18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G18" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="H18" s="20" t="s">
+      <c r="H18" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="I18" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="J18" s="23" t="s">
+      <c r="I18" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J18" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="K18" s="19" t="s">
+      <c r="K18" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L18" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="M18" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="N18" s="19" t="s">
+      <c r="L18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N18" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B19" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="C19" s="16" t="s">
+      <c r="B19" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E19" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F19" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="G19" s="1" t="s">
+      <c r="E19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="H19" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="I19" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="J19" s="21" t="s">
+      <c r="I19" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J19" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="K19" s="3" t="s">
+      <c r="K19" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="L19" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="M19" s="1" t="s">
+      <c r="L19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M19" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="N19" s="1" t="s">
+      <c r="N19" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B20" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="C20" s="16" t="s">
+      <c r="B20" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E20" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F20" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="G20" s="1" t="s">
+      <c r="E20" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="H20" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="I20" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="J20" s="21" t="s">
+      <c r="I20" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J20" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="K20" s="3" t="s">
+      <c r="K20" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="M20" s="1" t="s">
+      <c r="L20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M20" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="N20" s="1" t="s">
+      <c r="N20" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B21" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="C21" s="16" t="s">
+      <c r="B21" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E21" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F21" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="G21" s="1" t="s">
+      <c r="E21" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="H21" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="I21" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="J21" s="21" t="s">
+      <c r="I21" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J21" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N21" s="1" t="s">
+      <c r="K21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N21" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B22" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="C22" s="16" t="s">
+      <c r="B22" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="D22" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E22" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F22" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="G22" s="1" t="s">
+      <c r="E22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="H22" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="I22" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="J22" s="21" t="s">
+      <c r="I22" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J22" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N22" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="16" t="s">
+      <c r="K22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B23" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="C23" s="16" t="s">
+      <c r="B23" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="D23" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F23" s="16" t="s">
+      <c r="F23" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="G23" s="16" t="s">
+      <c r="G23" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H23" s="16" t="s">
+      <c r="H23" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="I23" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="J23" s="22" t="s">
+      <c r="I23" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J23" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="K23" s="16" t="s">
+      <c r="K23" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="L23" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="M23" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="N23" s="16" t="s">
+      <c r="L23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N23" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B24" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="C24" s="16" t="s">
+      <c r="B24" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="16" t="s">
+      <c r="D24" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E24" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F24" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="G24" s="1" t="s">
+      <c r="E24" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="H24" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="I24" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="J24" s="21" t="s">
+      <c r="I24" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J24" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="K24" s="3" t="s">
+      <c r="K24" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="M24" s="1" t="s">
+      <c r="L24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M24" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N24" s="1" t="s">
+      <c r="N24" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B25" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="C25" s="16" t="s">
+      <c r="B25" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="16" t="s">
+      <c r="D25" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E25" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F25" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="G25" s="1" t="s">
+      <c r="E25" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G25" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="H25" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="I25" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="J25" s="21" t="s">
+      <c r="I25" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J25" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="K25" s="3" t="s">
+      <c r="K25" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="L25" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="M25" s="1" t="s">
+      <c r="L25" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M25" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="N25" s="1" t="s">
+      <c r="N25" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B26" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="C26" s="16" t="s">
+      <c r="B26" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="D26" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E26" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F26" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="G26" s="1" t="s">
+      <c r="E26" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G26" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="H26" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="I26" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="J26" s="21" t="s">
+      <c r="I26" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J26" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="K26" s="3" t="s">
+      <c r="K26" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="M26" s="1" t="s">
+      <c r="L26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M26" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="N26" s="1" t="s">
+      <c r="N26" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B27" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="C27" s="16" t="s">
+      <c r="B27" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="16" t="s">
+      <c r="D27" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E27" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F27" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="G27" s="1" t="s">
+      <c r="E27" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G27" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="H27" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="I27" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="J27" s="21" t="s">
+      <c r="I27" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J27" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="K27" s="3" t="s">
+      <c r="K27" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="M27" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N27" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="10" t="s">
+      <c r="L27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B28" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="C28" s="17" t="s">
+      <c r="B28" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="D28" s="17" t="s">
+      <c r="D28" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="E28" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F28" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="G28" s="10" t="s">
+      <c r="E28" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G28" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H28" s="10" t="s">
+      <c r="H28" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="I28" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="J28" s="24" t="s">
+      <c r="I28" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J28" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="K28" s="11" t="s">
+      <c r="K28" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L28" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="M28" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="N28" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="10" t="s">
+      <c r="L28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B29" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="C29" s="17" t="s">
+      <c r="B29" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="D29" s="17" t="s">
+      <c r="D29" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="E29" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F29" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="G29" s="10" t="s">
+      <c r="E29" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G29" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H29" s="10" t="s">
+      <c r="H29" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="I29" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="J29" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="K29" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="L29" s="11" t="s">
+      <c r="I29" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L29" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="M29" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="N29" s="10" t="s">
+      <c r="M29" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N29" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B30" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="C30" s="16" t="s">
+      <c r="B30" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="16" t="s">
+      <c r="D30" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E30" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F30" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="G30" s="1" t="s">
+      <c r="E30" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G30" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H30" s="1" t="s">
+      <c r="H30" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="I30" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="J30" s="21" t="s">
+      <c r="I30" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J30" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="K30" s="3" t="s">
+      <c r="K30" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L30" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N30" s="1" t="s">
+      <c r="L30" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N30" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B31" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="C31" s="16" t="s">
+      <c r="B31" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D31" s="16" t="s">
+      <c r="D31" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E31" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F31" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="G31" s="1" t="s">
+      <c r="E31" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G31" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H31" s="1" t="s">
+      <c r="H31" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="I31" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="J31" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="K31" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="L31" s="3" t="s">
+      <c r="I31" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L31" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="M31" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N31" s="1" t="s">
+      <c r="M31" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N31" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B32" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="C32" s="16" t="s">
+      <c r="B32" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D32" s="16" t="s">
+      <c r="D32" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E32" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F32" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="G32" s="2" t="s">
+      <c r="E32" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G32" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="H32" s="2" t="s">
+      <c r="H32" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="I32" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="J32" s="21" t="s">
+      <c r="I32" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J32" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="K32" s="3" t="s">
+      <c r="K32" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="M32" s="1" t="s">
+      <c r="L32" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M32" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="N32" s="1" t="s">
+      <c r="N32" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B33" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="C33" s="16" t="s">
+      <c r="B33" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D33" s="16" t="s">
+      <c r="D33" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E33" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F33" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="G33" s="2" t="s">
+      <c r="E33" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G33" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="H33" s="2" t="s">
+      <c r="H33" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="I33" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="J33" s="21" t="s">
+      <c r="I33" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J33" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="K33" s="3" t="s">
+      <c r="K33" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="M33" s="1" t="s">
+      <c r="L33" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M33" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="N33" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="16" t="s">
+      <c r="N33" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B34" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="C34" s="16" t="s">
+      <c r="B34" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D34" s="16" t="s">
+      <c r="D34" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E34" s="16" t="s">
+      <c r="E34" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F34" s="16" t="s">
+      <c r="F34" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="G34" s="17" t="s">
+      <c r="G34" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="H34" s="17" t="s">
+      <c r="H34" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="I34" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="J34" s="22" t="s">
+      <c r="I34" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J34" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="K34" s="16" t="s">
+      <c r="K34" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L34" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="M34" s="16" t="s">
+      <c r="L34" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M34" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="N34" s="16" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="16" t="s">
+      <c r="N34" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B35" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="C35" s="16" t="s">
+      <c r="B35" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D35" s="16" t="s">
+      <c r="D35" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E35" s="16" t="s">
+      <c r="E35" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F35" s="16" t="s">
+      <c r="F35" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="G35" s="17" t="s">
+      <c r="G35" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="H35" s="17" t="s">
+      <c r="H35" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="I35" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="J35" s="22" t="s">
+      <c r="I35" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J35" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="K35" s="16" t="s">
+      <c r="K35" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L35" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="M35" s="16" t="s">
+      <c r="L35" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M35" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="N35" s="16" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
+      <c r="N35" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B36" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="C36" s="16" t="s">
+      <c r="B36" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D36" s="16" t="s">
+      <c r="D36" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E36" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F36" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="G36" s="2" t="s">
+      <c r="E36" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G36" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="H36" s="2" t="s">
+      <c r="H36" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="I36" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="J36" s="21" t="s">
+      <c r="I36" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J36" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="K36" s="3" t="s">
+      <c r="K36" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L36" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="M36" s="1" t="s">
+      <c r="L36" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M36" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="N36" s="1" t="s">
+      <c r="N36" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B37" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="C37" s="16" t="s">
+      <c r="B37" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D37" s="16" t="s">
+      <c r="D37" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E37" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F37" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="G37" s="2" t="s">
+      <c r="E37" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G37" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="H37" s="2" t="s">
+      <c r="H37" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="I37" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="J37" s="21" t="s">
+      <c r="I37" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J37" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="K37" s="3" t="s">
+      <c r="K37" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L37" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="M37" s="1" t="s">
+      <c r="L37" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M37" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="N37" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="16" t="s">
+      <c r="N37" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B38" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="C38" s="16" t="s">
+      <c r="B38" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D38" s="16" t="s">
+      <c r="D38" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E38" s="16" t="s">
+      <c r="E38" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F38" s="16" t="s">
+      <c r="F38" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="G38" s="16" t="s">
+      <c r="G38" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H38" s="16" t="s">
+      <c r="H38" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="I38" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="J38" s="22" t="s">
+      <c r="I38" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J38" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="K38" s="16" t="s">
+      <c r="K38" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L38" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="M38" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="N38" s="16" t="s">
+      <c r="L38" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N38" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B39" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="C39" s="16" t="s">
+      <c r="B39" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D39" s="16" t="s">
+      <c r="D39" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E39" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F39" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="G39" s="1" t="s">
+      <c r="E39" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G39" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H39" s="1" t="s">
+      <c r="H39" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="I39" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="J39" s="21" t="s">
+      <c r="I39" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J39" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="K39" s="3" t="s">
+      <c r="K39" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L39" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="M39" s="1" t="s">
+      <c r="L39" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M39" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N39" s="1" t="s">
+      <c r="N39" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B40" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="C40" s="16" t="s">
+      <c r="B40" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="16" t="s">
+      <c r="D40" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E40" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F40" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="G40" s="1" t="s">
+      <c r="E40" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G40" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H40" s="1" t="s">
+      <c r="H40" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="I40" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="J40" s="21" t="s">
+      <c r="I40" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J40" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="K40" s="3" t="s">
+      <c r="K40" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L40" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="M40" s="1" t="s">
+      <c r="L40" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M40" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="N40" s="1" t="s">
+      <c r="N40" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B41" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="C41" s="16" t="s">
+      <c r="B41" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D41" s="16" t="s">
+      <c r="D41" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E41" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F41" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="G41" s="1" t="s">
+      <c r="E41" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G41" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H41" s="1" t="s">
+      <c r="H41" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="I41" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="J41" s="21" t="s">
+      <c r="I41" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J41" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="K41" s="3" t="s">
+      <c r="K41" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="M41" s="1" t="s">
+      <c r="L41" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M41" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="N41" s="1" t="s">
+      <c r="N41" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B42" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="C42" s="16" t="s">
+      <c r="B42" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D42" s="16" t="s">
+      <c r="D42" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E42" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F42" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="G42" s="1" t="s">
+      <c r="E42" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G42" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H42" s="1" t="s">
+      <c r="H42" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I42" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="J42" s="21" t="s">
+      <c r="I42" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J42" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="K42" s="3" t="s">
+      <c r="K42" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="M42" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N42" s="1" t="s">
+      <c r="L42" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N42" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B43" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="C43" s="16" t="s">
+      <c r="B43" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D43" s="16" t="s">
+      <c r="D43" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E43" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F43" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="G43" s="1" t="s">
+      <c r="E43" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G43" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H43" s="1" t="s">
+      <c r="H43" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I43" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="J43" s="21" t="s">
+      <c r="I43" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J43" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="K43" s="3" t="s">
+      <c r="K43" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="M43" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N43" s="1" t="s">
+      <c r="L43" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M43" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N43" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B44" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="C44" s="16" t="s">
+      <c r="B44" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D44" s="16" t="s">
+      <c r="D44" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E44" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F44" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="G44" s="1" t="s">
+      <c r="E44" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G44" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H44" s="1" t="s">
+      <c r="H44" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="I44" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="J44" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="L44" s="3" t="s">
+      <c r="I44" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J44" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L44" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="M44" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N44" s="1" t="s">
+      <c r="M44" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N44" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B45" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="C45" s="16" t="s">
+      <c r="B45" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D45" s="16" t="s">
+      <c r="D45" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E45" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F45" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="G45" s="1" t="s">
+      <c r="E45" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G45" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H45" s="1" t="s">
+      <c r="H45" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="I45" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="J45" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="L45" s="3" t="s">
+      <c r="I45" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J45" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L45" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="M45" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N45" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="16" t="s">
+      <c r="M45" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N45" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B46" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="C46" s="17" t="s">
+      <c r="B46" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D46" s="17" t="s">
+      <c r="D46" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E46" s="16" t="s">
+      <c r="E46" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F46" s="16" t="s">
+      <c r="F46" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="G46" s="16" t="s">
+      <c r="G46" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H46" s="16" t="s">
+      <c r="H46" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="I46" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="J46" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="K46" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="L46" s="16" t="s">
+      <c r="I46" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J46" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L46" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="M46" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="N46" s="16" t="s">
+      <c r="M46" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N46" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B47" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="C47" s="17" t="s">
+      <c r="B47" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D47" s="17" t="s">
+      <c r="D47" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E47" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F47" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="G47" s="1" t="s">
+      <c r="E47" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G47" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H47" s="1" t="s">
+      <c r="H47" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="I47" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="J47" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="L47" s="3" t="s">
+      <c r="I47" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J47" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L47" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="M47" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N47" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="16" t="s">
+      <c r="M47" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N47" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B48" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="C48" s="17" t="s">
+      <c r="B48" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D48" s="17" t="s">
+      <c r="D48" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E48" s="16" t="s">
+      <c r="E48" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F48" s="16" t="s">
+      <c r="F48" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="G48" s="16" t="s">
+      <c r="G48" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H48" s="16" t="s">
+      <c r="H48" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="I48" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="J48" s="22" t="s">
+      <c r="I48" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J48" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="K48" s="16" t="s">
+      <c r="K48" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L48" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="M48" s="16" t="s">
+      <c r="L48" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M48" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="N48" s="16" t="s">
+      <c r="N48" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B49" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="C49" s="17" t="s">
+      <c r="B49" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D49" s="17" t="s">
+      <c r="D49" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E49" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F49" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="G49" s="1" t="s">
+      <c r="E49" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G49" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H49" s="1" t="s">
+      <c r="H49" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="I49" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="J49" s="21" t="s">
+      <c r="I49" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J49" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="K49" s="3" t="s">
+      <c r="K49" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="M49" s="1" t="s">
+      <c r="L49" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M49" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="N49" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="16" t="s">
+      <c r="N49" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B50" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="C50" s="16" t="s">
+      <c r="B50" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D50" s="16" t="s">
+      <c r="D50" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E50" s="16" t="s">
+      <c r="E50" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F50" s="16" t="s">
+      <c r="F50" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="G50" s="16" t="s">
+      <c r="G50" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H50" s="16" t="s">
+      <c r="H50" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="I50" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="J50" s="22" t="s">
+      <c r="I50" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J50" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="K50" s="16" t="s">
+      <c r="K50" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L50" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="M50" s="16" t="s">
+      <c r="L50" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M50" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="N50" s="16" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="16" t="s">
+      <c r="N50" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B51" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="C51" s="16" t="s">
+      <c r="B51" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D51" s="16" t="s">
+      <c r="D51" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E51" s="16" t="s">
+      <c r="E51" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F51" s="16" t="s">
+      <c r="F51" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="G51" s="16" t="s">
+      <c r="G51" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H51" s="16" t="s">
+      <c r="H51" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="I51" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="J51" s="22" t="s">
+      <c r="I51" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J51" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="K51" s="16" t="s">
+      <c r="K51" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L51" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="M51" s="16" t="s">
+      <c r="L51" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M51" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="N51" s="16" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="16" t="s">
+      <c r="N51" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B52" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="C52" s="16" t="s">
+      <c r="B52" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D52" s="16" t="s">
+      <c r="D52" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E52" s="16" t="s">
+      <c r="E52" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F52" s="16" t="s">
+      <c r="F52" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="G52" s="16" t="s">
+      <c r="G52" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H52" s="16" t="s">
+      <c r="H52" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="I52" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="J52" s="22" t="s">
+      <c r="I52" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J52" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="K52" s="16" t="s">
+      <c r="K52" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L52" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="M52" s="16" t="s">
+      <c r="L52" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M52" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="N52" s="16" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="16" t="s">
+      <c r="N52" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B53" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="C53" s="16" t="s">
+      <c r="B53" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D53" s="16" t="s">
+      <c r="D53" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E53" s="16" t="s">
+      <c r="E53" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F53" s="16" t="s">
+      <c r="F53" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="G53" s="16" t="s">
+      <c r="G53" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H53" s="16" t="s">
+      <c r="H53" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="I53" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="J53" s="22" t="s">
+      <c r="I53" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J53" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="K53" s="16" t="s">
+      <c r="K53" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L53" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="M53" s="16" t="s">
+      <c r="L53" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M53" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="N53" s="16" t="s">
+      <c r="N53" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B54" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="C54" s="16" t="s">
+      <c r="B54" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C54" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D54" s="16" t="s">
+      <c r="D54" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E54" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F54" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="G54" s="1" t="s">
+      <c r="E54" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G54" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H54" s="1" t="s">
+      <c r="H54" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I54" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="J54" s="21" t="s">
+      <c r="I54" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J54" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="K54" s="3" t="s">
+      <c r="K54" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="M54" s="1" t="s">
+      <c r="L54" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M54" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="N54" s="1" t="s">
+      <c r="N54" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B55" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="C55" s="16" t="s">
+      <c r="B55" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D55" s="16" t="s">
+      <c r="D55" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E55" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F55" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="G55" s="1" t="s">
+      <c r="E55" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G55" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H55" s="1" t="s">
+      <c r="H55" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I55" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="J55" s="21" t="s">
+      <c r="I55" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J55" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="K55" s="3" t="s">
+      <c r="K55" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="L55" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="M55" s="1" t="s">
+      <c r="L55" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M55" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="N55" s="1" t="s">
+      <c r="N55" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
+      <c r="A56" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B56" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="C56" s="16" t="s">
+      <c r="B56" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D56" s="16" t="s">
+      <c r="D56" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E56" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F56" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="G56" s="1" t="s">
+      <c r="E56" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G56" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H56" s="1" t="s">
+      <c r="H56" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I56" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="J56" s="21" t="s">
+      <c r="I56" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J56" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="K56" s="3" t="s">
+      <c r="K56" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="L56" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="M56" s="1" t="s">
+      <c r="L56" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M56" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="N56" s="1" t="s">
+      <c r="N56" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
+      <c r="A57" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B57" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="C57" s="18" t="s">
+      <c r="B57" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C57" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D57" s="16" t="s">
+      <c r="D57" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="E57" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F57" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="G57" s="1" t="s">
+      <c r="E57" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G57" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H57" s="1" t="s">
+      <c r="H57" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I57" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="J57" s="21" t="s">
+      <c r="I57" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J57" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="K57" s="6" t="s">
+      <c r="K57" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="L57" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="M57" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="N57" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="7" t="s">
+      <c r="L57" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M57" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N57" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A58" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="B58" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="C58" s="18" t="s">
+      <c r="B58" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C58" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D58" s="16" t="s">
+      <c r="D58" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E58" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F58" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="G58" s="7" t="s">
+      <c r="E58" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G58" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="H58" s="7" t="s">
+      <c r="H58" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="I58" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="J58" s="21" t="s">
+      <c r="I58" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J58" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="K58" s="8" t="s">
+      <c r="K58" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="L58" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="M58" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="N58" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="9" t="s">
+      <c r="L58" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M58" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N58" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A59" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="B59" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="C59" s="17" t="s">
+      <c r="B59" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C59" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="D59" s="17" t="s">
+      <c r="D59" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="E59" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="F59" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="G59" s="10" t="s">
+      <c r="E59" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G59" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H59" s="10" t="s">
+      <c r="H59" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="I59" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="J59" s="24" t="s">
+      <c r="I59" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J59" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="K59" s="11" t="s">
+      <c r="K59" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L59" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="M59" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="N59" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="9" t="s">
+      <c r="L59" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M59" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N59" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A60" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="B60" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="C60" s="16" t="s">
+      <c r="B60" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D60" s="16" t="s">
+      <c r="D60" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E60" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F60" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="G60" s="10" t="s">
+      <c r="E60" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G60" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="H60" s="10" t="s">
+      <c r="H60" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="I60" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="J60" s="24" t="s">
+      <c r="I60" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J60" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="K60" s="11" t="s">
+      <c r="K60" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L60" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="M60" s="9" t="s">
+      <c r="L60" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M60" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="N60" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="9" t="s">
+      <c r="N60" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A61" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="B61" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="C61" s="16" t="s">
+      <c r="B61" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D61" s="16" t="s">
+      <c r="D61" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E61" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F61" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="G61" s="10" t="s">
+      <c r="E61" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G61" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="H61" s="10" t="s">
+      <c r="H61" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="I61" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="J61" s="24" t="s">
+      <c r="I61" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J61" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="K61" s="11" t="s">
+      <c r="K61" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L61" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="M61" s="10" t="s">
+      <c r="L61" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M61" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="N61" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="9" t="s">
+      <c r="N61" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A62" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="B62" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="C62" s="16" t="s">
+      <c r="B62" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C62" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D62" s="16" t="s">
+      <c r="D62" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E62" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F62" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="G62" s="15" t="s">
+      <c r="E62" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G62" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="H62" s="9" t="s">
+      <c r="H62" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="I62" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="J62" s="24" t="s">
+      <c r="I62" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J62" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="K62" s="11" t="s">
+      <c r="K62" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L62" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="M62" s="10" t="s">
+      <c r="L62" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M62" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="N62" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="9" t="s">
+      <c r="N62" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A63" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="B63" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="C63" s="16" t="s">
+      <c r="B63" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C63" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D63" s="16" t="s">
+      <c r="D63" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E63" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F63" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="G63" s="15" t="s">
+      <c r="E63" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G63" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="H63" s="9" t="s">
+      <c r="H63" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="I63" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="J63" s="24" t="s">
+      <c r="I63" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J63" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="K63" s="11" t="s">
+      <c r="K63" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L63" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="M63" s="10" t="s">
+      <c r="L63" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M63" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="N63" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" s="9" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A64" s="9" t="s">
+      <c r="N63" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="A64" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="B64" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="C64" s="16" t="s">
+      <c r="B64" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C64" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D64" s="16" t="s">
+      <c r="D64" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E64" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F64" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="G64" s="12" t="s">
+      <c r="E64" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G64" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="H64" s="12" t="s">
+      <c r="H64" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="I64" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="J64" s="24" t="s">
+      <c r="I64" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J64" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="K64" s="11" t="s">
+      <c r="K64" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L64" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="M64" s="10" t="s">
+      <c r="L64" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M64" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="N64" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" s="9" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A65" s="9" t="s">
+      <c r="N64" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="A65" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="B65" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="C65" s="16" t="s">
+      <c r="B65" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C65" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D65" s="16" t="s">
+      <c r="D65" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E65" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F65" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="G65" s="12" t="s">
+      <c r="E65" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G65" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="H65" s="12" t="s">
+      <c r="H65" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="I65" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="J65" s="24" t="s">
+      <c r="I65" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J65" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="K65" s="11" t="s">
+      <c r="K65" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L65" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="M65" s="10" t="s">
+      <c r="L65" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M65" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="N65" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" s="9" customFormat="1" ht="153" x14ac:dyDescent="0.2">
-      <c r="A66" s="9" t="s">
+      <c r="N65" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" ht="153" x14ac:dyDescent="0.2">
+      <c r="A66" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="B66" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="C66" s="16" t="s">
+      <c r="B66" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C66" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D66" s="17" t="s">
+      <c r="D66" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="E66" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F66" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="G66" s="13" t="s">
+      <c r="E66" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G66" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="H66" s="13" t="s">
+      <c r="H66" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="I66" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="J66" s="24" t="s">
+      <c r="I66" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J66" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="K66" s="11" t="s">
+      <c r="K66" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L66" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="M66" s="10" t="s">
+      <c r="L66" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M66" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="N66" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" s="9" customFormat="1" ht="68" x14ac:dyDescent="0.2">
-      <c r="A67" s="9" t="s">
+      <c r="N66" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="A67" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B67" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="C67" s="16" t="s">
+      <c r="B67" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C67" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D67" s="16" t="s">
+      <c r="D67" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E67" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F67" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="G67" s="14" t="s">
+      <c r="E67" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G67" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="H67" s="12" t="s">
+      <c r="H67" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="I67" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="J67" s="24" t="s">
+      <c r="I67" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J67" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="K67" s="11" t="s">
+      <c r="K67" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L67" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="M67" s="10" t="s">
+      <c r="L67" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M67" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="N67" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" s="9" customFormat="1" ht="68" x14ac:dyDescent="0.2">
-      <c r="A68" s="9" t="s">
+      <c r="N67" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="A68" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B68" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="C68" s="16" t="s">
+      <c r="B68" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C68" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D68" s="16" t="s">
+      <c r="D68" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E68" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F68" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="G68" s="14" t="s">
+      <c r="E68" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G68" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="H68" s="12" t="s">
+      <c r="H68" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="I68" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="J68" s="24" t="s">
+      <c r="I68" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J68" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="K68" s="11" t="s">
+      <c r="K68" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L68" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="M68" s="10" t="s">
+      <c r="L68" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M68" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="N68" s="10" t="s">
+      <c r="N68" s="2" t="s">
         <v>45</v>
       </c>
     </row>
